--- a/experiment_design/store/design_matrix.xlsx
+++ b/experiment_design/store/design_matrix.xlsx
@@ -1,21 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bparthum\Box\farmland_conservation\analyze\farmland_git\experiment_design\store\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C464C8-68A9-4ACB-930F-2BCF799DA2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -79,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -102,359 +95,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N193"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -512,110 +173,110 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>120</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="F4" s="1">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
       <c r="G4" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I4" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -627,10 +288,10 @@
         <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -671,10 +332,10 @@
         <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -688,22 +349,22 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -715,10 +376,10 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -759,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -779,19 +440,19 @@
         <v>50</v>
       </c>
       <c r="F8" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -803,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="N8" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -847,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -864,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -891,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -935,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -952,16 +613,16 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
         <v>40</v>
       </c>
       <c r="H12" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -982,7 +643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1026,7 +687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1043,7 +704,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1">
         <v>80</v>
@@ -1052,10 +713,10 @@
         <v>500</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
@@ -1067,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="N14" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1111,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="N15" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1128,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1">
         <v>80</v>
@@ -1137,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
+        <v>500</v>
+      </c>
+      <c r="I16" s="1">
         <v>1000</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
       <c r="J16" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
@@ -1155,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="N16" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1199,10 +860,10 @@
         <v>8</v>
       </c>
       <c r="N17" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1219,19 +880,19 @@
         <v>20</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1">
         <v>500</v>
       </c>
       <c r="I18" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -1243,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="N18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1287,10 +948,10 @@
         <v>9</v>
       </c>
       <c r="N19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1307,19 +968,19 @@
         <v>50</v>
       </c>
       <c r="F20" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>40</v>
-      </c>
-      <c r="H20" s="1">
-        <v>500</v>
-      </c>
-      <c r="I20" s="1">
-        <v>500</v>
-      </c>
-      <c r="J20" s="1">
-        <v>15</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
@@ -1331,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -1375,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1392,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1419,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="N22" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1463,10 +1124,10 @@
         <v>11</v>
       </c>
       <c r="N23" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1486,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H24" s="1">
         <v>1000</v>
       </c>
       <c r="I24" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
         <v>40</v>
@@ -1507,10 +1168,10 @@
         <v>12</v>
       </c>
       <c r="N24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1551,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="N25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1568,22 +1229,22 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H26" s="1">
         <v>1000</v>
       </c>
       <c r="I26" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
@@ -1595,10 +1256,10 @@
         <v>13</v>
       </c>
       <c r="N26" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1639,10 +1300,10 @@
         <v>13</v>
       </c>
       <c r="N27" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1656,19 +1317,19 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J28" s="1">
         <v>5</v>
@@ -1683,10 +1344,10 @@
         <v>14</v>
       </c>
       <c r="N28" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1727,10 +1388,10 @@
         <v>14</v>
       </c>
       <c r="N29" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -1744,22 +1405,22 @@
         <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1">
         <v>80</v>
       </c>
       <c r="G30" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J30" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
         <v>13</v>
@@ -1771,10 +1432,10 @@
         <v>15</v>
       </c>
       <c r="N30" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1815,10 +1476,10 @@
         <v>15</v>
       </c>
       <c r="N31" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1832,22 +1493,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I32" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J32" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K32" t="s">
         <v>13</v>
@@ -1859,10 +1520,10 @@
         <v>16</v>
       </c>
       <c r="N32" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1903,10 +1564,10 @@
         <v>16</v>
       </c>
       <c r="N33" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1923,16 +1584,16 @@
         <v>50</v>
       </c>
       <c r="F34" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J34" s="1">
         <v>40</v>
@@ -1947,10 +1608,10 @@
         <v>17</v>
       </c>
       <c r="N34" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -1991,10 +1652,10 @@
         <v>17</v>
       </c>
       <c r="N35" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -2008,19 +1669,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>5</v>
@@ -2035,10 +1696,10 @@
         <v>18</v>
       </c>
       <c r="N36" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -2079,10 +1740,10 @@
         <v>18</v>
       </c>
       <c r="N37" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -2096,22 +1757,22 @@
         <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J38" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s">
         <v>13</v>
@@ -2123,10 +1784,10 @@
         <v>19</v>
       </c>
       <c r="N38" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -2167,10 +1828,10 @@
         <v>19</v>
       </c>
       <c r="N39" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -2187,16 +1848,16 @@
         <v>20</v>
       </c>
       <c r="F40" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G40" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>1000</v>
       </c>
       <c r="I40" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>15</v>
@@ -2211,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="N40" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -2255,10 +1916,10 @@
         <v>20</v>
       </c>
       <c r="N41" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -2272,22 +1933,22 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H42" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
         <v>500</v>
       </c>
       <c r="J42" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
@@ -2299,10 +1960,10 @@
         <v>21</v>
       </c>
       <c r="N42" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -2343,10 +2004,10 @@
         <v>21</v>
       </c>
       <c r="N43" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -2360,22 +2021,22 @@
         <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F44" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H44" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <v>500</v>
       </c>
       <c r="J44" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
@@ -2387,10 +2048,10 @@
         <v>22</v>
       </c>
       <c r="N44" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -2431,10 +2092,10 @@
         <v>22</v>
       </c>
       <c r="N45" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -2454,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I46" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J46" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
@@ -2478,7 +2139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -2522,7 +2183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -2539,16 +2200,16 @@
         <v>5</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G48" s="1">
         <v>120</v>
       </c>
       <c r="H48" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="1">
         <v>15</v>
@@ -2563,10 +2224,10 @@
         <v>24</v>
       </c>
       <c r="N48" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -2607,10 +2268,10 @@
         <v>24</v>
       </c>
       <c r="N49" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -2624,16 +2285,16 @@
         <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G50" s="1">
         <v>80</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -2651,10 +2312,10 @@
         <v>25</v>
       </c>
       <c r="N50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -2695,10 +2356,10 @@
         <v>25</v>
       </c>
       <c r="N51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -2715,19 +2376,19 @@
         <v>50</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G52" s="1">
         <v>80</v>
       </c>
       <c r="H52" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1">
         <v>500</v>
       </c>
       <c r="J52" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K52" t="s">
         <v>13</v>
@@ -2739,10 +2400,10 @@
         <v>26</v>
       </c>
       <c r="N52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -2783,10 +2444,10 @@
         <v>26</v>
       </c>
       <c r="N53" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="1">
         <v>4</v>
       </c>
@@ -2800,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2809,13 +2470,13 @@
         <v>80</v>
       </c>
       <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
         <v>1000</v>
       </c>
-      <c r="I54" s="1">
-        <v>500</v>
-      </c>
       <c r="J54" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s">
         <v>13</v>
@@ -2827,10 +2488,10 @@
         <v>27</v>
       </c>
       <c r="N54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -2871,10 +2532,10 @@
         <v>27</v>
       </c>
       <c r="N55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="1">
         <v>4</v>
       </c>
@@ -2888,16 +2549,16 @@
         <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -2915,10 +2576,10 @@
         <v>28</v>
       </c>
       <c r="N56" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1">
         <v>4</v>
       </c>
@@ -2959,10 +2620,10 @@
         <v>28</v>
       </c>
       <c r="N57" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1">
         <v>4</v>
       </c>
@@ -2976,22 +2637,22 @@
         <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F58" s="1">
         <v>40</v>
       </c>
       <c r="G58" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="1">
         <v>500</v>
       </c>
-      <c r="I58" s="1">
-        <v>1000</v>
-      </c>
       <c r="J58" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K58" t="s">
         <v>13</v>
@@ -3003,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="N58" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="1">
         <v>4</v>
       </c>
@@ -3047,10 +2708,10 @@
         <v>29</v>
       </c>
       <c r="N59" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1">
         <v>4</v>
       </c>
@@ -3064,16 +2725,16 @@
         <v>4</v>
       </c>
       <c r="E60" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I60" s="1">
         <v>1000</v>
@@ -3091,10 +2752,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -3135,10 +2796,10 @@
         <v>30</v>
       </c>
       <c r="N61" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -3152,22 +2813,22 @@
         <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F62" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G62" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J62" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K62" t="s">
         <v>13</v>
@@ -3179,10 +2840,10 @@
         <v>31</v>
       </c>
       <c r="N62" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -3223,10 +2884,10 @@
         <v>31</v>
       </c>
       <c r="N63" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1">
         <v>4</v>
       </c>
@@ -3240,22 +2901,22 @@
         <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F64" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H64" s="1">
         <v>1000</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J64" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K64" t="s">
         <v>13</v>
@@ -3267,10 +2928,10 @@
         <v>32</v>
       </c>
       <c r="N64" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -3311,10 +2972,10 @@
         <v>32</v>
       </c>
       <c r="N65" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -3328,10 +2989,10 @@
         <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F66" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G66" s="1">
         <v>80</v>
@@ -3343,7 +3004,7 @@
         <v>1000</v>
       </c>
       <c r="J66" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K66" t="s">
         <v>13</v>
@@ -3355,10 +3016,10 @@
         <v>33</v>
       </c>
       <c r="N66" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1">
         <v>5</v>
       </c>
@@ -3399,10 +3060,10 @@
         <v>33</v>
       </c>
       <c r="N67" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1">
         <v>5</v>
       </c>
@@ -3416,16 +3077,16 @@
         <v>4</v>
       </c>
       <c r="E68" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F68" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H68" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
         <v>1000</v>
@@ -3443,10 +3104,10 @@
         <v>34</v>
       </c>
       <c r="N68" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1">
         <v>5</v>
       </c>
@@ -3487,10 +3148,10 @@
         <v>34</v>
       </c>
       <c r="N69" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="1">
         <v>5</v>
       </c>
@@ -3504,19 +3165,19 @@
         <v>4</v>
       </c>
       <c r="E70" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F70" s="1">
         <v>120</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H70" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J70" s="1">
         <v>5</v>
@@ -3531,10 +3192,10 @@
         <v>35</v>
       </c>
       <c r="N70" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="1">
         <v>5</v>
       </c>
@@ -3575,10 +3236,10 @@
         <v>35</v>
       </c>
       <c r="N71" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -3592,22 +3253,22 @@
         <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F72" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
         <v>40</v>
       </c>
       <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
         <v>1000</v>
       </c>
-      <c r="I72" s="1">
-        <v>500</v>
-      </c>
       <c r="J72" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s">
         <v>13</v>
@@ -3619,10 +3280,10 @@
         <v>36</v>
       </c>
       <c r="N72" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -3663,10 +3324,10 @@
         <v>36</v>
       </c>
       <c r="N73" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="1">
         <v>5</v>
       </c>
@@ -3680,13 +3341,13 @@
         <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F74" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G74" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H74" s="1">
         <v>500</v>
@@ -3695,7 +3356,7 @@
         <v>500</v>
       </c>
       <c r="J74" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K74" t="s">
         <v>13</v>
@@ -3707,10 +3368,10 @@
         <v>37</v>
       </c>
       <c r="N74" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="1">
         <v>5</v>
       </c>
@@ -3751,10 +3412,10 @@
         <v>37</v>
       </c>
       <c r="N75" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="1">
         <v>5</v>
       </c>
@@ -3768,22 +3429,22 @@
         <v>4</v>
       </c>
       <c r="E76" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H76" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="1">
         <v>500</v>
       </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
       <c r="J76" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K76" t="s">
         <v>13</v>
@@ -3795,10 +3456,10 @@
         <v>38</v>
       </c>
       <c r="N76" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="1">
         <v>5</v>
       </c>
@@ -3839,10 +3500,10 @@
         <v>38</v>
       </c>
       <c r="N77" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -3856,22 +3517,22 @@
         <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F78" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I78" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J78" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K78" t="s">
         <v>13</v>
@@ -3883,10 +3544,10 @@
         <v>39</v>
       </c>
       <c r="N78" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1">
         <v>5</v>
       </c>
@@ -3927,10 +3588,10 @@
         <v>39</v>
       </c>
       <c r="N79" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -3947,16 +3608,16 @@
         <v>50</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G80" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H80" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I80" s="1">
         <v>500</v>
-      </c>
-      <c r="I80" s="1">
-        <v>0</v>
       </c>
       <c r="J80" s="1">
         <v>40</v>
@@ -3971,10 +3632,10 @@
         <v>40</v>
       </c>
       <c r="N80" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="1">
         <v>5</v>
       </c>
@@ -4015,10 +3676,10 @@
         <v>40</v>
       </c>
       <c r="N81" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="1">
         <v>6</v>
       </c>
@@ -4032,22 +3693,22 @@
         <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G82" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H82" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
         <v>1000</v>
       </c>
       <c r="J82" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K82" t="s">
         <v>13</v>
@@ -4059,10 +3720,10 @@
         <v>41</v>
       </c>
       <c r="N82" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="1">
         <v>6</v>
       </c>
@@ -4103,10 +3764,10 @@
         <v>41</v>
       </c>
       <c r="N83" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="1">
         <v>6</v>
       </c>
@@ -4123,19 +3784,19 @@
         <v>100</v>
       </c>
       <c r="F84" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G84" s="1">
         <v>40</v>
       </c>
       <c r="H84" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I84" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J84" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
@@ -4147,10 +3808,10 @@
         <v>42</v>
       </c>
       <c r="N84" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="1">
         <v>6</v>
       </c>
@@ -4191,10 +3852,10 @@
         <v>42</v>
       </c>
       <c r="N85" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="1">
         <v>6</v>
       </c>
@@ -4208,16 +3869,16 @@
         <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F86" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I86" s="1">
         <v>500</v>
@@ -4235,10 +3896,10 @@
         <v>43</v>
       </c>
       <c r="N86" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="1">
         <v>6</v>
       </c>
@@ -4279,10 +3940,10 @@
         <v>43</v>
       </c>
       <c r="N87" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="1">
         <v>6</v>
       </c>
@@ -4299,19 +3960,19 @@
         <v>5</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
         <v>40</v>
-      </c>
-      <c r="H88" s="1">
-        <v>500</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1">
-        <v>5</v>
       </c>
       <c r="K88" t="s">
         <v>13</v>
@@ -4323,10 +3984,10 @@
         <v>44</v>
       </c>
       <c r="N88" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="1">
         <v>6</v>
       </c>
@@ -4367,10 +4028,10 @@
         <v>44</v>
       </c>
       <c r="N89" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="1">
         <v>6</v>
       </c>
@@ -4387,19 +4048,19 @@
         <v>5</v>
       </c>
       <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
         <v>40</v>
       </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
       <c r="H90" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I90" s="1">
         <v>500</v>
       </c>
       <c r="J90" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K90" t="s">
         <v>13</v>
@@ -4411,10 +4072,10 @@
         <v>45</v>
       </c>
       <c r="N90" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="1">
         <v>6</v>
       </c>
@@ -4455,10 +4116,10 @@
         <v>45</v>
       </c>
       <c r="N91" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -4472,10 +4133,10 @@
         <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F92" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G92" s="1">
         <v>0</v>
@@ -4484,10 +4145,10 @@
         <v>1000</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J92" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K92" t="s">
         <v>13</v>
@@ -4499,10 +4160,10 @@
         <v>46</v>
       </c>
       <c r="N92" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="1">
         <v>6</v>
       </c>
@@ -4543,10 +4204,10 @@
         <v>46</v>
       </c>
       <c r="N93" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -4560,19 +4221,19 @@
         <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F94" s="1">
         <v>40</v>
       </c>
       <c r="G94" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H94" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I94" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J94" s="1">
         <v>15</v>
@@ -4587,10 +4248,10 @@
         <v>47</v>
       </c>
       <c r="N94" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="1">
         <v>6</v>
       </c>
@@ -4631,10 +4292,10 @@
         <v>47</v>
       </c>
       <c r="N95" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="1">
         <v>6</v>
       </c>
@@ -4648,22 +4309,22 @@
         <v>4</v>
       </c>
       <c r="E96" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F96" s="1">
         <v>80</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H96" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I96" s="1">
         <v>1000</v>
       </c>
       <c r="J96" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K96" t="s">
         <v>13</v>
@@ -4675,10 +4336,10 @@
         <v>48</v>
       </c>
       <c r="N96" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="1">
         <v>6</v>
       </c>
@@ -4719,10 +4380,10 @@
         <v>48</v>
       </c>
       <c r="N97" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -4736,110 +4397,110 @@
         <v>4</v>
       </c>
       <c r="E98" s="1">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>40</v>
+      </c>
+      <c r="G98" s="1">
+        <v>80</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>30</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
         <v>100</v>
       </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>120</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J98" s="1">
-        <v>60</v>
-      </c>
-      <c r="K98" t="s">
-        <v>14</v>
-      </c>
-      <c r="L98" s="1">
-        <v>1</v>
-      </c>
-      <c r="M98" s="1">
-        <v>1</v>
-      </c>
-      <c r="N98" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="1">
-        <v>1</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1">
-        <v>0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>14</v>
-      </c>
-      <c r="L99" s="1">
-        <v>2</v>
-      </c>
-      <c r="M99" s="1">
-        <v>1</v>
-      </c>
-      <c r="N99" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="1">
-        <v>1</v>
-      </c>
-      <c r="B100" s="1">
-        <v>2</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="1">
-        <v>50</v>
-      </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G100" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H100" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I100" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J100" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K100" t="s">
         <v>14</v>
@@ -4851,10 +4512,10 @@
         <v>2</v>
       </c>
       <c r="N100" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -4895,10 +4556,10 @@
         <v>2</v>
       </c>
       <c r="N101" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -4912,22 +4573,22 @@
         <v>4</v>
       </c>
       <c r="E102" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F102" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G102" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H102" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I102" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J102" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K102" t="s">
         <v>14</v>
@@ -4939,10 +4600,10 @@
         <v>3</v>
       </c>
       <c r="N102" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -4983,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="N103" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -5003,19 +4664,19 @@
         <v>50</v>
       </c>
       <c r="F104" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I104" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J104" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K104" t="s">
         <v>14</v>
@@ -5027,10 +4688,10 @@
         <v>4</v>
       </c>
       <c r="N104" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -5071,10 +4732,10 @@
         <v>4</v>
       </c>
       <c r="N105" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -5088,22 +4749,22 @@
         <v>4</v>
       </c>
       <c r="E106" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F106" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I106" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J106" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K106" t="s">
         <v>14</v>
@@ -5115,10 +4776,10 @@
         <v>5</v>
       </c>
       <c r="N106" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -5159,10 +4820,10 @@
         <v>5</v>
       </c>
       <c r="N107" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -5176,16 +4837,16 @@
         <v>4</v>
       </c>
       <c r="E108" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G108" s="1">
         <v>40</v>
       </c>
       <c r="H108" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -5206,7 +4867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -5250,7 +4911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -5267,7 +4928,7 @@
         <v>50</v>
       </c>
       <c r="F110" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G110" s="1">
         <v>80</v>
@@ -5276,10 +4937,10 @@
         <v>500</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J110" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K110" t="s">
         <v>14</v>
@@ -5291,10 +4952,10 @@
         <v>7</v>
       </c>
       <c r="N110" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -5335,10 +4996,10 @@
         <v>7</v>
       </c>
       <c r="N111" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -5352,7 +5013,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F112" s="1">
         <v>80</v>
@@ -5361,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="H112" s="1">
+        <v>500</v>
+      </c>
+      <c r="I112" s="1">
         <v>1000</v>
       </c>
-      <c r="I112" s="1">
-        <v>0</v>
-      </c>
       <c r="J112" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K112" t="s">
         <v>14</v>
@@ -5379,10 +5040,10 @@
         <v>8</v>
       </c>
       <c r="N112" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -5423,10 +5084,10 @@
         <v>8</v>
       </c>
       <c r="N113" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -5443,19 +5104,19 @@
         <v>20</v>
       </c>
       <c r="F114" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G114" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H114" s="1">
         <v>500</v>
       </c>
       <c r="I114" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J114" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K114" t="s">
         <v>14</v>
@@ -5467,10 +5128,10 @@
         <v>9</v>
       </c>
       <c r="N114" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -5511,10 +5172,10 @@
         <v>9</v>
       </c>
       <c r="N115" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -5531,19 +5192,19 @@
         <v>50</v>
       </c>
       <c r="F116" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G116" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H116" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I116" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J116" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K116" t="s">
         <v>14</v>
@@ -5555,10 +5216,10 @@
         <v>10</v>
       </c>
       <c r="N116" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -5599,10 +5260,10 @@
         <v>10</v>
       </c>
       <c r="N117" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -5616,13 +5277,13 @@
         <v>4</v>
       </c>
       <c r="E118" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F118" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G118" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -5643,10 +5304,10 @@
         <v>11</v>
       </c>
       <c r="N118" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -5687,10 +5348,10 @@
         <v>11</v>
       </c>
       <c r="N119" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -5710,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="G120" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H120" s="1">
         <v>1000</v>
       </c>
       <c r="I120" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J120" s="1">
         <v>60</v>
@@ -5731,10 +5392,10 @@
         <v>12</v>
       </c>
       <c r="N120" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -5775,10 +5436,10 @@
         <v>12</v>
       </c>
       <c r="N121" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -5792,22 +5453,22 @@
         <v>4</v>
       </c>
       <c r="E122" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
       </c>
       <c r="G122" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H122" s="1">
         <v>1000</v>
       </c>
       <c r="I122" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J122" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K122" t="s">
         <v>14</v>
@@ -5819,10 +5480,10 @@
         <v>13</v>
       </c>
       <c r="N122" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -5863,10 +5524,10 @@
         <v>13</v>
       </c>
       <c r="N123" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -5880,19 +5541,19 @@
         <v>4</v>
       </c>
       <c r="E124" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G124" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H124" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I124" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J124" s="1">
         <v>15</v>
@@ -5907,10 +5568,10 @@
         <v>14</v>
       </c>
       <c r="N124" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -5951,10 +5612,10 @@
         <v>14</v>
       </c>
       <c r="N125" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -5968,22 +5629,22 @@
         <v>4</v>
       </c>
       <c r="E126" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F126" s="1">
         <v>80</v>
       </c>
       <c r="G126" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H126" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I126" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J126" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K126" t="s">
         <v>14</v>
@@ -5995,10 +5656,10 @@
         <v>15</v>
       </c>
       <c r="N126" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -6039,10 +5700,10 @@
         <v>15</v>
       </c>
       <c r="N127" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -6056,22 +5717,22 @@
         <v>4</v>
       </c>
       <c r="E128" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F128" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G128" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H128" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I128" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J128" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K128" t="s">
         <v>14</v>
@@ -6083,10 +5744,10 @@
         <v>16</v>
       </c>
       <c r="N128" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -6127,10 +5788,10 @@
         <v>16</v>
       </c>
       <c r="N129" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="1">
         <v>3</v>
       </c>
@@ -6147,16 +5808,16 @@
         <v>50</v>
       </c>
       <c r="F130" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
       </c>
       <c r="H130" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I130" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J130" s="1">
         <v>60</v>
@@ -6171,10 +5832,10 @@
         <v>17</v>
       </c>
       <c r="N130" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="1">
         <v>3</v>
       </c>
@@ -6215,10 +5876,10 @@
         <v>17</v>
       </c>
       <c r="N131" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="1">
         <v>3</v>
       </c>
@@ -6232,19 +5893,19 @@
         <v>4</v>
       </c>
       <c r="E132" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F132" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G132" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H132" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I132" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J132" s="1">
         <v>15</v>
@@ -6259,10 +5920,10 @@
         <v>18</v>
       </c>
       <c r="N132" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" s="1">
         <v>3</v>
       </c>
@@ -6303,10 +5964,10 @@
         <v>18</v>
       </c>
       <c r="N133" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="1">
         <v>3</v>
       </c>
@@ -6320,22 +5981,22 @@
         <v>4</v>
       </c>
       <c r="E134" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H134" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I134" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J134" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K134" t="s">
         <v>14</v>
@@ -6347,10 +6008,10 @@
         <v>19</v>
       </c>
       <c r="N134" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" s="1">
         <v>3</v>
       </c>
@@ -6391,10 +6052,10 @@
         <v>19</v>
       </c>
       <c r="N135" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" s="1">
         <v>3</v>
       </c>
@@ -6411,16 +6072,16 @@
         <v>20</v>
       </c>
       <c r="F136" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G136" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H136" s="1">
         <v>1000</v>
       </c>
       <c r="I136" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J136" s="1">
         <v>30</v>
@@ -6435,10 +6096,10 @@
         <v>20</v>
       </c>
       <c r="N136" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" s="1">
         <v>3</v>
       </c>
@@ -6479,10 +6140,10 @@
         <v>20</v>
       </c>
       <c r="N137" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" s="1">
         <v>3</v>
       </c>
@@ -6496,22 +6157,22 @@
         <v>4</v>
       </c>
       <c r="E138" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F138" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G138" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H138" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I138" s="1">
         <v>500</v>
       </c>
       <c r="J138" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K138" t="s">
         <v>14</v>
@@ -6523,10 +6184,10 @@
         <v>21</v>
       </c>
       <c r="N138" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" s="1">
         <v>3</v>
       </c>
@@ -6567,10 +6228,10 @@
         <v>21</v>
       </c>
       <c r="N139" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" s="1">
         <v>3</v>
       </c>
@@ -6584,22 +6245,22 @@
         <v>4</v>
       </c>
       <c r="E140" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F140" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G140" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H140" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I140" s="1">
         <v>500</v>
       </c>
       <c r="J140" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K140" t="s">
         <v>14</v>
@@ -6611,10 +6272,10 @@
         <v>22</v>
       </c>
       <c r="N140" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -6655,10 +6316,10 @@
         <v>22</v>
       </c>
       <c r="N141" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -6678,16 +6339,16 @@
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H142" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I142" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J142" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K142" t="s">
         <v>14</v>
@@ -6702,7 +6363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143">
       <c r="A143" s="1">
         <v>3</v>
       </c>
@@ -6746,7 +6407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144">
       <c r="A144" s="1">
         <v>3</v>
       </c>
@@ -6763,16 +6424,16 @@
         <v>5</v>
       </c>
       <c r="F144" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G144" s="1">
         <v>120</v>
       </c>
       <c r="H144" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I144" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J144" s="1">
         <v>30</v>
@@ -6787,10 +6448,10 @@
         <v>24</v>
       </c>
       <c r="N144" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" s="1">
         <v>3</v>
       </c>
@@ -6831,10 +6492,10 @@
         <v>24</v>
       </c>
       <c r="N145" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" s="1">
         <v>4</v>
       </c>
@@ -6848,16 +6509,16 @@
         <v>4</v>
       </c>
       <c r="E146" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F146" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G146" s="1">
         <v>80</v>
       </c>
       <c r="H146" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I146" s="1">
         <v>0</v>
@@ -6875,10 +6536,10 @@
         <v>25</v>
       </c>
       <c r="N146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" s="1">
         <v>4</v>
       </c>
@@ -6919,10 +6580,10 @@
         <v>25</v>
       </c>
       <c r="N147" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" s="1">
         <v>4</v>
       </c>
@@ -6939,19 +6600,19 @@
         <v>50</v>
       </c>
       <c r="F148" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G148" s="1">
         <v>80</v>
       </c>
       <c r="H148" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I148" s="1">
         <v>500</v>
       </c>
       <c r="J148" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
@@ -6963,10 +6624,10 @@
         <v>26</v>
       </c>
       <c r="N148" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="A149" s="1">
         <v>4</v>
       </c>
@@ -7007,10 +6668,10 @@
         <v>26</v>
       </c>
       <c r="N149" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150" s="1">
         <v>4</v>
       </c>
@@ -7024,7 +6685,7 @@
         <v>4</v>
       </c>
       <c r="E150" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
@@ -7033,13 +6694,13 @@
         <v>80</v>
       </c>
       <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
         <v>1000</v>
       </c>
-      <c r="I150" s="1">
-        <v>500</v>
-      </c>
       <c r="J150" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K150" t="s">
         <v>14</v>
@@ -7051,10 +6712,10 @@
         <v>27</v>
       </c>
       <c r="N150" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -7095,10 +6756,10 @@
         <v>27</v>
       </c>
       <c r="N151" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152" s="1">
         <v>4</v>
       </c>
@@ -7112,16 +6773,16 @@
         <v>4</v>
       </c>
       <c r="E152" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
       </c>
       <c r="G152" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
         <v>0</v>
@@ -7139,10 +6800,10 @@
         <v>28</v>
       </c>
       <c r="N152" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153" s="1">
         <v>4</v>
       </c>
@@ -7183,10 +6844,10 @@
         <v>28</v>
       </c>
       <c r="N153" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -7200,22 +6861,22 @@
         <v>4</v>
       </c>
       <c r="E154" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F154" s="1">
         <v>40</v>
       </c>
       <c r="G154" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H154" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I154" s="1">
         <v>500</v>
       </c>
-      <c r="I154" s="1">
-        <v>1000</v>
-      </c>
       <c r="J154" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K154" t="s">
         <v>14</v>
@@ -7227,10 +6888,10 @@
         <v>29</v>
       </c>
       <c r="N154" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" s="1">
         <v>4</v>
       </c>
@@ -7271,10 +6932,10 @@
         <v>29</v>
       </c>
       <c r="N155" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156" s="1">
         <v>4</v>
       </c>
@@ -7288,16 +6949,16 @@
         <v>4</v>
       </c>
       <c r="E156" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F156" s="1">
         <v>0</v>
       </c>
       <c r="G156" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H156" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I156" s="1">
         <v>1000</v>
@@ -7315,10 +6976,10 @@
         <v>30</v>
       </c>
       <c r="N156" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" s="1">
         <v>4</v>
       </c>
@@ -7359,10 +7020,10 @@
         <v>30</v>
       </c>
       <c r="N157" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" s="1">
         <v>4</v>
       </c>
@@ -7376,22 +7037,22 @@
         <v>4</v>
       </c>
       <c r="E158" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F158" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G158" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I158" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J158" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
@@ -7403,10 +7064,10 @@
         <v>31</v>
       </c>
       <c r="N158" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159" s="1">
         <v>4</v>
       </c>
@@ -7447,10 +7108,10 @@
         <v>31</v>
       </c>
       <c r="N159" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160" s="1">
         <v>4</v>
       </c>
@@ -7464,22 +7125,22 @@
         <v>4</v>
       </c>
       <c r="E160" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F160" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G160" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H160" s="1">
         <v>1000</v>
       </c>
       <c r="I160" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J160" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K160" t="s">
         <v>14</v>
@@ -7491,10 +7152,10 @@
         <v>32</v>
       </c>
       <c r="N160" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161" s="1">
         <v>4</v>
       </c>
@@ -7535,10 +7196,10 @@
         <v>32</v>
       </c>
       <c r="N161" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162" s="1">
         <v>5</v>
       </c>
@@ -7552,10 +7213,10 @@
         <v>4</v>
       </c>
       <c r="E162" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F162" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G162" s="1">
         <v>80</v>
@@ -7567,7 +7228,7 @@
         <v>1000</v>
       </c>
       <c r="J162" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
@@ -7579,10 +7240,10 @@
         <v>33</v>
       </c>
       <c r="N162" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="A163" s="1">
         <v>5</v>
       </c>
@@ -7623,10 +7284,10 @@
         <v>33</v>
       </c>
       <c r="N163" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164" s="1">
         <v>5</v>
       </c>
@@ -7640,16 +7301,16 @@
         <v>4</v>
       </c>
       <c r="E164" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F164" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G164" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H164" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I164" s="1">
         <v>1000</v>
@@ -7667,10 +7328,10 @@
         <v>34</v>
       </c>
       <c r="N164" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="A165" s="1">
         <v>5</v>
       </c>
@@ -7711,10 +7372,10 @@
         <v>34</v>
       </c>
       <c r="N165" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -7728,19 +7389,19 @@
         <v>4</v>
       </c>
       <c r="E166" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F166" s="1">
         <v>120</v>
       </c>
       <c r="G166" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H166" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I166" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J166" s="1">
         <v>15</v>
@@ -7755,10 +7416,10 @@
         <v>35</v>
       </c>
       <c r="N166" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167" s="1">
         <v>5</v>
       </c>
@@ -7799,10 +7460,10 @@
         <v>35</v>
       </c>
       <c r="N167" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" s="1">
         <v>5</v>
       </c>
@@ -7816,22 +7477,22 @@
         <v>4</v>
       </c>
       <c r="E168" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F168" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G168" s="1">
         <v>40</v>
       </c>
       <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
         <v>1000</v>
       </c>
-      <c r="I168" s="1">
-        <v>500</v>
-      </c>
       <c r="J168" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K168" t="s">
         <v>14</v>
@@ -7843,10 +7504,10 @@
         <v>36</v>
       </c>
       <c r="N168" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" s="1">
         <v>5</v>
       </c>
@@ -7887,10 +7548,10 @@
         <v>36</v>
       </c>
       <c r="N169" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170" s="1">
         <v>5</v>
       </c>
@@ -7904,13 +7565,13 @@
         <v>4</v>
       </c>
       <c r="E170" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F170" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G170" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H170" s="1">
         <v>500</v>
@@ -7919,7 +7580,7 @@
         <v>500</v>
       </c>
       <c r="J170" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K170" t="s">
         <v>14</v>
@@ -7931,10 +7592,10 @@
         <v>37</v>
       </c>
       <c r="N170" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171" s="1">
         <v>5</v>
       </c>
@@ -7975,10 +7636,10 @@
         <v>37</v>
       </c>
       <c r="N171" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172" s="1">
         <v>5</v>
       </c>
@@ -7992,22 +7653,22 @@
         <v>4</v>
       </c>
       <c r="E172" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F172" s="1">
         <v>0</v>
       </c>
       <c r="G172" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H172" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I172" s="1">
         <v>500</v>
       </c>
-      <c r="I172" s="1">
-        <v>0</v>
-      </c>
       <c r="J172" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K172" t="s">
         <v>14</v>
@@ -8019,10 +7680,10 @@
         <v>38</v>
       </c>
       <c r="N172" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
       <c r="A173" s="1">
         <v>5</v>
       </c>
@@ -8063,10 +7724,10 @@
         <v>38</v>
       </c>
       <c r="N173" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174" s="1">
         <v>5</v>
       </c>
@@ -8080,22 +7741,22 @@
         <v>4</v>
       </c>
       <c r="E174" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F174" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G174" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H174" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I174" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J174" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K174" t="s">
         <v>14</v>
@@ -8107,10 +7768,10 @@
         <v>39</v>
       </c>
       <c r="N174" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175" s="1">
         <v>5</v>
       </c>
@@ -8151,10 +7812,10 @@
         <v>39</v>
       </c>
       <c r="N175" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -8171,16 +7832,16 @@
         <v>50</v>
       </c>
       <c r="F176" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G176" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H176" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I176" s="1">
         <v>500</v>
-      </c>
-      <c r="I176" s="1">
-        <v>0</v>
       </c>
       <c r="J176" s="1">
         <v>60</v>
@@ -8195,10 +7856,10 @@
         <v>40</v>
       </c>
       <c r="N176" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177">
       <c r="A177" s="1">
         <v>5</v>
       </c>
@@ -8239,10 +7900,10 @@
         <v>40</v>
       </c>
       <c r="N177" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178" s="1">
         <v>6</v>
       </c>
@@ -8256,22 +7917,22 @@
         <v>4</v>
       </c>
       <c r="E178" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F178" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G178" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H178" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I178" s="1">
         <v>1000</v>
       </c>
       <c r="J178" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K178" t="s">
         <v>14</v>
@@ -8283,10 +7944,10 @@
         <v>41</v>
       </c>
       <c r="N178" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
       <c r="A179" s="1">
         <v>6</v>
       </c>
@@ -8327,10 +7988,10 @@
         <v>41</v>
       </c>
       <c r="N179" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
       <c r="A180" s="1">
         <v>6</v>
       </c>
@@ -8347,19 +8008,19 @@
         <v>100</v>
       </c>
       <c r="F180" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G180" s="1">
         <v>40</v>
       </c>
       <c r="H180" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I180" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J180" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K180" t="s">
         <v>14</v>
@@ -8371,10 +8032,10 @@
         <v>42</v>
       </c>
       <c r="N180" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
       <c r="A181" s="1">
         <v>6</v>
       </c>
@@ -8415,10 +8076,10 @@
         <v>42</v>
       </c>
       <c r="N181" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
       <c r="A182" s="1">
         <v>6</v>
       </c>
@@ -8432,16 +8093,16 @@
         <v>4</v>
       </c>
       <c r="E182" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F182" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G182" s="1">
         <v>0</v>
       </c>
       <c r="H182" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I182" s="1">
         <v>500</v>
@@ -8459,10 +8120,10 @@
         <v>43</v>
       </c>
       <c r="N182" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183" s="1">
         <v>6</v>
       </c>
@@ -8503,10 +8164,10 @@
         <v>43</v>
       </c>
       <c r="N183" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" s="1">
         <v>6</v>
       </c>
@@ -8523,19 +8184,19 @@
         <v>5</v>
       </c>
       <c r="F184" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G184" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H184" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I184" s="1">
         <v>0</v>
       </c>
       <c r="J184" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K184" t="s">
         <v>14</v>
@@ -8547,10 +8208,10 @@
         <v>44</v>
       </c>
       <c r="N184" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185" s="1">
         <v>6</v>
       </c>
@@ -8591,10 +8252,10 @@
         <v>44</v>
       </c>
       <c r="N185" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186" s="1">
         <v>6</v>
       </c>
@@ -8611,19 +8272,19 @@
         <v>5</v>
       </c>
       <c r="F186" s="1">
+        <v>0</v>
+      </c>
+      <c r="G186" s="1">
         <v>40</v>
       </c>
-      <c r="G186" s="1">
-        <v>0</v>
-      </c>
       <c r="H186" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I186" s="1">
         <v>500</v>
       </c>
       <c r="J186" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K186" t="s">
         <v>14</v>
@@ -8635,10 +8296,10 @@
         <v>45</v>
       </c>
       <c r="N186" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187">
       <c r="A187" s="1">
         <v>6</v>
       </c>
@@ -8679,10 +8340,10 @@
         <v>45</v>
       </c>
       <c r="N187" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188">
       <c r="A188" s="1">
         <v>6</v>
       </c>
@@ -8696,10 +8357,10 @@
         <v>4</v>
       </c>
       <c r="E188" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F188" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G188" s="1">
         <v>0</v>
@@ -8708,10 +8369,10 @@
         <v>1000</v>
       </c>
       <c r="I188" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J188" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K188" t="s">
         <v>14</v>
@@ -8723,10 +8384,10 @@
         <v>46</v>
       </c>
       <c r="N188" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189">
       <c r="A189" s="1">
         <v>6</v>
       </c>
@@ -8767,10 +8428,10 @@
         <v>46</v>
       </c>
       <c r="N189" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190">
       <c r="A190" s="1">
         <v>6</v>
       </c>
@@ -8784,19 +8445,19 @@
         <v>4</v>
       </c>
       <c r="E190" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F190" s="1">
         <v>40</v>
       </c>
       <c r="G190" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H190" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I190" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J190" s="1">
         <v>30</v>
@@ -8811,10 +8472,10 @@
         <v>47</v>
       </c>
       <c r="N190" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191">
       <c r="A191" s="1">
         <v>6</v>
       </c>
@@ -8855,10 +8516,10 @@
         <v>47</v>
       </c>
       <c r="N191" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192">
       <c r="A192" s="1">
         <v>6</v>
       </c>
@@ -8872,22 +8533,22 @@
         <v>4</v>
       </c>
       <c r="E192" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F192" s="1">
         <v>80</v>
       </c>
       <c r="G192" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H192" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I192" s="1">
         <v>1000</v>
       </c>
       <c r="J192" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K192" t="s">
         <v>14</v>
@@ -8899,10 +8560,10 @@
         <v>48</v>
       </c>
       <c r="N192" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193">
       <c r="A193" s="1">
         <v>6</v>
       </c>
@@ -8943,10 +8604,9 @@
         <v>48</v>
       </c>
       <c r="N193" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment_design/store/design_matrix.xlsx
+++ b/experiment_design/store/design_matrix.xlsx
@@ -173,22 +173,22 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1">
         <v>80</v>
       </c>
       <c r="H2" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J2" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -200,7 +200,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -244,7 +244,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -264,19 +264,19 @@
         <v>100</v>
       </c>
       <c r="F4" s="1">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1">
+        <v>120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J4" s="1">
         <v>40</v>
-      </c>
-      <c r="G4" s="1">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1">
-        <v>500</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -288,7 +288,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -332,7 +332,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -349,22 +349,22 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -376,7 +376,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -437,22 +437,22 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>80</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
       <c r="H8" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J8" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -528,16 +528,16 @@
         <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J10" s="1">
         <v>15</v>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
         <v>120</v>
@@ -622,7 +622,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="N13" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -704,19 +704,19 @@
         <v>50</v>
       </c>
       <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>120</v>
       </c>
-      <c r="G14" s="1">
-        <v>80</v>
-      </c>
       <c r="H14" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="J14" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>80</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
       <c r="H16" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +877,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
         <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="I18" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -904,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -965,10 +965,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1">
         <v>120</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1056,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>40</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J22" s="1">
         <v>15</v>
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="N22" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1124,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="N23" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1144,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H24" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J24" s="1">
         <v>40</v>
@@ -1168,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="N24" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="N25" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1229,22 +1229,22 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H26" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="I26" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="J26" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
@@ -1256,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="N26" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="N27" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1317,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
         <v>40</v>
@@ -1326,13 +1326,13 @@
         <v>40</v>
       </c>
       <c r="H28" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="J28" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
         <v>13</v>
@@ -1344,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="N28" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -1388,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="N29" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -1405,22 +1405,22 @@
         <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1">
         <v>80</v>
       </c>
       <c r="G30" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I30" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K30" t="s">
         <v>13</v>
@@ -1432,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="N30" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -1476,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="N31" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -1493,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1">
         <v>120</v>
@@ -1502,10 +1502,10 @@
         <v>40</v>
       </c>
       <c r="H32" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="I32" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <v>40</v>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="N32" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -1564,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="N33" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -1584,19 +1584,19 @@
         <v>50</v>
       </c>
       <c r="F34" s="1">
+        <v>40</v>
+      </c>
+      <c r="G34" s="1">
         <v>80</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
       <c r="H34" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K34" t="s">
         <v>13</v>
@@ -1608,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="N34" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1652,7 +1652,7 @@
         <v>17</v>
       </c>
       <c r="N35" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1669,19 +1669,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G36" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H36" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J36" s="1">
         <v>5</v>
@@ -1696,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="N36" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1740,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="N37" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1760,16 +1760,16 @@
         <v>100</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H38" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>40</v>
@@ -1784,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="N38" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1828,7 +1828,7 @@
         <v>19</v>
       </c>
       <c r="N39" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1851,16 +1851,16 @@
         <v>120</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H40" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K40" t="s">
         <v>13</v>
@@ -1872,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1916,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="N41" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1933,19 +1933,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
         <v>40</v>
       </c>
       <c r="G42" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I42" s="1">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="J42" s="1">
         <v>5</v>
@@ -1960,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="N42" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -2004,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="N43" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2021,22 +2021,22 @@
         <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F44" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="J44" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
@@ -2048,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="N44" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -2092,7 +2092,7 @@
         <v>22</v>
       </c>
       <c r="N45" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -2109,19 +2109,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G46" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
         <v>5</v>
@@ -2136,7 +2136,7 @@
         <v>23</v>
       </c>
       <c r="N46" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -2180,7 +2180,7 @@
         <v>23</v>
       </c>
       <c r="N47" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
@@ -2200,19 +2200,19 @@
         <v>5</v>
       </c>
       <c r="F48" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G48" s="1">
         <v>120</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I48" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s">
         <v>13</v>
@@ -2224,7 +2224,7 @@
         <v>24</v>
       </c>
       <c r="N48" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -2268,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="N49" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -2294,13 +2294,13 @@
         <v>80</v>
       </c>
       <c r="H50" s="1">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J50" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K50" t="s">
         <v>13</v>
@@ -2312,7 +2312,7 @@
         <v>25</v>
       </c>
       <c r="N50" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2356,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="N51" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2373,19 +2373,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F52" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G52" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I52" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1">
         <v>15</v>
@@ -2400,7 +2400,7 @@
         <v>26</v>
       </c>
       <c r="N52" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2444,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="N53" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -2464,19 +2464,19 @@
         <v>5</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G54" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="J54" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K54" t="s">
         <v>13</v>
@@ -2488,7 +2488,7 @@
         <v>27</v>
       </c>
       <c r="N54" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2532,7 +2532,7 @@
         <v>27</v>
       </c>
       <c r="N55" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2552,16 +2552,16 @@
         <v>20</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J56" s="1">
         <v>5</v>
@@ -2576,7 +2576,7 @@
         <v>28</v>
       </c>
       <c r="N56" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -2620,7 +2620,7 @@
         <v>28</v>
       </c>
       <c r="N57" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -2637,19 +2637,19 @@
         <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F58" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H58" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="J58" s="1">
         <v>5</v>
@@ -2664,7 +2664,7 @@
         <v>29</v>
       </c>
       <c r="N58" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -2708,7 +2708,7 @@
         <v>29</v>
       </c>
       <c r="N59" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -2728,19 +2728,19 @@
         <v>100</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G60" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H60" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I60" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J60" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
@@ -2752,7 +2752,7 @@
         <v>30</v>
       </c>
       <c r="N60" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -2796,7 +2796,7 @@
         <v>30</v>
       </c>
       <c r="N61" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -2813,22 +2813,22 @@
         <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F62" s="1">
         <v>120</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H62" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="I62" s="1">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="J62" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K62" t="s">
         <v>13</v>
@@ -2840,7 +2840,7 @@
         <v>31</v>
       </c>
       <c r="N62" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
@@ -2884,7 +2884,7 @@
         <v>31</v>
       </c>
       <c r="N63" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
@@ -2901,19 +2901,19 @@
         <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F64" s="1">
         <v>80</v>
       </c>
       <c r="G64" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I64" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J64" s="1">
         <v>40</v>
@@ -2928,7 +2928,7 @@
         <v>32</v>
       </c>
       <c r="N64" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
@@ -2972,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="N65" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -2989,22 +2989,22 @@
         <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F66" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G66" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I66" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K66" t="s">
         <v>13</v>
@@ -3077,22 +3077,22 @@
         <v>4</v>
       </c>
       <c r="E68" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F68" s="1">
+        <v>80</v>
+      </c>
+      <c r="G68" s="1">
+        <v>120</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J68" s="1">
         <v>40</v>
-      </c>
-      <c r="G68" s="1">
-        <v>40</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J68" s="1">
-        <v>15</v>
       </c>
       <c r="K68" t="s">
         <v>13</v>
@@ -3104,7 +3104,7 @@
         <v>34</v>
       </c>
       <c r="N68" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3148,7 +3148,7 @@
         <v>34</v>
       </c>
       <c r="N69" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3165,22 +3165,22 @@
         <v>4</v>
       </c>
       <c r="E70" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F70" s="1">
+        <v>40</v>
+      </c>
+      <c r="G70" s="1">
         <v>120</v>
       </c>
-      <c r="G70" s="1">
-        <v>40</v>
-      </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I70" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="J70" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K70" t="s">
         <v>13</v>
@@ -3192,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="N70" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -3236,7 +3236,7 @@
         <v>35</v>
       </c>
       <c r="N71" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -3253,19 +3253,19 @@
         <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G72" s="1">
         <v>40</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I72" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J72" s="1">
         <v>40</v>
@@ -3280,7 +3280,7 @@
         <v>36</v>
       </c>
       <c r="N72" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3324,7 +3324,7 @@
         <v>36</v>
       </c>
       <c r="N73" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -3341,22 +3341,22 @@
         <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F74" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1">
         <v>120</v>
       </c>
       <c r="H74" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="J74" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K74" t="s">
         <v>13</v>
@@ -3368,7 +3368,7 @@
         <v>37</v>
       </c>
       <c r="N74" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -3412,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="N75" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -3429,22 +3429,22 @@
         <v>4</v>
       </c>
       <c r="E76" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G76" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K76" t="s">
         <v>13</v>
@@ -3456,7 +3456,7 @@
         <v>38</v>
       </c>
       <c r="N76" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
@@ -3500,7 +3500,7 @@
         <v>38</v>
       </c>
       <c r="N77" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
@@ -3520,19 +3520,19 @@
         <v>50</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G78" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H78" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J78" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K78" t="s">
         <v>13</v>
@@ -3544,7 +3544,7 @@
         <v>39</v>
       </c>
       <c r="N78" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
@@ -3588,7 +3588,7 @@
         <v>39</v>
       </c>
       <c r="N79" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80">
@@ -3605,19 +3605,19 @@
         <v>4</v>
       </c>
       <c r="E80" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F80" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G80" s="1">
         <v>80</v>
       </c>
       <c r="H80" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="J80" s="1">
         <v>40</v>
@@ -3632,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="N80" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
@@ -3676,7 +3676,7 @@
         <v>40</v>
       </c>
       <c r="N81" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
@@ -3693,22 +3693,22 @@
         <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F82" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G82" s="1">
         <v>80</v>
       </c>
       <c r="H82" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I82" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K82" t="s">
         <v>13</v>
@@ -3720,7 +3720,7 @@
         <v>41</v>
       </c>
       <c r="N82" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -3764,7 +3764,7 @@
         <v>41</v>
       </c>
       <c r="N83" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -3784,19 +3784,19 @@
         <v>100</v>
       </c>
       <c r="F84" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G84" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H84" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J84" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
@@ -3808,7 +3808,7 @@
         <v>42</v>
       </c>
       <c r="N84" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -3852,7 +3852,7 @@
         <v>42</v>
       </c>
       <c r="N85" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I86" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J86" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K86" t="s">
         <v>13</v>
@@ -3896,7 +3896,7 @@
         <v>43</v>
       </c>
       <c r="N86" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
@@ -3940,7 +3940,7 @@
         <v>43</v>
       </c>
       <c r="N87" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -3960,10 +3960,10 @@
         <v>5</v>
       </c>
       <c r="F88" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K88" t="s">
         <v>13</v>
@@ -3984,7 +3984,7 @@
         <v>44</v>
       </c>
       <c r="N88" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
@@ -4028,7 +4028,7 @@
         <v>44</v>
       </c>
       <c r="N89" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
@@ -4045,22 +4045,22 @@
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F90" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G90" s="1">
         <v>40</v>
       </c>
       <c r="H90" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I90" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J90" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K90" t="s">
         <v>13</v>
@@ -4072,7 +4072,7 @@
         <v>45</v>
       </c>
       <c r="N90" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -4116,7 +4116,7 @@
         <v>45</v>
       </c>
       <c r="N91" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -4133,22 +4133,22 @@
         <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F92" s="1">
+        <v>80</v>
+      </c>
+      <c r="G92" s="1">
         <v>120</v>
       </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
       <c r="H92" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I92" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="J92" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K92" t="s">
         <v>13</v>
@@ -4160,7 +4160,7 @@
         <v>46</v>
       </c>
       <c r="N92" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
@@ -4204,7 +4204,7 @@
         <v>46</v>
       </c>
       <c r="N93" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -4221,22 +4221,22 @@
         <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
         <v>40</v>
-      </c>
-      <c r="G94" s="1">
-        <v>120</v>
-      </c>
-      <c r="H94" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1">
-        <v>15</v>
       </c>
       <c r="K94" t="s">
         <v>13</v>
@@ -4248,7 +4248,7 @@
         <v>47</v>
       </c>
       <c r="N94" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
@@ -4292,7 +4292,7 @@
         <v>47</v>
       </c>
       <c r="N95" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
@@ -4309,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F96" s="1">
         <v>80</v>
@@ -4318,10 +4318,10 @@
         <v>80</v>
       </c>
       <c r="H96" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J96" s="1">
         <v>15</v>
@@ -4336,7 +4336,7 @@
         <v>48</v>
       </c>
       <c r="N96" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
@@ -4380,7 +4380,7 @@
         <v>48</v>
       </c>
       <c r="N97" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
@@ -4397,22 +4397,22 @@
         <v>4</v>
       </c>
       <c r="E98" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G98" s="1">
         <v>80</v>
       </c>
       <c r="H98" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="I98" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J98" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K98" t="s">
         <v>14</v>
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="N98" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="N99" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4488,19 +4488,19 @@
         <v>100</v>
       </c>
       <c r="F100" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G100" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H100" s="1">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J100" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K100" t="s">
         <v>14</v>
@@ -4512,7 +4512,7 @@
         <v>2</v>
       </c>
       <c r="N100" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -4556,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="N101" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -4573,22 +4573,22 @@
         <v>4</v>
       </c>
       <c r="E102" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F102" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G102" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
       </c>
       <c r="J102" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K102" t="s">
         <v>14</v>
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="N102" s="1">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -4644,7 +4644,7 @@
         <v>3</v>
       </c>
       <c r="N103" s="1">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -4661,22 +4661,22 @@
         <v>4</v>
       </c>
       <c r="E104" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
         <v>80</v>
       </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
       <c r="H104" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I104" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J104" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K104" t="s">
         <v>14</v>
@@ -4688,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="N104" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -4732,7 +4732,7 @@
         <v>4</v>
       </c>
       <c r="N105" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -4752,16 +4752,16 @@
         <v>100</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G106" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H106" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J106" s="1">
         <v>30</v>
@@ -4776,7 +4776,7 @@
         <v>5</v>
       </c>
       <c r="N106" s="1">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -4820,7 +4820,7 @@
         <v>5</v>
       </c>
       <c r="N107" s="1">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -4837,7 +4837,7 @@
         <v>4</v>
       </c>
       <c r="E108" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F108" s="1">
         <v>120</v>
@@ -4846,7 +4846,7 @@
         <v>40</v>
       </c>
       <c r="H108" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>6</v>
       </c>
       <c r="N108" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109">
@@ -4908,7 +4908,7 @@
         <v>6</v>
       </c>
       <c r="N109" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110">
@@ -4928,19 +4928,19 @@
         <v>50</v>
       </c>
       <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
         <v>120</v>
       </c>
-      <c r="G110" s="1">
-        <v>80</v>
-      </c>
       <c r="H110" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I110" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="J110" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K110" t="s">
         <v>14</v>
@@ -4952,7 +4952,7 @@
         <v>7</v>
       </c>
       <c r="N110" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111">
@@ -4996,7 +4996,7 @@
         <v>7</v>
       </c>
       <c r="N111" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112">
@@ -5013,22 +5013,22 @@
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
         <v>80</v>
       </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
       <c r="H112" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I112" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J112" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K112" t="s">
         <v>14</v>
@@ -5040,7 +5040,7 @@
         <v>8</v>
       </c>
       <c r="N112" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
@@ -5084,7 +5084,7 @@
         <v>8</v>
       </c>
       <c r="N113" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
@@ -5101,22 +5101,22 @@
         <v>4</v>
       </c>
       <c r="E114" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F114" s="1">
         <v>40</v>
       </c>
       <c r="G114" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="I114" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J114" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K114" t="s">
         <v>14</v>
@@ -5128,7 +5128,7 @@
         <v>9</v>
       </c>
       <c r="N114" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -5172,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="N115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -5189,10 +5189,10 @@
         <v>4</v>
       </c>
       <c r="E116" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F116" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G116" s="1">
         <v>120</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K116" t="s">
         <v>14</v>
@@ -5216,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="N116" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -5260,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="N117" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -5280,7 +5280,7 @@
         <v>20</v>
       </c>
       <c r="F118" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G118" s="1">
         <v>40</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J118" s="1">
         <v>30</v>
@@ -5304,7 +5304,7 @@
         <v>11</v>
       </c>
       <c r="N118" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -5348,7 +5348,7 @@
         <v>11</v>
       </c>
       <c r="N119" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -5368,16 +5368,16 @@
         <v>5</v>
       </c>
       <c r="F120" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G120" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H120" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I120" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J120" s="1">
         <v>60</v>
@@ -5392,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="N120" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -5436,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="N121" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -5453,22 +5453,22 @@
         <v>4</v>
       </c>
       <c r="E122" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F122" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G122" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H122" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="I122" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="J122" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K122" t="s">
         <v>14</v>
@@ -5480,7 +5480,7 @@
         <v>13</v>
       </c>
       <c r="N122" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -5524,7 +5524,7 @@
         <v>13</v>
       </c>
       <c r="N123" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -5541,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F124" s="1">
         <v>40</v>
@@ -5550,13 +5550,13 @@
         <v>40</v>
       </c>
       <c r="H124" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I124" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="J124" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K124" t="s">
         <v>14</v>
@@ -5568,7 +5568,7 @@
         <v>14</v>
       </c>
       <c r="N124" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
@@ -5612,7 +5612,7 @@
         <v>14</v>
       </c>
       <c r="N125" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
@@ -5629,22 +5629,22 @@
         <v>4</v>
       </c>
       <c r="E126" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F126" s="1">
         <v>80</v>
       </c>
       <c r="G126" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H126" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I126" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J126" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K126" t="s">
         <v>14</v>
@@ -5656,7 +5656,7 @@
         <v>15</v>
       </c>
       <c r="N126" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127">
@@ -5700,7 +5700,7 @@
         <v>15</v>
       </c>
       <c r="N127" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128">
@@ -5717,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F128" s="1">
         <v>120</v>
@@ -5726,10 +5726,10 @@
         <v>40</v>
       </c>
       <c r="H128" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="I128" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J128" s="1">
         <v>60</v>
@@ -5744,7 +5744,7 @@
         <v>16</v>
       </c>
       <c r="N128" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129">
@@ -5788,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="N129" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130">
@@ -5808,19 +5808,19 @@
         <v>50</v>
       </c>
       <c r="F130" s="1">
+        <v>40</v>
+      </c>
+      <c r="G130" s="1">
         <v>80</v>
       </c>
-      <c r="G130" s="1">
-        <v>0</v>
-      </c>
       <c r="H130" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I130" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J130" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K130" t="s">
         <v>14</v>
@@ -5832,7 +5832,7 @@
         <v>17</v>
       </c>
       <c r="N130" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -5876,7 +5876,7 @@
         <v>17</v>
       </c>
       <c r="N131" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -5893,19 +5893,19 @@
         <v>4</v>
       </c>
       <c r="E132" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F132" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G132" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H132" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I132" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J132" s="1">
         <v>15</v>
@@ -5920,7 +5920,7 @@
         <v>18</v>
       </c>
       <c r="N132" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -5964,7 +5964,7 @@
         <v>18</v>
       </c>
       <c r="N133" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -5984,16 +5984,16 @@
         <v>100</v>
       </c>
       <c r="F134" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G134" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H134" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I134" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J134" s="1">
         <v>60</v>
@@ -6008,7 +6008,7 @@
         <v>19</v>
       </c>
       <c r="N134" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -6052,7 +6052,7 @@
         <v>19</v>
       </c>
       <c r="N135" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -6075,16 +6075,16 @@
         <v>120</v>
       </c>
       <c r="G136" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H136" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
       <c r="J136" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K136" t="s">
         <v>14</v>
@@ -6096,7 +6096,7 @@
         <v>20</v>
       </c>
       <c r="N136" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
@@ -6140,7 +6140,7 @@
         <v>20</v>
       </c>
       <c r="N137" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
@@ -6157,19 +6157,19 @@
         <v>4</v>
       </c>
       <c r="E138" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F138" s="1">
         <v>40</v>
       </c>
       <c r="G138" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H138" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I138" s="1">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="J138" s="1">
         <v>15</v>
@@ -6184,7 +6184,7 @@
         <v>21</v>
       </c>
       <c r="N138" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
@@ -6228,7 +6228,7 @@
         <v>21</v>
       </c>
       <c r="N139" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
@@ -6245,22 +6245,22 @@
         <v>4</v>
       </c>
       <c r="E140" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F140" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G140" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H140" s="1">
         <v>0</v>
       </c>
       <c r="I140" s="1">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="J140" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K140" t="s">
         <v>14</v>
@@ -6272,7 +6272,7 @@
         <v>22</v>
       </c>
       <c r="N140" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
@@ -6316,7 +6316,7 @@
         <v>22</v>
       </c>
       <c r="N141" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -6333,19 +6333,19 @@
         <v>4</v>
       </c>
       <c r="E142" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F142" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G142" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H142" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I142" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J142" s="1">
         <v>15</v>
@@ -6360,7 +6360,7 @@
         <v>23</v>
       </c>
       <c r="N142" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143">
@@ -6404,7 +6404,7 @@
         <v>23</v>
       </c>
       <c r="N143" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
@@ -6424,19 +6424,19 @@
         <v>5</v>
       </c>
       <c r="F144" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G144" s="1">
         <v>120</v>
       </c>
       <c r="H144" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I144" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J144" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K144" t="s">
         <v>14</v>
@@ -6448,7 +6448,7 @@
         <v>24</v>
       </c>
       <c r="N144" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
@@ -6492,7 +6492,7 @@
         <v>24</v>
       </c>
       <c r="N145" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
@@ -6518,13 +6518,13 @@
         <v>80</v>
       </c>
       <c r="H146" s="1">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I146" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J146" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K146" t="s">
         <v>14</v>
@@ -6536,7 +6536,7 @@
         <v>25</v>
       </c>
       <c r="N146" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -6580,7 +6580,7 @@
         <v>25</v>
       </c>
       <c r="N147" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -6597,19 +6597,19 @@
         <v>4</v>
       </c>
       <c r="E148" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F148" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G148" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H148" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I148" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J148" s="1">
         <v>30</v>
@@ -6624,7 +6624,7 @@
         <v>26</v>
       </c>
       <c r="N148" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -6668,7 +6668,7 @@
         <v>26</v>
       </c>
       <c r="N149" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150">
@@ -6688,19 +6688,19 @@
         <v>5</v>
       </c>
       <c r="F150" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G150" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H150" s="1">
         <v>0</v>
       </c>
       <c r="I150" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="J150" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K150" t="s">
         <v>14</v>
@@ -6712,7 +6712,7 @@
         <v>27</v>
       </c>
       <c r="N150" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151">
@@ -6756,7 +6756,7 @@
         <v>27</v>
       </c>
       <c r="N151" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152">
@@ -6776,16 +6776,16 @@
         <v>20</v>
       </c>
       <c r="F152" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G152" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
       </c>
       <c r="I152" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J152" s="1">
         <v>15</v>
@@ -6800,7 +6800,7 @@
         <v>28</v>
       </c>
       <c r="N152" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
@@ -6844,7 +6844,7 @@
         <v>28</v>
       </c>
       <c r="N153" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
@@ -6861,19 +6861,19 @@
         <v>4</v>
       </c>
       <c r="E154" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F154" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G154" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H154" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I154" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="J154" s="1">
         <v>15</v>
@@ -6888,7 +6888,7 @@
         <v>29</v>
       </c>
       <c r="N154" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="N155" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
@@ -6952,19 +6952,19 @@
         <v>100</v>
       </c>
       <c r="F156" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G156" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H156" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="I156" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J156" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K156" t="s">
         <v>14</v>
@@ -6976,7 +6976,7 @@
         <v>30</v>
       </c>
       <c r="N156" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
@@ -7020,7 +7020,7 @@
         <v>30</v>
       </c>
       <c r="N157" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
@@ -7037,22 +7037,22 @@
         <v>4</v>
       </c>
       <c r="E158" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F158" s="1">
         <v>120</v>
       </c>
       <c r="G158" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H158" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="I158" s="1">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="J158" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
@@ -7064,7 +7064,7 @@
         <v>31</v>
       </c>
       <c r="N158" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159">
@@ -7108,7 +7108,7 @@
         <v>31</v>
       </c>
       <c r="N159" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160">
@@ -7125,19 +7125,19 @@
         <v>4</v>
       </c>
       <c r="E160" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F160" s="1">
         <v>80</v>
       </c>
       <c r="G160" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H160" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I160" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J160" s="1">
         <v>60</v>
@@ -7152,7 +7152,7 @@
         <v>32</v>
       </c>
       <c r="N160" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161">
@@ -7196,7 +7196,7 @@
         <v>32</v>
       </c>
       <c r="N161" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162">
@@ -7213,22 +7213,22 @@
         <v>4</v>
       </c>
       <c r="E162" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F162" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G162" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H162" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I162" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J162" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
@@ -7301,22 +7301,22 @@
         <v>4</v>
       </c>
       <c r="E164" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F164" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G164" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H164" s="1">
         <v>0</v>
       </c>
       <c r="I164" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="J164" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K164" t="s">
         <v>14</v>
@@ -7328,7 +7328,7 @@
         <v>34</v>
       </c>
       <c r="N164" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -7372,7 +7372,7 @@
         <v>34</v>
       </c>
       <c r="N165" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -7389,22 +7389,22 @@
         <v>4</v>
       </c>
       <c r="E166" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F166" s="1">
+        <v>40</v>
+      </c>
+      <c r="G166" s="1">
         <v>120</v>
       </c>
-      <c r="G166" s="1">
-        <v>40</v>
-      </c>
       <c r="H166" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I166" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="J166" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K166" t="s">
         <v>14</v>
@@ -7416,7 +7416,7 @@
         <v>35</v>
       </c>
       <c r="N166" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -7460,7 +7460,7 @@
         <v>35</v>
       </c>
       <c r="N167" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
@@ -7477,19 +7477,19 @@
         <v>4</v>
       </c>
       <c r="E168" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F168" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G168" s="1">
         <v>40</v>
       </c>
       <c r="H168" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I168" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J168" s="1">
         <v>60</v>
@@ -7504,7 +7504,7 @@
         <v>36</v>
       </c>
       <c r="N168" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169">
@@ -7548,7 +7548,7 @@
         <v>36</v>
       </c>
       <c r="N169" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170">
@@ -7565,22 +7565,22 @@
         <v>4</v>
       </c>
       <c r="E170" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F170" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G170" s="1">
         <v>120</v>
       </c>
       <c r="H170" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I170" s="1">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="J170" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K170" t="s">
         <v>14</v>
@@ -7592,7 +7592,7 @@
         <v>37</v>
       </c>
       <c r="N170" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
@@ -7636,7 +7636,7 @@
         <v>37</v>
       </c>
       <c r="N171" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172">
@@ -7653,22 +7653,22 @@
         <v>4</v>
       </c>
       <c r="E172" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F172" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G172" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H172" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I172" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J172" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K172" t="s">
         <v>14</v>
@@ -7680,7 +7680,7 @@
         <v>38</v>
       </c>
       <c r="N172" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173">
@@ -7724,7 +7724,7 @@
         <v>38</v>
       </c>
       <c r="N173" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174">
@@ -7744,19 +7744,19 @@
         <v>50</v>
       </c>
       <c r="F174" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G174" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H174" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I174" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J174" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K174" t="s">
         <v>14</v>
@@ -7768,7 +7768,7 @@
         <v>39</v>
       </c>
       <c r="N174" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175">
@@ -7812,7 +7812,7 @@
         <v>39</v>
       </c>
       <c r="N175" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
@@ -7829,19 +7829,19 @@
         <v>4</v>
       </c>
       <c r="E176" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F176" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G176" s="1">
         <v>80</v>
       </c>
       <c r="H176" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I176" s="1">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="J176" s="1">
         <v>60</v>
@@ -7856,7 +7856,7 @@
         <v>40</v>
       </c>
       <c r="N176" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177">
@@ -7900,7 +7900,7 @@
         <v>40</v>
       </c>
       <c r="N177" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178">
@@ -7917,22 +7917,22 @@
         <v>4</v>
       </c>
       <c r="E178" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F178" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G178" s="1">
         <v>80</v>
       </c>
       <c r="H178" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I178" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J178" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K178" t="s">
         <v>14</v>
@@ -7944,7 +7944,7 @@
         <v>41</v>
       </c>
       <c r="N178" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
@@ -7988,7 +7988,7 @@
         <v>41</v>
       </c>
       <c r="N179" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
@@ -8008,19 +8008,19 @@
         <v>100</v>
       </c>
       <c r="F180" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G180" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H180" s="1">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="I180" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J180" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K180" t="s">
         <v>14</v>
@@ -8032,7 +8032,7 @@
         <v>42</v>
       </c>
       <c r="N180" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181">
@@ -8076,7 +8076,7 @@
         <v>42</v>
       </c>
       <c r="N181" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182">
@@ -8102,13 +8102,13 @@
         <v>0</v>
       </c>
       <c r="H182" s="1">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="I182" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J182" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K182" t="s">
         <v>14</v>
@@ -8120,7 +8120,7 @@
         <v>43</v>
       </c>
       <c r="N182" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183">
@@ -8164,7 +8164,7 @@
         <v>43</v>
       </c>
       <c r="N183" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184">
@@ -8184,10 +8184,10 @@
         <v>5</v>
       </c>
       <c r="F184" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G184" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H184" s="1">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K184" t="s">
         <v>14</v>
@@ -8208,7 +8208,7 @@
         <v>44</v>
       </c>
       <c r="N184" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185">
@@ -8252,7 +8252,7 @@
         <v>44</v>
       </c>
       <c r="N185" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186">
@@ -8269,22 +8269,22 @@
         <v>4</v>
       </c>
       <c r="E186" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F186" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G186" s="1">
         <v>40</v>
       </c>
       <c r="H186" s="1">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I186" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J186" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K186" t="s">
         <v>14</v>
@@ -8296,7 +8296,7 @@
         <v>45</v>
       </c>
       <c r="N186" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187">
@@ -8340,7 +8340,7 @@
         <v>45</v>
       </c>
       <c r="N187" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188">
@@ -8357,22 +8357,22 @@
         <v>4</v>
       </c>
       <c r="E188" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F188" s="1">
+        <v>80</v>
+      </c>
+      <c r="G188" s="1">
         <v>120</v>
       </c>
-      <c r="G188" s="1">
-        <v>0</v>
-      </c>
       <c r="H188" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I188" s="1">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="J188" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K188" t="s">
         <v>14</v>
@@ -8384,7 +8384,7 @@
         <v>46</v>
       </c>
       <c r="N188" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189">
@@ -8428,7 +8428,7 @@
         <v>46</v>
       </c>
       <c r="N189" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190">
@@ -8445,22 +8445,22 @@
         <v>4</v>
       </c>
       <c r="E190" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F190" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G190" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H190" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
       </c>
       <c r="J190" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K190" t="s">
         <v>14</v>
@@ -8472,7 +8472,7 @@
         <v>47</v>
       </c>
       <c r="N190" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191">
@@ -8516,7 +8516,7 @@
         <v>47</v>
       </c>
       <c r="N191" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192">
@@ -8533,7 +8533,7 @@
         <v>4</v>
       </c>
       <c r="E192" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F192" s="1">
         <v>80</v>
@@ -8542,10 +8542,10 @@
         <v>80</v>
       </c>
       <c r="H192" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I192" s="1">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="J192" s="1">
         <v>30</v>
@@ -8560,7 +8560,7 @@
         <v>48</v>
       </c>
       <c r="N192" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193">
@@ -8604,7 +8604,7 @@
         <v>48</v>
       </c>
       <c r="N193" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_design/store/design_matrix.xlsx
+++ b/experiment_design/store/design_matrix.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="18">
   <si>
     <t>block</t>
   </si>
@@ -112,7 +112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N193"/>
+  <dimension ref="A1:N289"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -173,22 +173,22 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="I2" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="J2" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -200,7 +200,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -244,7 +244,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -261,22 +261,22 @@
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -288,7 +288,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -332,7 +332,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -349,16 +349,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
       <c r="H6" s="1">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -376,7 +376,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1">
         <v>80</v>
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="J8" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="1">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -525,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>40</v>
       </c>
-      <c r="G10" s="1">
-        <v>80</v>
-      </c>
       <c r="H10" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -613,22 +613,22 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J12" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="1">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="N13" s="1">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -704,16 +704,16 @@
         <v>50</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1">
         <v>120</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="J14" s="1">
         <v>40</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="1">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="1">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -789,19 +789,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J16" s="1">
         <v>15</v>
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="1">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="1">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +877,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
         <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -904,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -965,22 +965,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <v>40</v>
       </c>
       <c r="G20" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J20" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1053,22 +1053,22 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I22" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="N22" s="1">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -1124,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="N23" s="1">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="F24" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1">
         <v>80</v>
       </c>
       <c r="H24" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="I24" s="1">
         <v>40000</v>
@@ -1168,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="N24" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="N25" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
         <v>120</v>
@@ -1238,7 +1238,7 @@
         <v>120</v>
       </c>
       <c r="H26" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <v>60000</v>
@@ -1256,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="N26" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="N27" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1317,10 +1317,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G28" s="1">
         <v>40</v>
@@ -1332,7 +1332,7 @@
         <v>20000</v>
       </c>
       <c r="J28" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
         <v>13</v>
@@ -1344,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="N28" s="1">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1388,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="N29" s="1">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1405,22 +1405,22 @@
         <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
         <v>80</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H30" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J30" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
         <v>13</v>
@@ -1432,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="N30" s="1">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -1476,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="N31" s="1">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -1493,16 +1493,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="N32" s="1">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -1564,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="N33" s="1">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1581,22 +1581,22 @@
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F34" s="1">
+        <v>80</v>
+      </c>
+      <c r="G34" s="1">
+        <v>120</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J34" s="1">
         <v>40</v>
-      </c>
-      <c r="G34" s="1">
-        <v>80</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>5</v>
       </c>
       <c r="K34" t="s">
         <v>13</v>
@@ -1608,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="N34" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1652,7 +1652,7 @@
         <v>17</v>
       </c>
       <c r="N35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1669,19 +1669,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F36" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I36" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>5</v>
@@ -1696,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="N36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1740,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="N37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1757,13 +1757,13 @@
         <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K38" t="s">
         <v>13</v>
@@ -1784,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="N38" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -1828,7 +1828,7 @@
         <v>19</v>
       </c>
       <c r="N39" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -1845,22 +1845,22 @@
         <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J40" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K40" t="s">
         <v>13</v>
@@ -1872,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="1">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
@@ -1916,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="N41" s="1">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1939,16 +1939,16 @@
         <v>40</v>
       </c>
       <c r="G42" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H42" s="1">
         <v>20000</v>
       </c>
       <c r="I42" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
@@ -1960,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="N42" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -2004,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="N43" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -2024,16 +2024,16 @@
         <v>50</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1">
         <v>40</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I44" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
         <v>5</v>
@@ -2048,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="N44" s="1">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45">
@@ -2092,7 +2092,7 @@
         <v>22</v>
       </c>
       <c r="N45" s="1">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
@@ -2109,16 +2109,16 @@
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>23</v>
       </c>
       <c r="N46" s="1">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
@@ -2180,7 +2180,7 @@
         <v>23</v>
       </c>
       <c r="N47" s="1">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -2197,22 +2197,22 @@
         <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F48" s="1">
         <v>40</v>
       </c>
       <c r="G48" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H48" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I48" s="1">
         <v>40000</v>
       </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
       <c r="J48" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K48" t="s">
         <v>13</v>
@@ -2224,7 +2224,7 @@
         <v>24</v>
       </c>
       <c r="N48" s="1">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
@@ -2268,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="N49" s="1">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
@@ -2312,7 +2312,7 @@
         <v>25</v>
       </c>
       <c r="N50" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2356,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="N51" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2373,19 +2373,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F52" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G52" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H52" s="1">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="J52" s="1">
         <v>15</v>
@@ -2400,7 +2400,7 @@
         <v>26</v>
       </c>
       <c r="N52" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -2444,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="N53" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F54" s="1">
         <v>80</v>
@@ -2470,13 +2470,13 @@
         <v>120</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I54" s="1">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="J54" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s">
         <v>13</v>
@@ -2488,7 +2488,7 @@
         <v>27</v>
       </c>
       <c r="N54" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -2532,7 +2532,7 @@
         <v>27</v>
       </c>
       <c r="N55" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -2549,22 +2549,22 @@
         <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1">
         <v>120</v>
       </c>
       <c r="G56" s="1">
+        <v>80</v>
+      </c>
+      <c r="H56" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J56" s="1">
         <v>40</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>40000</v>
-      </c>
-      <c r="J56" s="1">
-        <v>5</v>
       </c>
       <c r="K56" t="s">
         <v>13</v>
@@ -2576,7 +2576,7 @@
         <v>28</v>
       </c>
       <c r="N56" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
@@ -2620,7 +2620,7 @@
         <v>28</v>
       </c>
       <c r="N57" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
@@ -2637,19 +2637,19 @@
         <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G58" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I58" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
         <v>5</v>
@@ -2664,7 +2664,7 @@
         <v>29</v>
       </c>
       <c r="N58" s="1">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
@@ -2708,7 +2708,7 @@
         <v>29</v>
       </c>
       <c r="N59" s="1">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -2725,10 +2725,10 @@
         <v>4</v>
       </c>
       <c r="E60" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F60" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G60" s="1">
         <v>40</v>
@@ -2740,7 +2740,7 @@
         <v>40000</v>
       </c>
       <c r="J60" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
@@ -2752,7 +2752,7 @@
         <v>30</v>
       </c>
       <c r="N60" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -2796,7 +2796,7 @@
         <v>30</v>
       </c>
       <c r="N61" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
@@ -2813,19 +2813,19 @@
         <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F62" s="1">
         <v>120</v>
       </c>
       <c r="G62" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H62" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1">
         <v>15</v>
@@ -2840,7 +2840,7 @@
         <v>31</v>
       </c>
       <c r="N62" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
@@ -2884,7 +2884,7 @@
         <v>31</v>
       </c>
       <c r="N63" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -2904,19 +2904,19 @@
         <v>50</v>
       </c>
       <c r="F64" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H64" s="1">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J64" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K64" t="s">
         <v>13</v>
@@ -2928,7 +2928,7 @@
         <v>32</v>
       </c>
       <c r="N64" s="1">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
@@ -2972,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="N65" s="1">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
@@ -2992,19 +2992,19 @@
         <v>20</v>
       </c>
       <c r="F66" s="1">
+        <v>120</v>
+      </c>
+      <c r="G66" s="1">
         <v>80</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
       <c r="H66" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K66" t="s">
         <v>13</v>
@@ -3016,7 +3016,7 @@
         <v>33</v>
       </c>
       <c r="N66" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -3060,7 +3060,7 @@
         <v>33</v>
       </c>
       <c r="N67" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3077,19 +3077,19 @@
         <v>4</v>
       </c>
       <c r="E68" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F68" s="1">
         <v>80</v>
       </c>
       <c r="G68" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1">
         <v>40</v>
@@ -3165,22 +3165,22 @@
         <v>4</v>
       </c>
       <c r="E70" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1">
         <v>40</v>
       </c>
       <c r="G70" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H70" s="1">
         <v>40000</v>
       </c>
       <c r="I70" s="1">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="J70" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K70" t="s">
         <v>13</v>
@@ -3192,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="N70" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
@@ -3236,7 +3236,7 @@
         <v>35</v>
       </c>
       <c r="N71" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
@@ -3253,22 +3253,22 @@
         <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F72" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G72" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K72" t="s">
         <v>13</v>
@@ -3280,7 +3280,7 @@
         <v>36</v>
       </c>
       <c r="N72" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
@@ -3324,7 +3324,7 @@
         <v>36</v>
       </c>
       <c r="N73" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -3341,22 +3341,22 @@
         <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G74" s="1">
         <v>120</v>
       </c>
       <c r="H74" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I74" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="J74" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K74" t="s">
         <v>13</v>
@@ -3368,7 +3368,7 @@
         <v>37</v>
       </c>
       <c r="N74" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
@@ -3412,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="N75" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -3429,19 +3429,19 @@
         <v>4</v>
       </c>
       <c r="E76" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F76" s="1">
+        <v>40</v>
+      </c>
+      <c r="G76" s="1">
         <v>120</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J76" s="1">
         <v>15</v>
@@ -3517,19 +3517,19 @@
         <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F78" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G78" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I78" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J78" s="1">
         <v>40</v>
@@ -3544,7 +3544,7 @@
         <v>39</v>
       </c>
       <c r="N78" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
@@ -3588,7 +3588,7 @@
         <v>39</v>
       </c>
       <c r="N79" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
@@ -3605,22 +3605,22 @@
         <v>4</v>
       </c>
       <c r="E80" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F80" s="1">
+        <v>80</v>
+      </c>
+      <c r="G80" s="1">
         <v>120</v>
       </c>
-      <c r="G80" s="1">
-        <v>80</v>
-      </c>
       <c r="H80" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I80" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J80" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K80" t="s">
         <v>13</v>
@@ -3632,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="N80" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81">
@@ -3676,7 +3676,7 @@
         <v>40</v>
       </c>
       <c r="N81" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82">
@@ -3693,7 +3693,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F82" s="1">
         <v>40</v>
@@ -3702,10 +3702,10 @@
         <v>80</v>
       </c>
       <c r="H82" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J82" s="1">
         <v>40</v>
@@ -3720,7 +3720,7 @@
         <v>41</v>
       </c>
       <c r="N82" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -3764,7 +3764,7 @@
         <v>41</v>
       </c>
       <c r="N83" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -3781,22 +3781,22 @@
         <v>4</v>
       </c>
       <c r="E84" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F84" s="1">
         <v>120</v>
       </c>
       <c r="G84" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H84" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J84" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
@@ -3808,7 +3808,7 @@
         <v>42</v>
       </c>
       <c r="N84" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -3852,7 +3852,7 @@
         <v>42</v>
       </c>
       <c r="N85" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -3872,19 +3872,19 @@
         <v>20</v>
       </c>
       <c r="F86" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H86" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J86" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K86" t="s">
         <v>13</v>
@@ -3896,7 +3896,7 @@
         <v>43</v>
       </c>
       <c r="N86" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -3940,7 +3940,7 @@
         <v>43</v>
       </c>
       <c r="N87" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -3957,22 +3957,22 @@
         <v>4</v>
       </c>
       <c r="E88" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G88" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H88" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J88" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K88" t="s">
         <v>13</v>
@@ -3984,7 +3984,7 @@
         <v>44</v>
       </c>
       <c r="N88" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -4028,7 +4028,7 @@
         <v>44</v>
       </c>
       <c r="N89" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -4045,22 +4045,22 @@
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F90" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G90" s="1">
+        <v>120</v>
+      </c>
+      <c r="H90" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I90" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J90" s="1">
         <v>40</v>
-      </c>
-      <c r="H90" s="1">
-        <v>80000</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1">
-        <v>5</v>
       </c>
       <c r="K90" t="s">
         <v>13</v>
@@ -4072,7 +4072,7 @@
         <v>45</v>
       </c>
       <c r="N90" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
@@ -4116,7 +4116,7 @@
         <v>45</v>
       </c>
       <c r="N91" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -4133,22 +4133,22 @@
         <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F92" s="1">
+        <v>120</v>
+      </c>
+      <c r="G92" s="1">
         <v>80</v>
       </c>
-      <c r="G92" s="1">
-        <v>120</v>
-      </c>
       <c r="H92" s="1">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I92" s="1">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="J92" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K92" t="s">
         <v>13</v>
@@ -4160,7 +4160,7 @@
         <v>46</v>
       </c>
       <c r="N92" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
@@ -4204,7 +4204,7 @@
         <v>46</v>
       </c>
       <c r="N93" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -4224,19 +4224,19 @@
         <v>5</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H94" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J94" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K94" t="s">
         <v>13</v>
@@ -4248,7 +4248,7 @@
         <v>47</v>
       </c>
       <c r="N94" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -4292,7 +4292,7 @@
         <v>47</v>
       </c>
       <c r="N95" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -4309,22 +4309,22 @@
         <v>4</v>
       </c>
       <c r="E96" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F96" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G96" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
       </c>
       <c r="I96" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="J96" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K96" t="s">
         <v>13</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -4397,39 +4397,39 @@
         <v>4</v>
       </c>
       <c r="E98" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
         <v>120</v>
       </c>
-      <c r="G98" s="1">
-        <v>80</v>
-      </c>
       <c r="H98" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="I98" s="1">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="J98" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L98" s="1">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="M98" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N98" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -4459,21 +4459,21 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L99" s="1">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="M99" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N99" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
@@ -4485,39 +4485,39 @@
         <v>4</v>
       </c>
       <c r="E100" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F100" s="1">
         <v>120</v>
       </c>
       <c r="G100" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H100" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I100" s="1">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="J100" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L100" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="M100" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N100" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
@@ -4547,21 +4547,21 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L101" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="M101" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N101" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4573,39 +4573,39 @@
         <v>4</v>
       </c>
       <c r="E102" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F102" s="1">
         <v>40</v>
       </c>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H102" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J102" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L102" s="1">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="M102" s="1">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N102" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4635,21 +4635,21 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L103" s="1">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="M103" s="1">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N103" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1">
         <v>4</v>
@@ -4661,39 +4661,39 @@
         <v>4</v>
       </c>
       <c r="E104" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F104" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G104" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
       </c>
       <c r="I104" s="1">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="J104" s="1">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="K104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L104" s="1">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="M104" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="N104" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1">
         <v>4</v>
@@ -4723,21 +4723,21 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L105" s="1">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="M105" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="N105" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B106" s="1">
         <v>5</v>
@@ -4752,36 +4752,36 @@
         <v>100</v>
       </c>
       <c r="F106" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G106" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H106" s="1">
         <v>40000</v>
       </c>
       <c r="I106" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="J106" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L106" s="1">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="M106" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N106" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B107" s="1">
         <v>5</v>
@@ -4811,21 +4811,21 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L107" s="1">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="M107" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N107" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B108" s="1">
         <v>6</v>
@@ -4837,39 +4837,39 @@
         <v>4</v>
       </c>
       <c r="E108" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F108" s="1">
         <v>120</v>
       </c>
       <c r="G108" s="1">
+        <v>80</v>
+      </c>
+      <c r="H108" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
         <v>40</v>
       </c>
-      <c r="H108" s="1">
-        <v>120000</v>
-      </c>
-      <c r="I108" s="1">
-        <v>0</v>
-      </c>
-      <c r="J108" s="1">
-        <v>30</v>
-      </c>
       <c r="K108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L108" s="1">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="M108" s="1">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="N108" s="1">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B109" s="1">
         <v>6</v>
@@ -4899,21 +4899,21 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L109" s="1">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="M109" s="1">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="N109" s="1">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B110" s="1">
         <v>7</v>
@@ -4925,10 +4925,10 @@
         <v>4</v>
       </c>
       <c r="E110" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F110" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G110" s="1">
         <v>120</v>
@@ -4940,24 +4940,24 @@
         <v>120000</v>
       </c>
       <c r="J110" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L110" s="1">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M110" s="1">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N110" s="1">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B111" s="1">
         <v>7</v>
@@ -4987,21 +4987,21 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L111" s="1">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="M111" s="1">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N111" s="1">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B112" s="1">
         <v>8</v>
@@ -5013,39 +5013,39 @@
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F112" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G112" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H112" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
       </c>
       <c r="J112" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L112" s="1">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="M112" s="1">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="N112" s="1">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B113" s="1">
         <v>8</v>
@@ -5075,21 +5075,21 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L113" s="1">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M113" s="1">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="N113" s="1">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
@@ -5101,31 +5101,31 @@
         <v>4</v>
       </c>
       <c r="E114" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F114" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
       </c>
       <c r="J114" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L114" s="1">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="M114" s="1">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="N114" s="1">
         <v>2</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
@@ -5163,13 +5163,13 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L115" s="1">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="M115" s="1">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="N115" s="1">
         <v>2</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
@@ -5192,36 +5192,36 @@
         <v>20</v>
       </c>
       <c r="F116" s="1">
+        <v>120</v>
+      </c>
+      <c r="G116" s="1">
         <v>40</v>
       </c>
-      <c r="G116" s="1">
-        <v>120</v>
-      </c>
       <c r="H116" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I116" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J116" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L116" s="1">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M116" s="1">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="N116" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1">
         <v>2</v>
@@ -5251,21 +5251,21 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L117" s="1">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="M117" s="1">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="N117" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B118" s="1">
         <v>3</v>
@@ -5277,39 +5277,39 @@
         <v>4</v>
       </c>
       <c r="E118" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F118" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G118" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
       </c>
       <c r="I118" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="J118" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L118" s="1">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="M118" s="1">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="N118" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1">
         <v>3</v>
@@ -5339,21 +5339,21 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L119" s="1">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="M119" s="1">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="N119" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B120" s="1">
         <v>4</v>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F120" s="1">
         <v>80</v>
@@ -5374,30 +5374,30 @@
         <v>80</v>
       </c>
       <c r="H120" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I120" s="1">
         <v>80000</v>
       </c>
-      <c r="I120" s="1">
-        <v>40000</v>
-      </c>
       <c r="J120" s="1">
+        <v>40</v>
+      </c>
+      <c r="K120" t="s">
+        <v>13</v>
+      </c>
+      <c r="L120" s="1">
+        <v>119</v>
+      </c>
+      <c r="M120" s="1">
         <v>60</v>
       </c>
-      <c r="K120" t="s">
-        <v>14</v>
-      </c>
-      <c r="L120" s="1">
-        <v>23</v>
-      </c>
-      <c r="M120" s="1">
-        <v>12</v>
-      </c>
       <c r="N120" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1">
         <v>4</v>
@@ -5427,21 +5427,21 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L121" s="1">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="M121" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N121" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1">
         <v>5</v>
@@ -5453,39 +5453,39 @@
         <v>4</v>
       </c>
       <c r="E122" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F122" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G122" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H122" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="I122" s="1">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="J122" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L122" s="1">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M122" s="1">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N122" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1">
         <v>5</v>
@@ -5515,21 +5515,21 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L123" s="1">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M123" s="1">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N123" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B124" s="1">
         <v>6</v>
@@ -5544,36 +5544,36 @@
         <v>5</v>
       </c>
       <c r="F124" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G124" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H124" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I124" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J124" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L124" s="1">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="M124" s="1">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="N124" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B125" s="1">
         <v>6</v>
@@ -5603,21 +5603,21 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L125" s="1">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="M125" s="1">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="N125" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B126" s="1">
         <v>7</v>
@@ -5629,39 +5629,39 @@
         <v>4</v>
       </c>
       <c r="E126" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F126" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G126" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H126" s="1">
         <v>40000</v>
       </c>
       <c r="I126" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J126" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L126" s="1">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="M126" s="1">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N126" s="1">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B127" s="1">
         <v>7</v>
@@ -5691,21 +5691,21 @@
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L127" s="1">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="M127" s="1">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N127" s="1">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B128" s="1">
         <v>8</v>
@@ -5720,36 +5720,36 @@
         <v>20</v>
       </c>
       <c r="F128" s="1">
+        <v>40</v>
+      </c>
+      <c r="G128" s="1">
         <v>120</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I128" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J128" s="1">
         <v>40</v>
       </c>
-      <c r="H128" s="1">
-        <v>120000</v>
-      </c>
-      <c r="I128" s="1">
-        <v>0</v>
-      </c>
-      <c r="J128" s="1">
-        <v>60</v>
-      </c>
       <c r="K128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L128" s="1">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="M128" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N128" s="1">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B129" s="1">
         <v>8</v>
@@ -5779,109 +5779,109 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L129" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="M129" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N129" s="1">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>100</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>5</v>
+      </c>
+      <c r="K130" t="s">
+        <v>13</v>
+      </c>
+      <c r="L130" s="1">
+        <v>129</v>
+      </c>
+      <c r="M130" s="1">
+        <v>65</v>
+      </c>
+      <c r="N130" s="1">
         <v>3</v>
-      </c>
-      <c r="B130" s="1">
-        <v>1</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="1">
-        <v>50</v>
-      </c>
-      <c r="F130" s="1">
-        <v>40</v>
-      </c>
-      <c r="G130" s="1">
-        <v>80</v>
-      </c>
-      <c r="H130" s="1">
-        <v>0</v>
-      </c>
-      <c r="I130" s="1">
-        <v>0</v>
-      </c>
-      <c r="J130" s="1">
-        <v>15</v>
-      </c>
-      <c r="K130" t="s">
-        <v>14</v>
-      </c>
-      <c r="L130" s="1">
-        <v>33</v>
-      </c>
-      <c r="M130" s="1">
-        <v>17</v>
-      </c>
-      <c r="N130" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L131" s="1">
+        <v>130</v>
+      </c>
+      <c r="M131" s="1">
+        <v>65</v>
+      </c>
+      <c r="N131" s="1">
         <v>3</v>
-      </c>
-      <c r="B131" s="1">
-        <v>1</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" s="1">
-        <v>0</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0</v>
-      </c>
-      <c r="G131" s="1">
-        <v>0</v>
-      </c>
-      <c r="H131" s="1">
-        <v>0</v>
-      </c>
-      <c r="I131" s="1">
-        <v>0</v>
-      </c>
-      <c r="J131" s="1">
-        <v>0</v>
-      </c>
-      <c r="K131" t="s">
-        <v>14</v>
-      </c>
-      <c r="L131" s="1">
-        <v>34</v>
-      </c>
-      <c r="M131" s="1">
-        <v>17</v>
-      </c>
-      <c r="N131" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B132" s="1">
         <v>2</v>
@@ -5896,36 +5896,36 @@
         <v>100</v>
       </c>
       <c r="F132" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G132" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H132" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I132" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J132" s="1">
         <v>15</v>
       </c>
       <c r="K132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L132" s="1">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="M132" s="1">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N132" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1">
         <v>2</v>
@@ -5955,21 +5955,21 @@
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L133" s="1">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="M133" s="1">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N133" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B134" s="1">
         <v>3</v>
@@ -5981,39 +5981,39 @@
         <v>4</v>
       </c>
       <c r="E134" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F134" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G134" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H134" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I134" s="1">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="J134" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L134" s="1">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="M134" s="1">
+        <v>67</v>
+      </c>
+      <c r="N134" s="1">
         <v>19</v>
-      </c>
-      <c r="N134" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -6043,21 +6043,21 @@
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L135" s="1">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="M135" s="1">
+        <v>67</v>
+      </c>
+      <c r="N135" s="1">
         <v>19</v>
-      </c>
-      <c r="N135" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -6069,39 +6069,39 @@
         <v>4</v>
       </c>
       <c r="E136" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F136" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G136" s="1">
         <v>120</v>
       </c>
       <c r="H136" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
       <c r="J136" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L136" s="1">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M136" s="1">
+        <v>68</v>
+      </c>
+      <c r="N136" s="1">
         <v>20</v>
-      </c>
-      <c r="N136" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -6131,21 +6131,21 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L137" s="1">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="M137" s="1">
+        <v>68</v>
+      </c>
+      <c r="N137" s="1">
         <v>20</v>
-      </c>
-      <c r="N137" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B138" s="1">
         <v>5</v>
@@ -6160,13 +6160,13 @@
         <v>5</v>
       </c>
       <c r="F138" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G138" s="1">
         <v>40</v>
       </c>
       <c r="H138" s="1">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="I138" s="1">
         <v>40000</v>
@@ -6175,21 +6175,21 @@
         <v>15</v>
       </c>
       <c r="K138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L138" s="1">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="M138" s="1">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="N138" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B139" s="1">
         <v>5</v>
@@ -6219,21 +6219,21 @@
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L139" s="1">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="M139" s="1">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="N139" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B140" s="1">
         <v>6</v>
@@ -6245,39 +6245,39 @@
         <v>4</v>
       </c>
       <c r="E140" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
       </c>
       <c r="G140" s="1">
+        <v>80</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J140" s="1">
         <v>40</v>
       </c>
-      <c r="H140" s="1">
-        <v>0</v>
-      </c>
-      <c r="I140" s="1">
-        <v>20000</v>
-      </c>
-      <c r="J140" s="1">
-        <v>15</v>
-      </c>
       <c r="K140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L140" s="1">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="M140" s="1">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N140" s="1">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B141" s="1">
         <v>6</v>
@@ -6307,21 +6307,21 @@
         <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L141" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="M141" s="1">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N141" s="1">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B142" s="1">
         <v>7</v>
@@ -6333,14 +6333,14 @@
         <v>4</v>
       </c>
       <c r="E142" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F142" s="1">
+        <v>40</v>
+      </c>
+      <c r="G142" s="1">
         <v>120</v>
       </c>
-      <c r="G142" s="1">
-        <v>0</v>
-      </c>
       <c r="H142" s="1">
         <v>0</v>
       </c>
@@ -6348,24 +6348,24 @@
         <v>0</v>
       </c>
       <c r="J142" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L142" s="1">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="M142" s="1">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N142" s="1">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B143" s="1">
         <v>7</v>
@@ -6395,21 +6395,21 @@
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L143" s="1">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="M143" s="1">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N143" s="1">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B144" s="1">
         <v>8</v>
@@ -6424,36 +6424,36 @@
         <v>5</v>
       </c>
       <c r="F144" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G144" s="1">
         <v>120</v>
       </c>
       <c r="H144" s="1">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="I144" s="1">
         <v>0</v>
       </c>
       <c r="J144" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L144" s="1">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="M144" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="N144" s="1">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B145" s="1">
         <v>8</v>
@@ -6483,21 +6483,21 @@
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L145" s="1">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="M145" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="N145" s="1">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
@@ -6509,39 +6509,39 @@
         <v>4</v>
       </c>
       <c r="E146" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F146" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G146" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H146" s="1">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I146" s="1">
         <v>40000</v>
       </c>
       <c r="J146" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K146" t="s">
         <v>14</v>
       </c>
       <c r="L146" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="M146" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N146" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1">
         <v>1</v>
@@ -6574,18 +6574,18 @@
         <v>14</v>
       </c>
       <c r="L147" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M147" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N147" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1">
         <v>2</v>
@@ -6597,16 +6597,16 @@
         <v>4</v>
       </c>
       <c r="E148" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F148" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G148" s="1">
         <v>40</v>
       </c>
       <c r="H148" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I148" s="1">
         <v>0</v>
@@ -6618,18 +6618,18 @@
         <v>14</v>
       </c>
       <c r="L148" s="1">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="M148" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N148" s="1">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1">
         <v>2</v>
@@ -6662,18 +6662,18 @@
         <v>14</v>
       </c>
       <c r="L149" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="M149" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N149" s="1">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
@@ -6685,39 +6685,39 @@
         <v>4</v>
       </c>
       <c r="E150" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F150" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G150" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H150" s="1">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I150" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J150" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K150" t="s">
         <v>14</v>
       </c>
       <c r="L150" s="1">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="M150" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N150" s="1">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -6750,18 +6750,18 @@
         <v>14</v>
       </c>
       <c r="L151" s="1">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="M151" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N151" s="1">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1">
         <v>4</v>
@@ -6773,39 +6773,39 @@
         <v>4</v>
       </c>
       <c r="E152" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F152" s="1">
         <v>120</v>
       </c>
       <c r="G152" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
       </c>
       <c r="I152" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="J152" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K152" t="s">
         <v>14</v>
       </c>
       <c r="L152" s="1">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="M152" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="N152" s="1">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -6838,18 +6838,18 @@
         <v>14</v>
       </c>
       <c r="L153" s="1">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="M153" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="N153" s="1">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1">
         <v>5</v>
@@ -6861,39 +6861,39 @@
         <v>4</v>
       </c>
       <c r="E154" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
       </c>
       <c r="G154" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H154" s="1">
         <v>0</v>
       </c>
       <c r="I154" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J154" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K154" t="s">
         <v>14</v>
       </c>
       <c r="L154" s="1">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="M154" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="N154" s="1">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1">
         <v>5</v>
@@ -6926,18 +6926,18 @@
         <v>14</v>
       </c>
       <c r="L155" s="1">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="M155" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="N155" s="1">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1">
         <v>6</v>
@@ -6949,39 +6949,39 @@
         <v>4</v>
       </c>
       <c r="E156" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F156" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G156" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H156" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="I156" s="1">
         <v>40000</v>
       </c>
       <c r="J156" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K156" t="s">
         <v>14</v>
       </c>
       <c r="L156" s="1">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M156" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N156" s="1">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1">
         <v>6</v>
@@ -7014,18 +7014,18 @@
         <v>14</v>
       </c>
       <c r="L157" s="1">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M157" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N157" s="1">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1">
         <v>7</v>
@@ -7037,39 +7037,39 @@
         <v>4</v>
       </c>
       <c r="E158" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F158" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G158" s="1">
         <v>120</v>
       </c>
       <c r="H158" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="I158" s="1">
         <v>60000</v>
       </c>
       <c r="J158" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
       </c>
       <c r="L158" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M158" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="N158" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B159" s="1">
         <v>7</v>
@@ -7102,18 +7102,18 @@
         <v>14</v>
       </c>
       <c r="L159" s="1">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M159" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="N159" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B160" s="1">
         <v>8</v>
@@ -7125,39 +7125,39 @@
         <v>4</v>
       </c>
       <c r="E160" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F160" s="1">
         <v>80</v>
       </c>
       <c r="G160" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H160" s="1">
         <v>80000</v>
       </c>
       <c r="I160" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J160" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K160" t="s">
         <v>14</v>
       </c>
       <c r="L160" s="1">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M160" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N160" s="1">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1">
         <v>8</v>
@@ -7190,18 +7190,18 @@
         <v>14</v>
       </c>
       <c r="L161" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M161" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N161" s="1">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B162" s="1">
         <v>1</v>
@@ -7213,39 +7213,39 @@
         <v>4</v>
       </c>
       <c r="E162" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F162" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G162" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H162" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I162" s="1">
         <v>0</v>
       </c>
       <c r="J162" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
       </c>
       <c r="L162" s="1">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="M162" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N162" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B163" s="1">
         <v>1</v>
@@ -7278,18 +7278,18 @@
         <v>14</v>
       </c>
       <c r="L163" s="1">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M163" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N163" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B164" s="1">
         <v>2</v>
@@ -7301,19 +7301,19 @@
         <v>4</v>
       </c>
       <c r="E164" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F164" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G164" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H164" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I164" s="1">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="J164" s="1">
         <v>60</v>
@@ -7322,18 +7322,18 @@
         <v>14</v>
       </c>
       <c r="L164" s="1">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="M164" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="N164" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B165" s="1">
         <v>2</v>
@@ -7366,18 +7366,18 @@
         <v>14</v>
       </c>
       <c r="L165" s="1">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M165" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="N165" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B166" s="1">
         <v>3</v>
@@ -7389,39 +7389,39 @@
         <v>4</v>
       </c>
       <c r="E166" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F166" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G166" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H166" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I166" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J166" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K166" t="s">
         <v>14</v>
       </c>
       <c r="L166" s="1">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M166" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N166" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B167" s="1">
         <v>3</v>
@@ -7454,18 +7454,18 @@
         <v>14</v>
       </c>
       <c r="L167" s="1">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M167" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N167" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -7480,13 +7480,13 @@
         <v>5</v>
       </c>
       <c r="F168" s="1">
+        <v>120</v>
+      </c>
+      <c r="G168" s="1">
         <v>80</v>
       </c>
-      <c r="G168" s="1">
-        <v>40</v>
-      </c>
       <c r="H168" s="1">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="I168" s="1">
         <v>40000</v>
@@ -7498,18 +7498,18 @@
         <v>14</v>
       </c>
       <c r="L168" s="1">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M168" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N168" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -7542,18 +7542,18 @@
         <v>14</v>
       </c>
       <c r="L169" s="1">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M169" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N169" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1">
         <v>5</v>
@@ -7565,10 +7565,10 @@
         <v>4</v>
       </c>
       <c r="E170" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F170" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G170" s="1">
         <v>120</v>
@@ -7580,24 +7580,24 @@
         <v>60000</v>
       </c>
       <c r="J170" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K170" t="s">
         <v>14</v>
       </c>
       <c r="L170" s="1">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M170" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N170" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B171" s="1">
         <v>5</v>
@@ -7630,18 +7630,18 @@
         <v>14</v>
       </c>
       <c r="L171" s="1">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="M171" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N171" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B172" s="1">
         <v>6</v>
@@ -7653,39 +7653,39 @@
         <v>4</v>
       </c>
       <c r="E172" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F172" s="1">
         <v>120</v>
       </c>
       <c r="G172" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H172" s="1">
         <v>0</v>
       </c>
       <c r="I172" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J172" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K172" t="s">
         <v>14</v>
       </c>
       <c r="L172" s="1">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="M172" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N172" s="1">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B173" s="1">
         <v>6</v>
@@ -7718,18 +7718,18 @@
         <v>14</v>
       </c>
       <c r="L173" s="1">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="M173" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N173" s="1">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B174" s="1">
         <v>7</v>
@@ -7741,39 +7741,39 @@
         <v>4</v>
       </c>
       <c r="E174" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F174" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G174" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H174" s="1">
         <v>0</v>
       </c>
       <c r="I174" s="1">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J174" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K174" t="s">
         <v>14</v>
       </c>
       <c r="L174" s="1">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="M174" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N174" s="1">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B175" s="1">
         <v>7</v>
@@ -7806,18 +7806,18 @@
         <v>14</v>
       </c>
       <c r="L175" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="M175" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N175" s="1">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B176" s="1">
         <v>8</v>
@@ -7832,16 +7832,16 @@
         <v>5</v>
       </c>
       <c r="F176" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G176" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H176" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I176" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J176" s="1">
         <v>60</v>
@@ -7850,18 +7850,18 @@
         <v>14</v>
       </c>
       <c r="L176" s="1">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="M176" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N176" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B177" s="1">
         <v>8</v>
@@ -7894,18 +7894,18 @@
         <v>14</v>
       </c>
       <c r="L177" s="1">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M177" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N177" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B178" s="1">
         <v>1</v>
@@ -7917,19 +7917,19 @@
         <v>4</v>
       </c>
       <c r="E178" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F178" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G178" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H178" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I178" s="1">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="J178" s="1">
         <v>60</v>
@@ -7938,18 +7938,18 @@
         <v>14</v>
       </c>
       <c r="L178" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M178" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N178" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B179" s="1">
         <v>1</v>
@@ -7982,18 +7982,18 @@
         <v>14</v>
       </c>
       <c r="L179" s="1">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="M179" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N179" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B180" s="1">
         <v>2</v>
@@ -8005,39 +8005,39 @@
         <v>4</v>
       </c>
       <c r="E180" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F180" s="1">
         <v>120</v>
       </c>
       <c r="G180" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H180" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I180" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J180" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K180" t="s">
         <v>14</v>
       </c>
       <c r="L180" s="1">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M180" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N180" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
@@ -8070,18 +8070,18 @@
         <v>14</v>
       </c>
       <c r="L181" s="1">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="M181" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N181" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B182" s="1">
         <v>3</v>
@@ -8093,39 +8093,39 @@
         <v>4</v>
       </c>
       <c r="E182" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F182" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G182" s="1">
         <v>0</v>
       </c>
       <c r="H182" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I182" s="1">
         <v>0</v>
       </c>
       <c r="J182" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K182" t="s">
         <v>14</v>
       </c>
       <c r="L182" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="M182" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N182" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B183" s="1">
         <v>3</v>
@@ -8158,18 +8158,18 @@
         <v>14</v>
       </c>
       <c r="L183" s="1">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M183" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N183" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B184" s="1">
         <v>4</v>
@@ -8181,39 +8181,39 @@
         <v>4</v>
       </c>
       <c r="E184" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F184" s="1">
         <v>0</v>
       </c>
       <c r="G184" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H184" s="1">
         <v>0</v>
       </c>
       <c r="I184" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J184" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K184" t="s">
         <v>14</v>
       </c>
       <c r="L184" s="1">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="M184" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N184" s="1">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B185" s="1">
         <v>4</v>
@@ -8246,18 +8246,18 @@
         <v>14</v>
       </c>
       <c r="L185" s="1">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="M185" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N185" s="1">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B186" s="1">
         <v>5</v>
@@ -8269,39 +8269,39 @@
         <v>4</v>
       </c>
       <c r="E186" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F186" s="1">
+        <v>40</v>
+      </c>
+      <c r="G186" s="1">
         <v>80</v>
       </c>
-      <c r="G186" s="1">
-        <v>40</v>
-      </c>
       <c r="H186" s="1">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
       </c>
       <c r="J186" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K186" t="s">
         <v>14</v>
       </c>
       <c r="L186" s="1">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="M186" s="1">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N186" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B187" s="1">
         <v>5</v>
@@ -8334,18 +8334,18 @@
         <v>14</v>
       </c>
       <c r="L187" s="1">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M187" s="1">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N187" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B188" s="1">
         <v>6</v>
@@ -8357,39 +8357,39 @@
         <v>4</v>
       </c>
       <c r="E188" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F188" s="1">
         <v>80</v>
       </c>
       <c r="G188" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H188" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I188" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J188" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K188" t="s">
         <v>14</v>
       </c>
       <c r="L188" s="1">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="M188" s="1">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N188" s="1">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B189" s="1">
         <v>6</v>
@@ -8422,18 +8422,18 @@
         <v>14</v>
       </c>
       <c r="L189" s="1">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="M189" s="1">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N189" s="1">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B190" s="1">
         <v>7</v>
@@ -8445,39 +8445,39 @@
         <v>4</v>
       </c>
       <c r="E190" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F190" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G190" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H190" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
       </c>
       <c r="J190" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K190" t="s">
         <v>14</v>
       </c>
       <c r="L190" s="1">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M190" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N190" s="1">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B191" s="1">
         <v>7</v>
@@ -8510,18 +8510,18 @@
         <v>14</v>
       </c>
       <c r="L191" s="1">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="M191" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N191" s="1">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B192" s="1">
         <v>8</v>
@@ -8533,39 +8533,39 @@
         <v>4</v>
       </c>
       <c r="E192" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F192" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G192" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H192" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I192" s="1">
         <v>40000</v>
       </c>
       <c r="J192" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K192" t="s">
         <v>14</v>
       </c>
       <c r="L192" s="1">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M192" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N192" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B193" s="1">
         <v>8</v>
@@ -8598,13 +8598,4237 @@
         <v>14</v>
       </c>
       <c r="L193" s="1">
+        <v>48</v>
+      </c>
+      <c r="M193" s="1">
+        <v>24</v>
+      </c>
+      <c r="N193" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>4</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" s="1">
+        <v>20</v>
+      </c>
+      <c r="F194" s="1">
+        <v>80</v>
+      </c>
+      <c r="G194" s="1">
+        <v>80</v>
+      </c>
+      <c r="H194" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I194" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J194" s="1">
+        <v>15</v>
+      </c>
+      <c r="K194" t="s">
+        <v>14</v>
+      </c>
+      <c r="L194" s="1">
+        <v>49</v>
+      </c>
+      <c r="M194" s="1">
+        <v>25</v>
+      </c>
+      <c r="N194" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+      <c r="K195" t="s">
+        <v>14</v>
+      </c>
+      <c r="L195" s="1">
+        <v>50</v>
+      </c>
+      <c r="M195" s="1">
+        <v>25</v>
+      </c>
+      <c r="N195" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>4</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" s="1">
+        <v>50</v>
+      </c>
+      <c r="F196" s="1">
+        <v>120</v>
+      </c>
+      <c r="G196" s="1">
+        <v>120</v>
+      </c>
+      <c r="H196" s="1">
+        <v>120000</v>
+      </c>
+      <c r="I196" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J196" s="1">
+        <v>30</v>
+      </c>
+      <c r="K196" t="s">
+        <v>14</v>
+      </c>
+      <c r="L196" s="1">
+        <v>51</v>
+      </c>
+      <c r="M196" s="1">
+        <v>26</v>
+      </c>
+      <c r="N196" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>4</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>14</v>
+      </c>
+      <c r="L197" s="1">
+        <v>52</v>
+      </c>
+      <c r="M197" s="1">
+        <v>26</v>
+      </c>
+      <c r="N197" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>4</v>
+      </c>
+      <c r="B198" s="1">
+        <v>3</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" s="1">
+        <v>20</v>
+      </c>
+      <c r="F198" s="1">
+        <v>80</v>
+      </c>
+      <c r="G198" s="1">
+        <v>120</v>
+      </c>
+      <c r="H198" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I198" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J198" s="1">
+        <v>60</v>
+      </c>
+      <c r="K198" t="s">
+        <v>14</v>
+      </c>
+      <c r="L198" s="1">
+        <v>53</v>
+      </c>
+      <c r="M198" s="1">
+        <v>27</v>
+      </c>
+      <c r="N198" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>4</v>
+      </c>
+      <c r="B199" s="1">
+        <v>3</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="K199" t="s">
+        <v>14</v>
+      </c>
+      <c r="L199" s="1">
+        <v>54</v>
+      </c>
+      <c r="M199" s="1">
+        <v>27</v>
+      </c>
+      <c r="N199" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>4</v>
+      </c>
+      <c r="B200" s="1">
+        <v>4</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200" s="1">
+        <v>100</v>
+      </c>
+      <c r="F200" s="1">
+        <v>120</v>
+      </c>
+      <c r="G200" s="1">
+        <v>80</v>
+      </c>
+      <c r="H200" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I200" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J200" s="1">
+        <v>60</v>
+      </c>
+      <c r="K200" t="s">
+        <v>14</v>
+      </c>
+      <c r="L200" s="1">
+        <v>55</v>
+      </c>
+      <c r="M200" s="1">
+        <v>28</v>
+      </c>
+      <c r="N200" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>4</v>
+      </c>
+      <c r="B201" s="1">
+        <v>4</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+      <c r="G201" s="1">
+        <v>0</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>14</v>
+      </c>
+      <c r="L201" s="1">
+        <v>56</v>
+      </c>
+      <c r="M201" s="1">
+        <v>28</v>
+      </c>
+      <c r="N201" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>4</v>
+      </c>
+      <c r="B202" s="1">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
+      </c>
+      <c r="E202" s="1">
+        <v>5</v>
+      </c>
+      <c r="F202" s="1">
+        <v>40</v>
+      </c>
+      <c r="G202" s="1">
+        <v>80</v>
+      </c>
+      <c r="H202" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+      <c r="J202" s="1">
+        <v>15</v>
+      </c>
+      <c r="K202" t="s">
+        <v>14</v>
+      </c>
+      <c r="L202" s="1">
+        <v>57</v>
+      </c>
+      <c r="M202" s="1">
+        <v>29</v>
+      </c>
+      <c r="N202" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>4</v>
+      </c>
+      <c r="B203" s="1">
+        <v>5</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+      <c r="J203" s="1">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>14</v>
+      </c>
+      <c r="L203" s="1">
+        <v>58</v>
+      </c>
+      <c r="M203" s="1">
+        <v>29</v>
+      </c>
+      <c r="N203" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>4</v>
+      </c>
+      <c r="B204" s="1">
+        <v>6</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4</v>
+      </c>
+      <c r="E204" s="1">
+        <v>50</v>
+      </c>
+      <c r="F204" s="1">
+        <v>80</v>
+      </c>
+      <c r="G204" s="1">
+        <v>40</v>
+      </c>
+      <c r="H204" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I204" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J204" s="1">
+        <v>30</v>
+      </c>
+      <c r="K204" t="s">
+        <v>14</v>
+      </c>
+      <c r="L204" s="1">
+        <v>59</v>
+      </c>
+      <c r="M204" s="1">
+        <v>30</v>
+      </c>
+      <c r="N204" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>4</v>
+      </c>
+      <c r="B205" s="1">
+        <v>6</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+      <c r="G205" s="1">
+        <v>0</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>0</v>
+      </c>
+      <c r="K205" t="s">
+        <v>14</v>
+      </c>
+      <c r="L205" s="1">
+        <v>60</v>
+      </c>
+      <c r="M205" s="1">
+        <v>30</v>
+      </c>
+      <c r="N205" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>4</v>
+      </c>
+      <c r="B206" s="1">
+        <v>7</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
+      </c>
+      <c r="E206" s="1">
+        <v>100</v>
+      </c>
+      <c r="F206" s="1">
+        <v>120</v>
+      </c>
+      <c r="G206" s="1">
+        <v>40</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>30</v>
+      </c>
+      <c r="K206" t="s">
+        <v>14</v>
+      </c>
+      <c r="L206" s="1">
+        <v>61</v>
+      </c>
+      <c r="M206" s="1">
+        <v>31</v>
+      </c>
+      <c r="N206" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>4</v>
+      </c>
+      <c r="B207" s="1">
+        <v>7</v>
+      </c>
+      <c r="C207" s="1">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="1">
+        <v>0</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+      <c r="K207" t="s">
+        <v>14</v>
+      </c>
+      <c r="L207" s="1">
+        <v>62</v>
+      </c>
+      <c r="M207" s="1">
+        <v>31</v>
+      </c>
+      <c r="N207" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>4</v>
+      </c>
+      <c r="B208" s="1">
+        <v>8</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" s="1">
+        <v>50</v>
+      </c>
+      <c r="F208" s="1">
+        <v>120</v>
+      </c>
+      <c r="G208" s="1">
+        <v>40</v>
+      </c>
+      <c r="H208" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I208" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J208" s="1">
+        <v>30</v>
+      </c>
+      <c r="K208" t="s">
+        <v>14</v>
+      </c>
+      <c r="L208" s="1">
+        <v>63</v>
+      </c>
+      <c r="M208" s="1">
+        <v>32</v>
+      </c>
+      <c r="N208" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>4</v>
+      </c>
+      <c r="B209" s="1">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+      <c r="G209" s="1">
+        <v>0</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>0</v>
+      </c>
+      <c r="K209" t="s">
+        <v>14</v>
+      </c>
+      <c r="L209" s="1">
+        <v>64</v>
+      </c>
+      <c r="M209" s="1">
+        <v>32</v>
+      </c>
+      <c r="N209" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>5</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
+      </c>
+      <c r="E210" s="1">
+        <v>20</v>
+      </c>
+      <c r="F210" s="1">
+        <v>120</v>
+      </c>
+      <c r="G210" s="1">
+        <v>80</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>60</v>
+      </c>
+      <c r="K210" t="s">
+        <v>14</v>
+      </c>
+      <c r="L210" s="1">
+        <v>65</v>
+      </c>
+      <c r="M210" s="1">
+        <v>33</v>
+      </c>
+      <c r="N210" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>5</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+      <c r="J211" s="1">
+        <v>0</v>
+      </c>
+      <c r="K211" t="s">
+        <v>14</v>
+      </c>
+      <c r="L211" s="1">
+        <v>66</v>
+      </c>
+      <c r="M211" s="1">
+        <v>33</v>
+      </c>
+      <c r="N211" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>5</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>4</v>
+      </c>
+      <c r="E212" s="1">
+        <v>50</v>
+      </c>
+      <c r="F212" s="1">
+        <v>80</v>
+      </c>
+      <c r="G212" s="1">
+        <v>0</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+      <c r="J212" s="1">
+        <v>60</v>
+      </c>
+      <c r="K212" t="s">
+        <v>14</v>
+      </c>
+      <c r="L212" s="1">
+        <v>67</v>
+      </c>
+      <c r="M212" s="1">
+        <v>34</v>
+      </c>
+      <c r="N212" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>5</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>0</v>
+      </c>
+      <c r="K213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L213" s="1">
+        <v>68</v>
+      </c>
+      <c r="M213" s="1">
+        <v>34</v>
+      </c>
+      <c r="N213" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>5</v>
+      </c>
+      <c r="B214" s="1">
+        <v>3</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+      <c r="E214" s="1">
+        <v>20</v>
+      </c>
+      <c r="F214" s="1">
+        <v>40</v>
+      </c>
+      <c r="G214" s="1">
+        <v>80</v>
+      </c>
+      <c r="H214" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I214" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J214" s="1">
+        <v>15</v>
+      </c>
+      <c r="K214" t="s">
+        <v>14</v>
+      </c>
+      <c r="L214" s="1">
+        <v>69</v>
+      </c>
+      <c r="M214" s="1">
+        <v>35</v>
+      </c>
+      <c r="N214" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>5</v>
+      </c>
+      <c r="B215" s="1">
+        <v>3</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="1">
+        <v>0</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+      <c r="J215" s="1">
+        <v>0</v>
+      </c>
+      <c r="K215" t="s">
+        <v>14</v>
+      </c>
+      <c r="L215" s="1">
+        <v>70</v>
+      </c>
+      <c r="M215" s="1">
+        <v>35</v>
+      </c>
+      <c r="N215" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>5</v>
+      </c>
+      <c r="B216" s="1">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
+      </c>
+      <c r="E216" s="1">
+        <v>50</v>
+      </c>
+      <c r="F216" s="1">
+        <v>40</v>
+      </c>
+      <c r="G216" s="1">
+        <v>0</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+      <c r="J216" s="1">
+        <v>15</v>
+      </c>
+      <c r="K216" t="s">
+        <v>14</v>
+      </c>
+      <c r="L216" s="1">
+        <v>71</v>
+      </c>
+      <c r="M216" s="1">
+        <v>36</v>
+      </c>
+      <c r="N216" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>5</v>
+      </c>
+      <c r="B217" s="1">
+        <v>4</v>
+      </c>
+      <c r="C217" s="1">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
+      </c>
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>0</v>
+      </c>
+      <c r="K217" t="s">
+        <v>14</v>
+      </c>
+      <c r="L217" s="1">
+        <v>72</v>
+      </c>
+      <c r="M217" s="1">
+        <v>36</v>
+      </c>
+      <c r="N217" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>5</v>
+      </c>
+      <c r="B218" s="1">
+        <v>5</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+      <c r="E218" s="1">
+        <v>20</v>
+      </c>
+      <c r="F218" s="1">
+        <v>40</v>
+      </c>
+      <c r="G218" s="1">
+        <v>120</v>
+      </c>
+      <c r="H218" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I218" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J218" s="1">
+        <v>15</v>
+      </c>
+      <c r="K218" t="s">
+        <v>14</v>
+      </c>
+      <c r="L218" s="1">
+        <v>73</v>
+      </c>
+      <c r="M218" s="1">
+        <v>37</v>
+      </c>
+      <c r="N218" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>5</v>
+      </c>
+      <c r="B219" s="1">
+        <v>5</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+      <c r="G219" s="1">
+        <v>0</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>14</v>
+      </c>
+      <c r="L219" s="1">
+        <v>74</v>
+      </c>
+      <c r="M219" s="1">
+        <v>37</v>
+      </c>
+      <c r="N219" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>5</v>
+      </c>
+      <c r="B220" s="1">
+        <v>6</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+      <c r="E220" s="1">
+        <v>50</v>
+      </c>
+      <c r="F220" s="1">
+        <v>40</v>
+      </c>
+      <c r="G220" s="1">
+        <v>120</v>
+      </c>
+      <c r="H220" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I220" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J220" s="1">
+        <v>30</v>
+      </c>
+      <c r="K220" t="s">
+        <v>14</v>
+      </c>
+      <c r="L220" s="1">
+        <v>75</v>
+      </c>
+      <c r="M220" s="1">
+        <v>38</v>
+      </c>
+      <c r="N220" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>5</v>
+      </c>
+      <c r="B221" s="1">
+        <v>6</v>
+      </c>
+      <c r="C221" s="1">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>14</v>
+      </c>
+      <c r="L221" s="1">
+        <v>76</v>
+      </c>
+      <c r="M221" s="1">
+        <v>38</v>
+      </c>
+      <c r="N221" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>5</v>
+      </c>
+      <c r="B222" s="1">
+        <v>7</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1">
+        <v>5</v>
+      </c>
+      <c r="F222" s="1">
+        <v>80</v>
+      </c>
+      <c r="G222" s="1">
+        <v>120</v>
+      </c>
+      <c r="H222" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>60</v>
+      </c>
+      <c r="K222" t="s">
+        <v>14</v>
+      </c>
+      <c r="L222" s="1">
+        <v>77</v>
+      </c>
+      <c r="M222" s="1">
+        <v>39</v>
+      </c>
+      <c r="N222" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>5</v>
+      </c>
+      <c r="B223" s="1">
+        <v>7</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+      <c r="G223" s="1">
+        <v>0</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>14</v>
+      </c>
+      <c r="L223" s="1">
+        <v>78</v>
+      </c>
+      <c r="M223" s="1">
+        <v>39</v>
+      </c>
+      <c r="N223" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>5</v>
+      </c>
+      <c r="B224" s="1">
+        <v>8</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+      <c r="E224" s="1">
+        <v>50</v>
+      </c>
+      <c r="F224" s="1">
+        <v>80</v>
+      </c>
+      <c r="G224" s="1">
+        <v>120</v>
+      </c>
+      <c r="H224" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+      <c r="J224" s="1">
+        <v>30</v>
+      </c>
+      <c r="K224" t="s">
+        <v>14</v>
+      </c>
+      <c r="L224" s="1">
+        <v>79</v>
+      </c>
+      <c r="M224" s="1">
+        <v>40</v>
+      </c>
+      <c r="N224" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>5</v>
+      </c>
+      <c r="B225" s="1">
+        <v>8</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+      <c r="G225" s="1">
+        <v>0</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+      <c r="J225" s="1">
+        <v>0</v>
+      </c>
+      <c r="K225" t="s">
+        <v>14</v>
+      </c>
+      <c r="L225" s="1">
+        <v>80</v>
+      </c>
+      <c r="M225" s="1">
+        <v>40</v>
+      </c>
+      <c r="N225" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>6</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="1">
+        <v>20</v>
+      </c>
+      <c r="F226" s="1">
+        <v>40</v>
+      </c>
+      <c r="G226" s="1">
+        <v>80</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
+      </c>
+      <c r="I226" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J226" s="1">
+        <v>60</v>
+      </c>
+      <c r="K226" t="s">
+        <v>14</v>
+      </c>
+      <c r="L226" s="1">
+        <v>81</v>
+      </c>
+      <c r="M226" s="1">
+        <v>41</v>
+      </c>
+      <c r="N226" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>6</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+      <c r="G227" s="1">
+        <v>0</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>0</v>
+      </c>
+      <c r="K227" t="s">
+        <v>14</v>
+      </c>
+      <c r="L227" s="1">
+        <v>82</v>
+      </c>
+      <c r="M227" s="1">
+        <v>41</v>
+      </c>
+      <c r="N227" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>6</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" s="1">
+        <v>50</v>
+      </c>
+      <c r="F228" s="1">
+        <v>120</v>
+      </c>
+      <c r="G228" s="1">
+        <v>120</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>15</v>
+      </c>
+      <c r="K228" t="s">
+        <v>14</v>
+      </c>
+      <c r="L228" s="1">
+        <v>83</v>
+      </c>
+      <c r="M228" s="1">
+        <v>42</v>
+      </c>
+      <c r="N228" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>6</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0</v>
+      </c>
+      <c r="K229" t="s">
+        <v>14</v>
+      </c>
+      <c r="L229" s="1">
+        <v>84</v>
+      </c>
+      <c r="M229" s="1">
+        <v>42</v>
+      </c>
+      <c r="N229" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>6</v>
+      </c>
+      <c r="B230" s="1">
+        <v>3</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" s="1">
+        <v>20</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+      <c r="G230" s="1">
+        <v>80</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J230" s="1">
+        <v>30</v>
+      </c>
+      <c r="K230" t="s">
+        <v>14</v>
+      </c>
+      <c r="L230" s="1">
+        <v>85</v>
+      </c>
+      <c r="M230" s="1">
+        <v>43</v>
+      </c>
+      <c r="N230" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>6</v>
+      </c>
+      <c r="B231" s="1">
+        <v>3</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>0</v>
+      </c>
+      <c r="K231" t="s">
+        <v>14</v>
+      </c>
+      <c r="L231" s="1">
+        <v>86</v>
+      </c>
+      <c r="M231" s="1">
+        <v>43</v>
+      </c>
+      <c r="N231" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>6</v>
+      </c>
+      <c r="B232" s="1">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" s="1">
+        <v>100</v>
+      </c>
+      <c r="F232" s="1">
+        <v>120</v>
+      </c>
+      <c r="G232" s="1">
+        <v>120</v>
+      </c>
+      <c r="H232" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I232" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J232" s="1">
+        <v>30</v>
+      </c>
+      <c r="K232" t="s">
+        <v>14</v>
+      </c>
+      <c r="L232" s="1">
+        <v>87</v>
+      </c>
+      <c r="M232" s="1">
+        <v>44</v>
+      </c>
+      <c r="N232" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>6</v>
+      </c>
+      <c r="B233" s="1">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+      <c r="G233" s="1">
+        <v>0</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+      <c r="J233" s="1">
+        <v>0</v>
+      </c>
+      <c r="K233" t="s">
+        <v>14</v>
+      </c>
+      <c r="L233" s="1">
+        <v>88</v>
+      </c>
+      <c r="M233" s="1">
+        <v>44</v>
+      </c>
+      <c r="N233" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>6</v>
+      </c>
+      <c r="B234" s="1">
+        <v>5</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+      <c r="E234" s="1">
+        <v>50</v>
+      </c>
+      <c r="F234" s="1">
+        <v>40</v>
+      </c>
+      <c r="G234" s="1">
+        <v>120</v>
+      </c>
+      <c r="H234" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I234" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J234" s="1">
+        <v>60</v>
+      </c>
+      <c r="K234" t="s">
+        <v>14</v>
+      </c>
+      <c r="L234" s="1">
+        <v>89</v>
+      </c>
+      <c r="M234" s="1">
+        <v>45</v>
+      </c>
+      <c r="N234" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>6</v>
+      </c>
+      <c r="B235" s="1">
+        <v>5</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+      <c r="G235" s="1">
+        <v>0</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+      <c r="J235" s="1">
+        <v>0</v>
+      </c>
+      <c r="K235" t="s">
+        <v>14</v>
+      </c>
+      <c r="L235" s="1">
+        <v>90</v>
+      </c>
+      <c r="M235" s="1">
+        <v>45</v>
+      </c>
+      <c r="N235" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>6</v>
+      </c>
+      <c r="B236" s="1">
+        <v>6</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
+      </c>
+      <c r="E236" s="1">
+        <v>100</v>
+      </c>
+      <c r="F236" s="1">
+        <v>120</v>
+      </c>
+      <c r="G236" s="1">
+        <v>80</v>
+      </c>
+      <c r="H236" s="1">
+        <v>120000</v>
+      </c>
+      <c r="I236" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J236" s="1">
+        <v>15</v>
+      </c>
+      <c r="K236" t="s">
+        <v>14</v>
+      </c>
+      <c r="L236" s="1">
+        <v>91</v>
+      </c>
+      <c r="M236" s="1">
+        <v>46</v>
+      </c>
+      <c r="N236" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>6</v>
+      </c>
+      <c r="B237" s="1">
+        <v>6</v>
+      </c>
+      <c r="C237" s="1">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+      <c r="G237" s="1">
+        <v>0</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+      <c r="J237" s="1">
+        <v>0</v>
+      </c>
+      <c r="K237" t="s">
+        <v>14</v>
+      </c>
+      <c r="L237" s="1">
+        <v>92</v>
+      </c>
+      <c r="M237" s="1">
+        <v>46</v>
+      </c>
+      <c r="N237" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>6</v>
+      </c>
+      <c r="B238" s="1">
+        <v>7</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" s="1">
+        <v>5</v>
+      </c>
+      <c r="F238" s="1">
+        <v>120</v>
+      </c>
+      <c r="G238" s="1">
+        <v>40</v>
+      </c>
+      <c r="H238" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I238" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J238" s="1">
+        <v>15</v>
+      </c>
+      <c r="K238" t="s">
+        <v>14</v>
+      </c>
+      <c r="L238" s="1">
+        <v>93</v>
+      </c>
+      <c r="M238" s="1">
+        <v>47</v>
+      </c>
+      <c r="N238" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>6</v>
+      </c>
+      <c r="B239" s="1">
+        <v>7</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+      <c r="G239" s="1">
+        <v>0</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+      <c r="J239" s="1">
+        <v>0</v>
+      </c>
+      <c r="K239" t="s">
+        <v>14</v>
+      </c>
+      <c r="L239" s="1">
+        <v>94</v>
+      </c>
+      <c r="M239" s="1">
+        <v>47</v>
+      </c>
+      <c r="N239" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>6</v>
+      </c>
+      <c r="B240" s="1">
+        <v>8</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
+      </c>
+      <c r="E240" s="1">
+        <v>5</v>
+      </c>
+      <c r="F240" s="1">
+        <v>120</v>
+      </c>
+      <c r="G240" s="1">
+        <v>120</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0</v>
+      </c>
+      <c r="I240" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J240" s="1">
+        <v>60</v>
+      </c>
+      <c r="K240" t="s">
+        <v>14</v>
+      </c>
+      <c r="L240" s="1">
+        <v>95</v>
+      </c>
+      <c r="M240" s="1">
+        <v>48</v>
+      </c>
+      <c r="N240" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>6</v>
+      </c>
+      <c r="B241" s="1">
+        <v>8</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+      <c r="G241" s="1">
+        <v>0</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+      <c r="J241" s="1">
+        <v>0</v>
+      </c>
+      <c r="K241" t="s">
+        <v>14</v>
+      </c>
+      <c r="L241" s="1">
         <v>96</v>
       </c>
-      <c r="M193" s="1">
+      <c r="M241" s="1">
         <v>48</v>
       </c>
-      <c r="N193" s="1">
+      <c r="N241" s="1">
         <v>48</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>7</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4</v>
+      </c>
+      <c r="E242" s="1">
+        <v>50</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+      <c r="G242" s="1">
+        <v>120</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0</v>
+      </c>
+      <c r="I242" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J242" s="1">
+        <v>15</v>
+      </c>
+      <c r="K242" t="s">
+        <v>14</v>
+      </c>
+      <c r="L242" s="1">
+        <v>97</v>
+      </c>
+      <c r="M242" s="1">
+        <v>49</v>
+      </c>
+      <c r="N242" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>7</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+      <c r="G243" s="1">
+        <v>0</v>
+      </c>
+      <c r="H243" s="1">
+        <v>0</v>
+      </c>
+      <c r="I243" s="1">
+        <v>0</v>
+      </c>
+      <c r="J243" s="1">
+        <v>0</v>
+      </c>
+      <c r="K243" t="s">
+        <v>14</v>
+      </c>
+      <c r="L243" s="1">
+        <v>98</v>
+      </c>
+      <c r="M243" s="1">
+        <v>49</v>
+      </c>
+      <c r="N243" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>7</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244" s="1">
+        <v>20</v>
+      </c>
+      <c r="F244" s="1">
+        <v>120</v>
+      </c>
+      <c r="G244" s="1">
+        <v>80</v>
+      </c>
+      <c r="H244" s="1">
+        <v>0</v>
+      </c>
+      <c r="I244" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J244" s="1">
+        <v>30</v>
+      </c>
+      <c r="K244" t="s">
+        <v>14</v>
+      </c>
+      <c r="L244" s="1">
+        <v>99</v>
+      </c>
+      <c r="M244" s="1">
+        <v>50</v>
+      </c>
+      <c r="N244" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>7</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+      <c r="G245" s="1">
+        <v>0</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0</v>
+      </c>
+      <c r="I245" s="1">
+        <v>0</v>
+      </c>
+      <c r="J245" s="1">
+        <v>0</v>
+      </c>
+      <c r="K245" t="s">
+        <v>14</v>
+      </c>
+      <c r="L245" s="1">
+        <v>100</v>
+      </c>
+      <c r="M245" s="1">
+        <v>50</v>
+      </c>
+      <c r="N245" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>7</v>
+      </c>
+      <c r="B246" s="1">
+        <v>3</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+      <c r="E246" s="1">
+        <v>100</v>
+      </c>
+      <c r="F246" s="1">
+        <v>40</v>
+      </c>
+      <c r="G246" s="1">
+        <v>80</v>
+      </c>
+      <c r="H246" s="1">
+        <v>0</v>
+      </c>
+      <c r="I246" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J246" s="1">
+        <v>30</v>
+      </c>
+      <c r="K246" t="s">
+        <v>14</v>
+      </c>
+      <c r="L246" s="1">
+        <v>101</v>
+      </c>
+      <c r="M246" s="1">
+        <v>51</v>
+      </c>
+      <c r="N246" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>7</v>
+      </c>
+      <c r="B247" s="1">
+        <v>3</v>
+      </c>
+      <c r="C247" s="1">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+      <c r="G247" s="1">
+        <v>0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>0</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+      <c r="J247" s="1">
+        <v>0</v>
+      </c>
+      <c r="K247" t="s">
+        <v>14</v>
+      </c>
+      <c r="L247" s="1">
+        <v>102</v>
+      </c>
+      <c r="M247" s="1">
+        <v>51</v>
+      </c>
+      <c r="N247" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>7</v>
+      </c>
+      <c r="B248" s="1">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" s="1">
+        <v>5</v>
+      </c>
+      <c r="F248" s="1">
+        <v>40</v>
+      </c>
+      <c r="G248" s="1">
+        <v>120</v>
+      </c>
+      <c r="H248" s="1">
+        <v>0</v>
+      </c>
+      <c r="I248" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J248" s="1">
+        <v>15</v>
+      </c>
+      <c r="K248" t="s">
+        <v>14</v>
+      </c>
+      <c r="L248" s="1">
+        <v>103</v>
+      </c>
+      <c r="M248" s="1">
+        <v>52</v>
+      </c>
+      <c r="N248" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>7</v>
+      </c>
+      <c r="B249" s="1">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+      <c r="G249" s="1">
+        <v>0</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1">
+        <v>0</v>
+      </c>
+      <c r="J249" s="1">
+        <v>0</v>
+      </c>
+      <c r="K249" t="s">
+        <v>14</v>
+      </c>
+      <c r="L249" s="1">
+        <v>104</v>
+      </c>
+      <c r="M249" s="1">
+        <v>52</v>
+      </c>
+      <c r="N249" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>7</v>
+      </c>
+      <c r="B250" s="1">
+        <v>5</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250" s="1">
+        <v>100</v>
+      </c>
+      <c r="F250" s="1">
+        <v>80</v>
+      </c>
+      <c r="G250" s="1">
+        <v>120</v>
+      </c>
+      <c r="H250" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I250" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J250" s="1">
+        <v>15</v>
+      </c>
+      <c r="K250" t="s">
+        <v>14</v>
+      </c>
+      <c r="L250" s="1">
+        <v>105</v>
+      </c>
+      <c r="M250" s="1">
+        <v>53</v>
+      </c>
+      <c r="N250" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>7</v>
+      </c>
+      <c r="B251" s="1">
+        <v>5</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+      <c r="G251" s="1">
+        <v>0</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0</v>
+      </c>
+      <c r="I251" s="1">
+        <v>0</v>
+      </c>
+      <c r="J251" s="1">
+        <v>0</v>
+      </c>
+      <c r="K251" t="s">
+        <v>14</v>
+      </c>
+      <c r="L251" s="1">
+        <v>106</v>
+      </c>
+      <c r="M251" s="1">
+        <v>53</v>
+      </c>
+      <c r="N251" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>7</v>
+      </c>
+      <c r="B252" s="1">
+        <v>6</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+      <c r="E252" s="1">
+        <v>50</v>
+      </c>
+      <c r="F252" s="1">
+        <v>120</v>
+      </c>
+      <c r="G252" s="1">
+        <v>80</v>
+      </c>
+      <c r="H252" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0</v>
+      </c>
+      <c r="J252" s="1">
+        <v>60</v>
+      </c>
+      <c r="K252" t="s">
+        <v>14</v>
+      </c>
+      <c r="L252" s="1">
+        <v>107</v>
+      </c>
+      <c r="M252" s="1">
+        <v>54</v>
+      </c>
+      <c r="N252" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>7</v>
+      </c>
+      <c r="B253" s="1">
+        <v>6</v>
+      </c>
+      <c r="C253" s="1">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+      <c r="G253" s="1">
+        <v>0</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0</v>
+      </c>
+      <c r="I253" s="1">
+        <v>0</v>
+      </c>
+      <c r="J253" s="1">
+        <v>0</v>
+      </c>
+      <c r="K253" t="s">
+        <v>14</v>
+      </c>
+      <c r="L253" s="1">
+        <v>108</v>
+      </c>
+      <c r="M253" s="1">
+        <v>54</v>
+      </c>
+      <c r="N253" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>7</v>
+      </c>
+      <c r="B254" s="1">
+        <v>7</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
+      </c>
+      <c r="E254" s="1">
+        <v>20</v>
+      </c>
+      <c r="F254" s="1">
+        <v>80</v>
+      </c>
+      <c r="G254" s="1">
+        <v>120</v>
+      </c>
+      <c r="H254" s="1">
+        <v>0</v>
+      </c>
+      <c r="I254" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J254" s="1">
+        <v>30</v>
+      </c>
+      <c r="K254" t="s">
+        <v>14</v>
+      </c>
+      <c r="L254" s="1">
+        <v>109</v>
+      </c>
+      <c r="M254" s="1">
+        <v>55</v>
+      </c>
+      <c r="N254" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>7</v>
+      </c>
+      <c r="B255" s="1">
+        <v>7</v>
+      </c>
+      <c r="C255" s="1">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
+      </c>
+      <c r="G255" s="1">
+        <v>0</v>
+      </c>
+      <c r="H255" s="1">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1">
+        <v>0</v>
+      </c>
+      <c r="J255" s="1">
+        <v>0</v>
+      </c>
+      <c r="K255" t="s">
+        <v>14</v>
+      </c>
+      <c r="L255" s="1">
+        <v>110</v>
+      </c>
+      <c r="M255" s="1">
+        <v>55</v>
+      </c>
+      <c r="N255" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>7</v>
+      </c>
+      <c r="B256" s="1">
+        <v>8</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256" s="1">
+        <v>100</v>
+      </c>
+      <c r="F256" s="1">
+        <v>40</v>
+      </c>
+      <c r="G256" s="1">
+        <v>120</v>
+      </c>
+      <c r="H256" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I256" s="1">
+        <v>0</v>
+      </c>
+      <c r="J256" s="1">
+        <v>30</v>
+      </c>
+      <c r="K256" t="s">
+        <v>14</v>
+      </c>
+      <c r="L256" s="1">
+        <v>111</v>
+      </c>
+      <c r="M256" s="1">
+        <v>56</v>
+      </c>
+      <c r="N256" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>7</v>
+      </c>
+      <c r="B257" s="1">
+        <v>8</v>
+      </c>
+      <c r="C257" s="1">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0</v>
+      </c>
+      <c r="G257" s="1">
+        <v>0</v>
+      </c>
+      <c r="H257" s="1">
+        <v>0</v>
+      </c>
+      <c r="I257" s="1">
+        <v>0</v>
+      </c>
+      <c r="J257" s="1">
+        <v>0</v>
+      </c>
+      <c r="K257" t="s">
+        <v>14</v>
+      </c>
+      <c r="L257" s="1">
+        <v>112</v>
+      </c>
+      <c r="M257" s="1">
+        <v>56</v>
+      </c>
+      <c r="N257" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>8</v>
+      </c>
+      <c r="B258" s="1">
+        <v>1</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
+      </c>
+      <c r="E258" s="1">
+        <v>100</v>
+      </c>
+      <c r="F258" s="1">
+        <v>120</v>
+      </c>
+      <c r="G258" s="1">
+        <v>0</v>
+      </c>
+      <c r="H258" s="1">
+        <v>120000</v>
+      </c>
+      <c r="I258" s="1">
+        <v>0</v>
+      </c>
+      <c r="J258" s="1">
+        <v>30</v>
+      </c>
+      <c r="K258" t="s">
+        <v>14</v>
+      </c>
+      <c r="L258" s="1">
+        <v>113</v>
+      </c>
+      <c r="M258" s="1">
+        <v>57</v>
+      </c>
+      <c r="N258" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>8</v>
+      </c>
+      <c r="B259" s="1">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
+      <c r="G259" s="1">
+        <v>0</v>
+      </c>
+      <c r="H259" s="1">
+        <v>0</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0</v>
+      </c>
+      <c r="J259" s="1">
+        <v>0</v>
+      </c>
+      <c r="K259" t="s">
+        <v>14</v>
+      </c>
+      <c r="L259" s="1">
+        <v>114</v>
+      </c>
+      <c r="M259" s="1">
+        <v>57</v>
+      </c>
+      <c r="N259" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>8</v>
+      </c>
+      <c r="B260" s="1">
+        <v>2</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
+      </c>
+      <c r="E260" s="1">
+        <v>20</v>
+      </c>
+      <c r="F260" s="1">
+        <v>120</v>
+      </c>
+      <c r="G260" s="1">
+        <v>40</v>
+      </c>
+      <c r="H260" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I260" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J260" s="1">
+        <v>60</v>
+      </c>
+      <c r="K260" t="s">
+        <v>14</v>
+      </c>
+      <c r="L260" s="1">
+        <v>115</v>
+      </c>
+      <c r="M260" s="1">
+        <v>58</v>
+      </c>
+      <c r="N260" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>8</v>
+      </c>
+      <c r="B261" s="1">
+        <v>2</v>
+      </c>
+      <c r="C261" s="1">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+      <c r="G261" s="1">
+        <v>0</v>
+      </c>
+      <c r="H261" s="1">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1">
+        <v>0</v>
+      </c>
+      <c r="J261" s="1">
+        <v>0</v>
+      </c>
+      <c r="K261" t="s">
+        <v>14</v>
+      </c>
+      <c r="L261" s="1">
+        <v>116</v>
+      </c>
+      <c r="M261" s="1">
+        <v>58</v>
+      </c>
+      <c r="N261" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>8</v>
+      </c>
+      <c r="B262" s="1">
+        <v>3</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" s="1">
+        <v>100</v>
+      </c>
+      <c r="F262" s="1">
+        <v>80</v>
+      </c>
+      <c r="G262" s="1">
+        <v>80</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0</v>
+      </c>
+      <c r="I262" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J262" s="1">
+        <v>15</v>
+      </c>
+      <c r="K262" t="s">
+        <v>14</v>
+      </c>
+      <c r="L262" s="1">
+        <v>117</v>
+      </c>
+      <c r="M262" s="1">
+        <v>59</v>
+      </c>
+      <c r="N262" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>8</v>
+      </c>
+      <c r="B263" s="1">
+        <v>3</v>
+      </c>
+      <c r="C263" s="1">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0</v>
+      </c>
+      <c r="G263" s="1">
+        <v>0</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
+      </c>
+      <c r="I263" s="1">
+        <v>0</v>
+      </c>
+      <c r="J263" s="1">
+        <v>0</v>
+      </c>
+      <c r="K263" t="s">
+        <v>14</v>
+      </c>
+      <c r="L263" s="1">
+        <v>118</v>
+      </c>
+      <c r="M263" s="1">
+        <v>59</v>
+      </c>
+      <c r="N263" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>8</v>
+      </c>
+      <c r="B264" s="1">
+        <v>4</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
+      </c>
+      <c r="E264" s="1">
+        <v>50</v>
+      </c>
+      <c r="F264" s="1">
+        <v>80</v>
+      </c>
+      <c r="G264" s="1">
+        <v>80</v>
+      </c>
+      <c r="H264" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I264" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J264" s="1">
+        <v>60</v>
+      </c>
+      <c r="K264" t="s">
+        <v>14</v>
+      </c>
+      <c r="L264" s="1">
+        <v>119</v>
+      </c>
+      <c r="M264" s="1">
+        <v>60</v>
+      </c>
+      <c r="N264" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>8</v>
+      </c>
+      <c r="B265" s="1">
+        <v>4</v>
+      </c>
+      <c r="C265" s="1">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0</v>
+      </c>
+      <c r="G265" s="1">
+        <v>0</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0</v>
+      </c>
+      <c r="J265" s="1">
+        <v>0</v>
+      </c>
+      <c r="K265" t="s">
+        <v>14</v>
+      </c>
+      <c r="L265" s="1">
+        <v>120</v>
+      </c>
+      <c r="M265" s="1">
+        <v>60</v>
+      </c>
+      <c r="N265" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>8</v>
+      </c>
+      <c r="B266" s="1">
+        <v>5</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+      <c r="E266" s="1">
+        <v>20</v>
+      </c>
+      <c r="F266" s="1">
+        <v>80</v>
+      </c>
+      <c r="G266" s="1">
+        <v>40</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J266" s="1">
+        <v>15</v>
+      </c>
+      <c r="K266" t="s">
+        <v>14</v>
+      </c>
+      <c r="L266" s="1">
+        <v>121</v>
+      </c>
+      <c r="M266" s="1">
+        <v>61</v>
+      </c>
+      <c r="N266" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>8</v>
+      </c>
+      <c r="B267" s="1">
+        <v>5</v>
+      </c>
+      <c r="C267" s="1">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0</v>
+      </c>
+      <c r="G267" s="1">
+        <v>0</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>0</v>
+      </c>
+      <c r="J267" s="1">
+        <v>0</v>
+      </c>
+      <c r="K267" t="s">
+        <v>14</v>
+      </c>
+      <c r="L267" s="1">
+        <v>122</v>
+      </c>
+      <c r="M267" s="1">
+        <v>61</v>
+      </c>
+      <c r="N267" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>8</v>
+      </c>
+      <c r="B268" s="1">
+        <v>6</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+      <c r="E268" s="1">
+        <v>5</v>
+      </c>
+      <c r="F268" s="1">
+        <v>80</v>
+      </c>
+      <c r="G268" s="1">
+        <v>120</v>
+      </c>
+      <c r="H268" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0</v>
+      </c>
+      <c r="J268" s="1">
+        <v>15</v>
+      </c>
+      <c r="K268" t="s">
+        <v>14</v>
+      </c>
+      <c r="L268" s="1">
+        <v>123</v>
+      </c>
+      <c r="M268" s="1">
+        <v>62</v>
+      </c>
+      <c r="N268" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>8</v>
+      </c>
+      <c r="B269" s="1">
+        <v>6</v>
+      </c>
+      <c r="C269" s="1">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0</v>
+      </c>
+      <c r="G269" s="1">
+        <v>0</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1">
+        <v>0</v>
+      </c>
+      <c r="J269" s="1">
+        <v>0</v>
+      </c>
+      <c r="K269" t="s">
+        <v>14</v>
+      </c>
+      <c r="L269" s="1">
+        <v>124</v>
+      </c>
+      <c r="M269" s="1">
+        <v>62</v>
+      </c>
+      <c r="N269" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>8</v>
+      </c>
+      <c r="B270" s="1">
+        <v>7</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="1">
+        <v>100</v>
+      </c>
+      <c r="F270" s="1">
+        <v>40</v>
+      </c>
+      <c r="G270" s="1">
+        <v>40</v>
+      </c>
+      <c r="H270" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I270" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J270" s="1">
+        <v>15</v>
+      </c>
+      <c r="K270" t="s">
+        <v>14</v>
+      </c>
+      <c r="L270" s="1">
+        <v>125</v>
+      </c>
+      <c r="M270" s="1">
+        <v>63</v>
+      </c>
+      <c r="N270" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>8</v>
+      </c>
+      <c r="B271" s="1">
+        <v>7</v>
+      </c>
+      <c r="C271" s="1">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0</v>
+      </c>
+      <c r="G271" s="1">
+        <v>0</v>
+      </c>
+      <c r="H271" s="1">
+        <v>0</v>
+      </c>
+      <c r="I271" s="1">
+        <v>0</v>
+      </c>
+      <c r="J271" s="1">
+        <v>0</v>
+      </c>
+      <c r="K271" t="s">
+        <v>14</v>
+      </c>
+      <c r="L271" s="1">
+        <v>126</v>
+      </c>
+      <c r="M271" s="1">
+        <v>63</v>
+      </c>
+      <c r="N271" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>8</v>
+      </c>
+      <c r="B272" s="1">
+        <v>8</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" s="1">
+        <v>20</v>
+      </c>
+      <c r="F272" s="1">
+        <v>40</v>
+      </c>
+      <c r="G272" s="1">
+        <v>120</v>
+      </c>
+      <c r="H272" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I272" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J272" s="1">
+        <v>60</v>
+      </c>
+      <c r="K272" t="s">
+        <v>14</v>
+      </c>
+      <c r="L272" s="1">
+        <v>127</v>
+      </c>
+      <c r="M272" s="1">
+        <v>64</v>
+      </c>
+      <c r="N272" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>8</v>
+      </c>
+      <c r="B273" s="1">
+        <v>8</v>
+      </c>
+      <c r="C273" s="1">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
+      </c>
+      <c r="G273" s="1">
+        <v>0</v>
+      </c>
+      <c r="H273" s="1">
+        <v>0</v>
+      </c>
+      <c r="I273" s="1">
+        <v>0</v>
+      </c>
+      <c r="J273" s="1">
+        <v>0</v>
+      </c>
+      <c r="K273" t="s">
+        <v>14</v>
+      </c>
+      <c r="L273" s="1">
+        <v>128</v>
+      </c>
+      <c r="M273" s="1">
+        <v>64</v>
+      </c>
+      <c r="N273" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>9</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="1">
+        <v>100</v>
+      </c>
+      <c r="F274" s="1">
+        <v>0</v>
+      </c>
+      <c r="G274" s="1">
+        <v>0</v>
+      </c>
+      <c r="H274" s="1">
+        <v>0</v>
+      </c>
+      <c r="I274" s="1">
+        <v>0</v>
+      </c>
+      <c r="J274" s="1">
+        <v>15</v>
+      </c>
+      <c r="K274" t="s">
+        <v>14</v>
+      </c>
+      <c r="L274" s="1">
+        <v>129</v>
+      </c>
+      <c r="M274" s="1">
+        <v>65</v>
+      </c>
+      <c r="N274" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>9</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0</v>
+      </c>
+      <c r="H275" s="1">
+        <v>0</v>
+      </c>
+      <c r="I275" s="1">
+        <v>0</v>
+      </c>
+      <c r="J275" s="1">
+        <v>0</v>
+      </c>
+      <c r="K275" t="s">
+        <v>14</v>
+      </c>
+      <c r="L275" s="1">
+        <v>130</v>
+      </c>
+      <c r="M275" s="1">
+        <v>65</v>
+      </c>
+      <c r="N275" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>9</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" s="1">
+        <v>100</v>
+      </c>
+      <c r="F276" s="1">
+        <v>80</v>
+      </c>
+      <c r="G276" s="1">
+        <v>80</v>
+      </c>
+      <c r="H276" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I276" s="1">
+        <v>0</v>
+      </c>
+      <c r="J276" s="1">
+        <v>30</v>
+      </c>
+      <c r="K276" t="s">
+        <v>14</v>
+      </c>
+      <c r="L276" s="1">
+        <v>131</v>
+      </c>
+      <c r="M276" s="1">
+        <v>66</v>
+      </c>
+      <c r="N276" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>9</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2</v>
+      </c>
+      <c r="C277" s="1">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+      <c r="F277" s="1">
+        <v>0</v>
+      </c>
+      <c r="G277" s="1">
+        <v>0</v>
+      </c>
+      <c r="H277" s="1">
+        <v>0</v>
+      </c>
+      <c r="I277" s="1">
+        <v>0</v>
+      </c>
+      <c r="J277" s="1">
+        <v>0</v>
+      </c>
+      <c r="K277" t="s">
+        <v>14</v>
+      </c>
+      <c r="L277" s="1">
+        <v>132</v>
+      </c>
+      <c r="M277" s="1">
+        <v>66</v>
+      </c>
+      <c r="N277" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>9</v>
+      </c>
+      <c r="B278" s="1">
+        <v>3</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" s="1">
+        <v>5</v>
+      </c>
+      <c r="F278" s="1">
+        <v>40</v>
+      </c>
+      <c r="G278" s="1">
+        <v>120</v>
+      </c>
+      <c r="H278" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I278" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J278" s="1">
+        <v>30</v>
+      </c>
+      <c r="K278" t="s">
+        <v>14</v>
+      </c>
+      <c r="L278" s="1">
+        <v>133</v>
+      </c>
+      <c r="M278" s="1">
+        <v>67</v>
+      </c>
+      <c r="N278" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>9</v>
+      </c>
+      <c r="B279" s="1">
+        <v>3</v>
+      </c>
+      <c r="C279" s="1">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0</v>
+      </c>
+      <c r="H279" s="1">
+        <v>0</v>
+      </c>
+      <c r="I279" s="1">
+        <v>0</v>
+      </c>
+      <c r="J279" s="1">
+        <v>0</v>
+      </c>
+      <c r="K279" t="s">
+        <v>14</v>
+      </c>
+      <c r="L279" s="1">
+        <v>134</v>
+      </c>
+      <c r="M279" s="1">
+        <v>67</v>
+      </c>
+      <c r="N279" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>9</v>
+      </c>
+      <c r="B280" s="1">
+        <v>4</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" s="1">
+        <v>50</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0</v>
+      </c>
+      <c r="G280" s="1">
+        <v>120</v>
+      </c>
+      <c r="H280" s="1">
+        <v>0</v>
+      </c>
+      <c r="I280" s="1">
+        <v>0</v>
+      </c>
+      <c r="J280" s="1">
+        <v>60</v>
+      </c>
+      <c r="K280" t="s">
+        <v>14</v>
+      </c>
+      <c r="L280" s="1">
+        <v>135</v>
+      </c>
+      <c r="M280" s="1">
+        <v>68</v>
+      </c>
+      <c r="N280" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>9</v>
+      </c>
+      <c r="B281" s="1">
+        <v>4</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0</v>
+      </c>
+      <c r="G281" s="1">
+        <v>0</v>
+      </c>
+      <c r="H281" s="1">
+        <v>0</v>
+      </c>
+      <c r="I281" s="1">
+        <v>0</v>
+      </c>
+      <c r="J281" s="1">
+        <v>0</v>
+      </c>
+      <c r="K281" t="s">
+        <v>14</v>
+      </c>
+      <c r="L281" s="1">
+        <v>136</v>
+      </c>
+      <c r="M281" s="1">
+        <v>68</v>
+      </c>
+      <c r="N281" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>9</v>
+      </c>
+      <c r="B282" s="1">
+        <v>5</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" s="1">
+        <v>5</v>
+      </c>
+      <c r="F282" s="1">
+        <v>80</v>
+      </c>
+      <c r="G282" s="1">
+        <v>40</v>
+      </c>
+      <c r="H282" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I282" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J282" s="1">
+        <v>30</v>
+      </c>
+      <c r="K282" t="s">
+        <v>14</v>
+      </c>
+      <c r="L282" s="1">
+        <v>137</v>
+      </c>
+      <c r="M282" s="1">
+        <v>69</v>
+      </c>
+      <c r="N282" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>9</v>
+      </c>
+      <c r="B283" s="1">
+        <v>5</v>
+      </c>
+      <c r="C283" s="1">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283" s="1">
+        <v>0</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0</v>
+      </c>
+      <c r="G283" s="1">
+        <v>0</v>
+      </c>
+      <c r="H283" s="1">
+        <v>0</v>
+      </c>
+      <c r="I283" s="1">
+        <v>0</v>
+      </c>
+      <c r="J283" s="1">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>14</v>
+      </c>
+      <c r="L283" s="1">
+        <v>138</v>
+      </c>
+      <c r="M283" s="1">
+        <v>69</v>
+      </c>
+      <c r="N283" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>9</v>
+      </c>
+      <c r="B284" s="1">
+        <v>6</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" s="1">
+        <v>100</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+      <c r="G284" s="1">
+        <v>80</v>
+      </c>
+      <c r="H284" s="1">
+        <v>0</v>
+      </c>
+      <c r="I284" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J284" s="1">
+        <v>60</v>
+      </c>
+      <c r="K284" t="s">
+        <v>14</v>
+      </c>
+      <c r="L284" s="1">
+        <v>139</v>
+      </c>
+      <c r="M284" s="1">
+        <v>70</v>
+      </c>
+      <c r="N284" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>9</v>
+      </c>
+      <c r="B285" s="1">
+        <v>6</v>
+      </c>
+      <c r="C285" s="1">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285" s="1">
+        <v>0</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
+      <c r="G285" s="1">
+        <v>0</v>
+      </c>
+      <c r="H285" s="1">
+        <v>0</v>
+      </c>
+      <c r="I285" s="1">
+        <v>0</v>
+      </c>
+      <c r="J285" s="1">
+        <v>0</v>
+      </c>
+      <c r="K285" t="s">
+        <v>14</v>
+      </c>
+      <c r="L285" s="1">
+        <v>140</v>
+      </c>
+      <c r="M285" s="1">
+        <v>70</v>
+      </c>
+      <c r="N285" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>9</v>
+      </c>
+      <c r="B286" s="1">
+        <v>7</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
+      </c>
+      <c r="E286" s="1">
+        <v>20</v>
+      </c>
+      <c r="F286" s="1">
+        <v>40</v>
+      </c>
+      <c r="G286" s="1">
+        <v>120</v>
+      </c>
+      <c r="H286" s="1">
+        <v>0</v>
+      </c>
+      <c r="I286" s="1">
+        <v>0</v>
+      </c>
+      <c r="J286" s="1">
+        <v>15</v>
+      </c>
+      <c r="K286" t="s">
+        <v>14</v>
+      </c>
+      <c r="L286" s="1">
+        <v>141</v>
+      </c>
+      <c r="M286" s="1">
+        <v>71</v>
+      </c>
+      <c r="N286" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>9</v>
+      </c>
+      <c r="B287" s="1">
+        <v>7</v>
+      </c>
+      <c r="C287" s="1">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>5</v>
+      </c>
+      <c r="E287" s="1">
+        <v>0</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0</v>
+      </c>
+      <c r="G287" s="1">
+        <v>0</v>
+      </c>
+      <c r="H287" s="1">
+        <v>0</v>
+      </c>
+      <c r="I287" s="1">
+        <v>0</v>
+      </c>
+      <c r="J287" s="1">
+        <v>0</v>
+      </c>
+      <c r="K287" t="s">
+        <v>14</v>
+      </c>
+      <c r="L287" s="1">
+        <v>142</v>
+      </c>
+      <c r="M287" s="1">
+        <v>71</v>
+      </c>
+      <c r="N287" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>9</v>
+      </c>
+      <c r="B288" s="1">
+        <v>8</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" s="1">
+        <v>5</v>
+      </c>
+      <c r="F288" s="1">
+        <v>120</v>
+      </c>
+      <c r="G288" s="1">
+        <v>120</v>
+      </c>
+      <c r="H288" s="1">
+        <v>120000</v>
+      </c>
+      <c r="I288" s="1">
+        <v>0</v>
+      </c>
+      <c r="J288" s="1">
+        <v>30</v>
+      </c>
+      <c r="K288" t="s">
+        <v>14</v>
+      </c>
+      <c r="L288" s="1">
+        <v>143</v>
+      </c>
+      <c r="M288" s="1">
+        <v>72</v>
+      </c>
+      <c r="N288" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>9</v>
+      </c>
+      <c r="B289" s="1">
+        <v>8</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" s="1">
+        <v>0</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0</v>
+      </c>
+      <c r="G289" s="1">
+        <v>0</v>
+      </c>
+      <c r="H289" s="1">
+        <v>0</v>
+      </c>
+      <c r="I289" s="1">
+        <v>0</v>
+      </c>
+      <c r="J289" s="1">
+        <v>0</v>
+      </c>
+      <c r="K289" t="s">
+        <v>14</v>
+      </c>
+      <c r="L289" s="1">
+        <v>144</v>
+      </c>
+      <c r="M289" s="1">
+        <v>72</v>
+      </c>
+      <c r="N289" s="1">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_design/store/design_matrix.xlsx
+++ b/experiment_design/store/design_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bparthum\Box\farmland_conservation\analyze\farmland_git\experiment_design\store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C464C8-68A9-4ACB-930F-2BCF799DA2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D2E3E4-3831-4DF0-BB28-E50AE7A6E54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="18">
   <si>
     <t>block</t>
   </si>
@@ -64,7 +64,7 @@
     <t>miles</t>
   </si>
   <si>
-    <t>time</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>alt_id</t>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N193"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1">
         <v>120</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -627,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -691,16 +691,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>40</v>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -776,22 +776,22 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
+        <v>120</v>
+      </c>
+      <c r="G8" s="1">
         <v>40</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
       <c r="H8" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -867,19 +867,19 @@
         <v>20</v>
       </c>
       <c r="F10" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -952,22 +952,22 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1040,22 +1040,22 @@
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1">
         <v>80</v>
       </c>
       <c r="H14" s="1">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
@@ -1067,15 +1067,15 @@
         <v>7</v>
       </c>
       <c r="N14" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -1111,15 +1111,15 @@
         <v>7</v>
       </c>
       <c r="N15" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1128,19 +1128,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
+        <v>120</v>
+      </c>
+      <c r="G16" s="1">
         <v>80</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
       <c r="H16" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1">
         <v>40</v>
@@ -1155,15 +1155,15 @@
         <v>8</v>
       </c>
       <c r="N16" s="1">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="1">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1207,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1216,22 +1216,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H18" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -1243,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1304,22 +1304,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F20" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>40</v>
-      </c>
-      <c r="H20" s="1">
-        <v>500</v>
-      </c>
-      <c r="I20" s="1">
-        <v>500</v>
-      </c>
-      <c r="J20" s="1">
-        <v>15</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
@@ -1331,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1375,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1392,22 +1392,22 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
@@ -1419,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="N22" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1463,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="N23" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1480,19 +1480,19 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1">
         <v>40</v>
       </c>
       <c r="H24" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I24" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1">
         <v>40</v>
@@ -1507,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="N24" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1515,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1551,15 +1551,15 @@
         <v>12</v>
       </c>
       <c r="N25" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1568,22 +1568,22 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
@@ -1595,15 +1595,15 @@
         <v>13</v>
       </c>
       <c r="N26" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1639,15 +1639,15 @@
         <v>13</v>
       </c>
       <c r="N27" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1656,22 +1656,22 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="I28" s="1">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
         <v>13</v>
@@ -1683,15 +1683,15 @@
         <v>14</v>
       </c>
       <c r="N28" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1727,15 +1727,15 @@
         <v>14</v>
       </c>
       <c r="N29" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1747,19 +1747,19 @@
         <v>20</v>
       </c>
       <c r="F30" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1">
         <v>40</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
         <v>13</v>
@@ -1771,15 +1771,15 @@
         <v>15</v>
       </c>
       <c r="N30" s="1">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1815,15 +1815,15 @@
         <v>15</v>
       </c>
       <c r="N31" s="1">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s">
         <v>13</v>
@@ -1859,15 +1859,15 @@
         <v>16</v>
       </c>
       <c r="N32" s="1">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -1903,7 +1903,7 @@
         <v>16</v>
       </c>
       <c r="N33" s="1">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1920,22 +1920,22 @@
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1">
         <v>120</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K34" t="s">
         <v>13</v>
@@ -1947,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="N34" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>17</v>
       </c>
       <c r="N35" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2014,16 +2014,16 @@
         <v>120</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K36" t="s">
         <v>13</v>
@@ -2035,7 +2035,7 @@
         <v>18</v>
       </c>
       <c r="N36" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2043,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -2079,15 +2079,15 @@
         <v>18</v>
       </c>
       <c r="N37" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2096,22 +2096,22 @@
         <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G38" s="1">
         <v>80</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s">
         <v>13</v>
@@ -2123,15 +2123,15 @@
         <v>19</v>
       </c>
       <c r="N38" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -2167,15 +2167,15 @@
         <v>19</v>
       </c>
       <c r="N39" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -2187,19 +2187,19 @@
         <v>20</v>
       </c>
       <c r="F40" s="1">
+        <v>120</v>
+      </c>
+      <c r="G40" s="1">
         <v>40</v>
       </c>
-      <c r="G40" s="1">
-        <v>80</v>
-      </c>
       <c r="H40" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s">
         <v>13</v>
@@ -2211,15 +2211,15 @@
         <v>20</v>
       </c>
       <c r="N40" s="1">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -2255,16 +2255,16 @@
         <v>20</v>
       </c>
       <c r="N41" s="1">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
         <v>3</v>
       </c>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
@@ -2272,19 +2272,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H42" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="I42" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
         <v>40</v>
@@ -2299,15 +2299,15 @@
         <v>21</v>
       </c>
       <c r="N42" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
         <v>3</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -2343,15 +2343,15 @@
         <v>21</v>
       </c>
       <c r="N43" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2360,22 +2360,22 @@
         <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>120</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1">
         <v>40</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I44" s="1">
-        <v>500</v>
-      </c>
-      <c r="J44" s="1">
-        <v>15</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
@@ -2387,15 +2387,15 @@
         <v>22</v>
       </c>
       <c r="N44" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -2431,15 +2431,15 @@
         <v>22</v>
       </c>
       <c r="N45" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -2448,22 +2448,22 @@
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G46" s="1">
         <v>80</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I46" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
@@ -2475,15 +2475,15 @@
         <v>23</v>
       </c>
       <c r="N46" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -2519,15 +2519,15 @@
         <v>23</v>
       </c>
       <c r="N47" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -2536,22 +2536,22 @@
         <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G48" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H48" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J48" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
         <v>13</v>
@@ -2563,15 +2563,15 @@
         <v>24</v>
       </c>
       <c r="N48" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
@@ -2607,12 +2607,12 @@
         <v>24</v>
       </c>
       <c r="N49" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -2624,13 +2624,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
         <v>40</v>
-      </c>
-      <c r="G50" s="1">
-        <v>80</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -2651,12 +2651,12 @@
         <v>25</v>
       </c>
       <c r="N50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -2695,12 +2695,12 @@
         <v>25</v>
       </c>
       <c r="N51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -2712,22 +2712,22 @@
         <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G52" s="1">
         <v>80</v>
       </c>
       <c r="H52" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s">
         <v>13</v>
@@ -2739,12 +2739,12 @@
         <v>26</v>
       </c>
       <c r="N52" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
@@ -2783,12 +2783,12 @@
         <v>26</v>
       </c>
       <c r="N53" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -2800,22 +2800,22 @@
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G54" s="1">
         <v>80</v>
       </c>
       <c r="H54" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="I54" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J54" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s">
         <v>13</v>
@@ -2827,12 +2827,12 @@
         <v>27</v>
       </c>
       <c r="N54" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
@@ -2871,12 +2871,12 @@
         <v>27</v>
       </c>
       <c r="N55" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
@@ -2888,22 +2888,22 @@
         <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G56" s="1">
         <v>120</v>
       </c>
       <c r="H56" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K56" t="s">
         <v>13</v>
@@ -2915,12 +2915,12 @@
         <v>28</v>
       </c>
       <c r="N56" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -2959,12 +2959,12 @@
         <v>28</v>
       </c>
       <c r="N57" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
@@ -2976,22 +2976,22 @@
         <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F58" s="1">
         <v>40</v>
       </c>
       <c r="G58" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K58" t="s">
         <v>13</v>
@@ -3003,12 +3003,12 @@
         <v>29</v>
       </c>
       <c r="N58" s="1">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" s="1">
         <v>5</v>
@@ -3047,12 +3047,12 @@
         <v>29</v>
       </c>
       <c r="N59" s="1">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1">
         <v>6</v>
@@ -3067,19 +3067,19 @@
         <v>20</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I60" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J60" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
@@ -3091,12 +3091,12 @@
         <v>30</v>
       </c>
       <c r="N60" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1">
         <v>6</v>
@@ -3135,15 +3135,15 @@
         <v>30</v>
       </c>
       <c r="N61" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3155,19 +3155,19 @@
         <v>5</v>
       </c>
       <c r="F62" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G62" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s">
         <v>13</v>
@@ -3179,15 +3179,15 @@
         <v>31</v>
       </c>
       <c r="N62" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -3223,15 +3223,15 @@
         <v>31</v>
       </c>
       <c r="N63" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3240,22 +3240,22 @@
         <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F64" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H64" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K64" t="s">
         <v>13</v>
@@ -3267,15 +3267,15 @@
         <v>32</v>
       </c>
       <c r="N64" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -3311,15 +3311,15 @@
         <v>32</v>
       </c>
       <c r="N65" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3331,19 +3331,19 @@
         <v>5</v>
       </c>
       <c r="F66" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G66" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I66" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K66" t="s">
         <v>13</v>
@@ -3355,15 +3355,15 @@
         <v>33</v>
       </c>
       <c r="N66" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -3399,15 +3399,15 @@
         <v>33</v>
       </c>
       <c r="N67" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3416,22 +3416,22 @@
         <v>4</v>
       </c>
       <c r="E68" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F68" s="1">
         <v>80</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H68" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I68" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J68" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K68" t="s">
         <v>13</v>
@@ -3443,15 +3443,15 @@
         <v>34</v>
       </c>
       <c r="N68" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
@@ -3487,15 +3487,15 @@
         <v>34</v>
       </c>
       <c r="N69" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3504,22 +3504,22 @@
         <v>4</v>
       </c>
       <c r="E70" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H70" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I70" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J70" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K70" t="s">
         <v>13</v>
@@ -3531,15 +3531,15 @@
         <v>35</v>
       </c>
       <c r="N70" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -3575,15 +3575,15 @@
         <v>35</v>
       </c>
       <c r="N71" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -3592,22 +3592,22 @@
         <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F72" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H72" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K72" t="s">
         <v>13</v>
@@ -3619,15 +3619,15 @@
         <v>36</v>
       </c>
       <c r="N72" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
@@ -3663,15 +3663,15 @@
         <v>36</v>
       </c>
       <c r="N73" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -3680,22 +3680,22 @@
         <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F74" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G74" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I74" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K74" t="s">
         <v>13</v>
@@ -3707,15 +3707,15 @@
         <v>37</v>
       </c>
       <c r="N74" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B75" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -3751,15 +3751,15 @@
         <v>37</v>
       </c>
       <c r="N75" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -3768,22 +3768,22 @@
         <v>4</v>
       </c>
       <c r="E76" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G76" s="1">
         <v>120</v>
       </c>
       <c r="H76" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J76" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K76" t="s">
         <v>13</v>
@@ -3795,15 +3795,15 @@
         <v>38</v>
       </c>
       <c r="N76" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
@@ -3839,15 +3839,15 @@
         <v>38</v>
       </c>
       <c r="N77" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -3856,22 +3856,22 @@
         <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F78" s="1">
+        <v>120</v>
+      </c>
+      <c r="G78" s="1">
         <v>80</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="J78" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K78" t="s">
         <v>13</v>
@@ -3883,15 +3883,15 @@
         <v>39</v>
       </c>
       <c r="N78" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -3927,15 +3927,15 @@
         <v>39</v>
       </c>
       <c r="N79" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -3944,22 +3944,22 @@
         <v>4</v>
       </c>
       <c r="E80" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G80" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H80" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K80" t="s">
         <v>13</v>
@@ -3971,15 +3971,15 @@
         <v>40</v>
       </c>
       <c r="N80" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
@@ -4015,15 +4015,15 @@
         <v>40</v>
       </c>
       <c r="N81" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -4032,22 +4032,22 @@
         <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G82" s="1">
         <v>120</v>
       </c>
       <c r="H82" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K82" t="s">
         <v>13</v>
@@ -4059,15 +4059,15 @@
         <v>41</v>
       </c>
       <c r="N82" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
@@ -4103,15 +4103,15 @@
         <v>41</v>
       </c>
       <c r="N83" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F84" s="1">
         <v>80</v>
@@ -4129,13 +4129,13 @@
         <v>40</v>
       </c>
       <c r="H84" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="J84" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
@@ -4147,15 +4147,15 @@
         <v>42</v>
       </c>
       <c r="N84" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
@@ -4191,103 +4191,103 @@
         <v>42</v>
       </c>
       <c r="N85" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>40</v>
+      </c>
+      <c r="G86" s="1">
+        <v>40</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1">
+        <v>12</v>
+      </c>
+      <c r="J86" s="1">
+        <v>30</v>
+      </c>
+      <c r="K86" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1">
         <v>3</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="1">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1">
-        <v>120</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
-        <v>500</v>
-      </c>
-      <c r="J86" s="1">
-        <v>15</v>
-      </c>
-      <c r="K86" t="s">
-        <v>13</v>
-      </c>
-      <c r="L86" s="1">
-        <v>85</v>
-      </c>
-      <c r="M86" s="1">
-        <v>43</v>
-      </c>
-      <c r="N86" s="1">
-        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="1">
+        <v>2</v>
+      </c>
+      <c r="M87" s="1">
+        <v>1</v>
+      </c>
+      <c r="N87" s="1">
         <v>3</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0</v>
-      </c>
-      <c r="K87" t="s">
-        <v>13</v>
-      </c>
-      <c r="L87" s="1">
-        <v>86</v>
-      </c>
-      <c r="M87" s="1">
-        <v>43</v>
-      </c>
-      <c r="N87" s="1">
-        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4296,42 +4296,42 @@
         <v>4</v>
       </c>
       <c r="E88" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G88" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H88" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J88" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L88" s="1">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="M88" s="1">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N88" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -4358,24 +4358,24 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L89" s="1">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="M89" s="1">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N89" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F90" s="1">
         <v>40</v>
@@ -4393,33 +4393,33 @@
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I90" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J90" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L90" s="1">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="M90" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="N90" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
@@ -4446,24 +4446,24 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L91" s="1">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="M91" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="N91" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -4472,42 +4472,42 @@
         <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F92" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H92" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J92" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L92" s="1">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="M92" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N92" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
@@ -4534,24 +4534,24 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L93" s="1">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="M93" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N93" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -4560,42 +4560,42 @@
         <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F94" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
       </c>
       <c r="I94" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J94" s="1">
         <v>15</v>
       </c>
       <c r="K94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L94" s="1">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="M94" s="1">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="N94" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -4622,24 +4622,24 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L95" s="1">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="M95" s="1">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="N95" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -4648,42 +4648,42 @@
         <v>4</v>
       </c>
       <c r="E96" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F96" s="1">
         <v>80</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H96" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I96" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L96" s="1">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="M96" s="1">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="N96" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
@@ -4710,21 +4710,21 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L97" s="1">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="M97" s="1">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="N97" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -4736,39 +4736,39 @@
         <v>4</v>
       </c>
       <c r="E98" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G98" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H98" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I98" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J98" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K98" t="s">
         <v>14</v>
       </c>
       <c r="L98" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M98" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N98" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -4801,18 +4801,18 @@
         <v>14</v>
       </c>
       <c r="L99" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M99" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N99" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
@@ -4824,39 +4824,39 @@
         <v>4</v>
       </c>
       <c r="E100" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G100" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H100" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I100" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="J100" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K100" t="s">
         <v>14</v>
       </c>
       <c r="L100" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M100" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N100" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
@@ -4889,18 +4889,18 @@
         <v>14</v>
       </c>
       <c r="L101" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M101" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N101" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4912,39 +4912,39 @@
         <v>4</v>
       </c>
       <c r="E102" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F102" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G102" s="1">
         <v>40</v>
       </c>
       <c r="H102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="J102" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K102" t="s">
         <v>14</v>
       </c>
       <c r="L102" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M102" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N102" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4977,18 +4977,18 @@
         <v>14</v>
       </c>
       <c r="L103" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M103" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N103" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
         <v>4</v>
@@ -5000,39 +5000,39 @@
         <v>4</v>
       </c>
       <c r="E104" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F104" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
       </c>
       <c r="J104" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K104" t="s">
         <v>14</v>
       </c>
       <c r="L104" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M104" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N104" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
         <v>4</v>
@@ -5065,18 +5065,18 @@
         <v>14</v>
       </c>
       <c r="L105" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M105" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N105" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1">
         <v>5</v>
@@ -5091,36 +5091,36 @@
         <v>20</v>
       </c>
       <c r="F106" s="1">
+        <v>80</v>
+      </c>
+      <c r="G106" s="1">
         <v>120</v>
       </c>
-      <c r="G106" s="1">
-        <v>0</v>
-      </c>
       <c r="H106" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="I106" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J106" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K106" t="s">
         <v>14</v>
       </c>
       <c r="L106" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M106" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N106" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
         <v>5</v>
@@ -5153,18 +5153,18 @@
         <v>14</v>
       </c>
       <c r="L107" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M107" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N107" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" s="1">
         <v>6</v>
@@ -5176,39 +5176,39 @@
         <v>4</v>
       </c>
       <c r="E108" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G108" s="1">
         <v>40</v>
       </c>
       <c r="H108" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J108" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K108" t="s">
         <v>14</v>
       </c>
       <c r="L108" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M108" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N108" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1">
         <v>6</v>
@@ -5241,21 +5241,21 @@
         <v>14</v>
       </c>
       <c r="L109" s="1">
+        <v>24</v>
+      </c>
+      <c r="M109" s="1">
         <v>12</v>
       </c>
-      <c r="M109" s="1">
-        <v>6</v>
-      </c>
       <c r="N109" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B110" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -5264,16 +5264,16 @@
         <v>4</v>
       </c>
       <c r="E110" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F110" s="1">
         <v>40</v>
       </c>
       <c r="G110" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H110" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -5285,21 +5285,21 @@
         <v>14</v>
       </c>
       <c r="L110" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M110" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N110" s="1">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B111" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
@@ -5329,21 +5329,21 @@
         <v>14</v>
       </c>
       <c r="L111" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M111" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N111" s="1">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B112" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -5352,19 +5352,19 @@
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F112" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G112" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H112" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J112" s="1">
         <v>60</v>
@@ -5373,21 +5373,21 @@
         <v>14</v>
       </c>
       <c r="L112" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M112" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N112" s="1">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C113" s="1">
         <v>2</v>
@@ -5417,21 +5417,21 @@
         <v>14</v>
       </c>
       <c r="L113" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M113" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N113" s="1">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -5443,39 +5443,39 @@
         <v>20</v>
       </c>
       <c r="F114" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G114" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H114" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="I114" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J114" s="1">
+        <v>30</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="1">
+        <v>29</v>
+      </c>
+      <c r="M114" s="1">
         <v>15</v>
       </c>
-      <c r="K114" t="s">
-        <v>14</v>
-      </c>
-      <c r="L114" s="1">
-        <v>17</v>
-      </c>
-      <c r="M114" s="1">
-        <v>9</v>
-      </c>
       <c r="N114" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B115" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1">
         <v>2</v>
@@ -5505,21 +5505,21 @@
         <v>14</v>
       </c>
       <c r="L115" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M115" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N115" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -5528,19 +5528,19 @@
         <v>4</v>
       </c>
       <c r="E116" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F116" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H116" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I116" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="J116" s="1">
         <v>30</v>
@@ -5549,21 +5549,21 @@
         <v>14</v>
       </c>
       <c r="L116" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M116" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N116" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" s="1">
         <v>2</v>
@@ -5593,21 +5593,21 @@
         <v>14</v>
       </c>
       <c r="L117" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M117" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N117" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B118" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -5616,42 +5616,42 @@
         <v>4</v>
       </c>
       <c r="E118" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F118" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G118" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H118" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I118" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J118" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K118" t="s">
         <v>14</v>
       </c>
       <c r="L118" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M118" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N118" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1">
         <v>2</v>
@@ -5681,21 +5681,21 @@
         <v>14</v>
       </c>
       <c r="L119" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M119" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N119" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -5704,42 +5704,42 @@
         <v>4</v>
       </c>
       <c r="E120" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F120" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G120" s="1">
         <v>40</v>
       </c>
       <c r="H120" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I120" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J120" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K120" t="s">
         <v>14</v>
       </c>
       <c r="L120" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M120" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N120" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C121" s="1">
         <v>2</v>
@@ -5769,21 +5769,21 @@
         <v>14</v>
       </c>
       <c r="L121" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M121" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N121" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -5792,42 +5792,42 @@
         <v>4</v>
       </c>
       <c r="E122" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F122" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G122" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H122" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="I122" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J122" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K122" t="s">
         <v>14</v>
       </c>
       <c r="L122" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M122" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N122" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B123" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
         <v>2</v>
@@ -5857,21 +5857,21 @@
         <v>14</v>
       </c>
       <c r="L123" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M123" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N123" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B124" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -5880,42 +5880,42 @@
         <v>4</v>
       </c>
       <c r="E124" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G124" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H124" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I124" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J124" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K124" t="s">
         <v>14</v>
       </c>
       <c r="L124" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M124" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N124" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B125" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C125" s="1">
         <v>2</v>
@@ -5945,21 +5945,21 @@
         <v>14</v>
       </c>
       <c r="L125" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M125" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N125" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B126" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -5968,42 +5968,42 @@
         <v>4</v>
       </c>
       <c r="E126" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F126" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G126" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H126" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I126" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K126" t="s">
         <v>14</v>
       </c>
       <c r="L126" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M126" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N126" s="1">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B127" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C127" s="1">
         <v>2</v>
@@ -6033,21 +6033,21 @@
         <v>14</v>
       </c>
       <c r="L127" s="1">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M127" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N127" s="1">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B128" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -6068,30 +6068,30 @@
         <v>0</v>
       </c>
       <c r="I128" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J128" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K128" t="s">
         <v>14</v>
       </c>
       <c r="L128" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M128" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N128" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B129" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C129" s="1">
         <v>2</v>
@@ -6121,21 +6121,21 @@
         <v>14</v>
       </c>
       <c r="L129" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M129" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N129" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B130" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -6144,16 +6144,16 @@
         <v>4</v>
       </c>
       <c r="E130" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F130" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G130" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H130" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
@@ -6165,21 +6165,21 @@
         <v>14</v>
       </c>
       <c r="L130" s="1">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M130" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N130" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B131" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C131" s="1">
         <v>2</v>
@@ -6209,21 +6209,21 @@
         <v>14</v>
       </c>
       <c r="L131" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M131" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N131" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B132" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -6235,39 +6235,39 @@
         <v>20</v>
       </c>
       <c r="F132" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G132" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H132" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I132" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="J132" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K132" t="s">
         <v>14</v>
       </c>
       <c r="L132" s="1">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M132" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N132" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B133" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C133" s="1">
         <v>2</v>
@@ -6297,21 +6297,21 @@
         <v>14</v>
       </c>
       <c r="L133" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M133" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N133" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B134" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -6320,13 +6320,13 @@
         <v>4</v>
       </c>
       <c r="E134" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H134" s="1">
         <v>0</v>
@@ -6335,27 +6335,27 @@
         <v>0</v>
       </c>
       <c r="J134" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K134" t="s">
         <v>14</v>
       </c>
       <c r="L134" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M134" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N134" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B135" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1">
         <v>2</v>
@@ -6385,21 +6385,21 @@
         <v>14</v>
       </c>
       <c r="L135" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M135" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N135" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B136" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F136" s="1">
         <v>40</v>
@@ -6417,10 +6417,10 @@
         <v>80</v>
       </c>
       <c r="H136" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I136" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J136" s="1">
         <v>30</v>
@@ -6429,21 +6429,21 @@
         <v>14</v>
       </c>
       <c r="L136" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M136" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N136" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B137" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
@@ -6473,22 +6473,22 @@
         <v>14</v>
       </c>
       <c r="L137" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M137" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N137" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1">
         <v>3</v>
       </c>
-      <c r="B138" s="1">
-        <v>5</v>
-      </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
@@ -6496,19 +6496,19 @@
         <v>4</v>
       </c>
       <c r="E138" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F138" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G138" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H138" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I138" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J138" s="1">
         <v>60</v>
@@ -6517,22 +6517,22 @@
         <v>14</v>
       </c>
       <c r="L138" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M138" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N138" s="1">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
+        <v>5</v>
+      </c>
+      <c r="B139" s="1">
         <v>3</v>
       </c>
-      <c r="B139" s="1">
-        <v>5</v>
-      </c>
       <c r="C139" s="1">
         <v>2</v>
       </c>
@@ -6561,21 +6561,21 @@
         <v>14</v>
       </c>
       <c r="L139" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M139" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N139" s="1">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B140" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -6590,36 +6590,36 @@
         <v>40</v>
       </c>
       <c r="G140" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H140" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I140" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J140" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K140" t="s">
         <v>14</v>
       </c>
       <c r="L140" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M140" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N140" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B141" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
@@ -6649,21 +6649,21 @@
         <v>14</v>
       </c>
       <c r="L141" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M141" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N141" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B142" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -6672,42 +6672,42 @@
         <v>4</v>
       </c>
       <c r="E142" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F142" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G142" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H142" s="1">
         <v>0</v>
       </c>
       <c r="I142" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J142" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K142" t="s">
         <v>14</v>
       </c>
       <c r="L142" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M142" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N142" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B143" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
@@ -6737,21 +6737,21 @@
         <v>14</v>
       </c>
       <c r="L143" s="1">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M143" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N143" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B144" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -6760,19 +6760,19 @@
         <v>4</v>
       </c>
       <c r="E144" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F144" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G144" s="1">
         <v>120</v>
       </c>
       <c r="H144" s="1">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="I144" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J144" s="1">
         <v>30</v>
@@ -6781,21 +6781,21 @@
         <v>14</v>
       </c>
       <c r="L144" s="1">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M144" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N144" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B145" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
@@ -6825,18 +6825,18 @@
         <v>14</v>
       </c>
       <c r="L145" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M145" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N145" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
@@ -6848,39 +6848,39 @@
         <v>4</v>
       </c>
       <c r="E146" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F146" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G146" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H146" s="1">
         <v>0</v>
       </c>
       <c r="I146" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K146" t="s">
         <v>14</v>
       </c>
       <c r="L146" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M146" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N146" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B147" s="1">
         <v>1</v>
@@ -6913,18 +6913,18 @@
         <v>14</v>
       </c>
       <c r="L147" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M147" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N147" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B148" s="1">
         <v>2</v>
@@ -6936,39 +6936,39 @@
         <v>4</v>
       </c>
       <c r="E148" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F148" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G148" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H148" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I148" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J148" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
       </c>
       <c r="L148" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M148" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N148" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B149" s="1">
         <v>2</v>
@@ -7001,18 +7001,18 @@
         <v>14</v>
       </c>
       <c r="L149" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M149" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N149" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
@@ -7024,19 +7024,19 @@
         <v>4</v>
       </c>
       <c r="E150" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F150" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G150" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H150" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="I150" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J150" s="1">
         <v>30</v>
@@ -7045,18 +7045,18 @@
         <v>14</v>
       </c>
       <c r="L150" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M150" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N150" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -7089,18 +7089,18 @@
         <v>14</v>
       </c>
       <c r="L151" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M151" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N151" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1">
         <v>4</v>
@@ -7112,39 +7112,39 @@
         <v>4</v>
       </c>
       <c r="E152" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F152" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G152" s="1">
         <v>120</v>
       </c>
       <c r="H152" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="I152" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J152" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K152" t="s">
         <v>14</v>
       </c>
       <c r="L152" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M152" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N152" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -7177,18 +7177,18 @@
         <v>14</v>
       </c>
       <c r="L153" s="1">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M153" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N153" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B154" s="1">
         <v>5</v>
@@ -7209,30 +7209,30 @@
         <v>80</v>
       </c>
       <c r="H154" s="1">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="I154" s="1">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J154" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K154" t="s">
         <v>14</v>
       </c>
       <c r="L154" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="M154" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N154" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B155" s="1">
         <v>5</v>
@@ -7265,18 +7265,18 @@
         <v>14</v>
       </c>
       <c r="L155" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M155" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N155" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B156" s="1">
         <v>6</v>
@@ -7288,19 +7288,19 @@
         <v>4</v>
       </c>
       <c r="E156" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F156" s="1">
         <v>0</v>
       </c>
       <c r="G156" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H156" s="1">
         <v>0</v>
       </c>
       <c r="I156" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J156" s="1">
         <v>15</v>
@@ -7309,18 +7309,18 @@
         <v>14</v>
       </c>
       <c r="L156" s="1">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="M156" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N156" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1">
         <v>6</v>
@@ -7353,21 +7353,21 @@
         <v>14</v>
       </c>
       <c r="L157" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M157" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N157" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -7376,42 +7376,42 @@
         <v>4</v>
       </c>
       <c r="E158" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F158" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G158" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" s="1">
         <v>0</v>
       </c>
       <c r="J158" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
       </c>
       <c r="L158" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M158" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N158" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1">
         <v>2</v>
@@ -7441,21 +7441,21 @@
         <v>14</v>
       </c>
       <c r="L159" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M159" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N159" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -7464,42 +7464,42 @@
         <v>4</v>
       </c>
       <c r="E160" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F160" s="1">
+        <v>80</v>
+      </c>
+      <c r="G160" s="1">
         <v>120</v>
       </c>
-      <c r="G160" s="1">
-        <v>0</v>
-      </c>
       <c r="H160" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I160" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J160" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K160" t="s">
         <v>14</v>
       </c>
       <c r="L160" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M160" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N160" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B161" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C161" s="1">
         <v>2</v>
@@ -7529,21 +7529,21 @@
         <v>14</v>
       </c>
       <c r="L161" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M161" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N161" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B162" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
@@ -7555,39 +7555,39 @@
         <v>5</v>
       </c>
       <c r="F162" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G162" s="1">
         <v>80</v>
       </c>
       <c r="H162" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I162" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J162" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
       </c>
       <c r="L162" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M162" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N162" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B163" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163" s="1">
         <v>2</v>
@@ -7617,21 +7617,21 @@
         <v>14</v>
       </c>
       <c r="L163" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M163" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N163" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B164" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
@@ -7640,42 +7640,42 @@
         <v>4</v>
       </c>
       <c r="E164" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F164" s="1">
+        <v>120</v>
+      </c>
+      <c r="G164" s="1">
         <v>80</v>
       </c>
-      <c r="G164" s="1">
-        <v>0</v>
-      </c>
       <c r="H164" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="I164" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="J164" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K164" t="s">
         <v>14</v>
       </c>
       <c r="L164" s="1">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M164" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N164" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B165" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C165" s="1">
         <v>2</v>
@@ -7705,21 +7705,21 @@
         <v>14</v>
       </c>
       <c r="L165" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M165" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N165" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B166" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
@@ -7728,42 +7728,42 @@
         <v>4</v>
       </c>
       <c r="E166" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F166" s="1">
+        <v>40</v>
+      </c>
+      <c r="G166" s="1">
         <v>120</v>
       </c>
-      <c r="G166" s="1">
-        <v>0</v>
-      </c>
       <c r="H166" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I166" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J166" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K166" t="s">
         <v>14</v>
       </c>
       <c r="L166" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="M166" s="1">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N166" s="1">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1">
         <v>2</v>
@@ -7793,21 +7793,21 @@
         <v>14</v>
       </c>
       <c r="L167" s="1">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M167" s="1">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N167" s="1">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B168" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
@@ -7816,42 +7816,42 @@
         <v>4</v>
       </c>
       <c r="E168" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F168" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G168" s="1">
         <v>40</v>
       </c>
       <c r="H168" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I168" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J168" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K168" t="s">
         <v>14</v>
       </c>
       <c r="L168" s="1">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M168" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N168" s="1">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B169" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7881,1072 +7881,22 @@
         <v>14</v>
       </c>
       <c r="L169" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M169" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N169" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
-      <c r="A170" s="1">
-        <v>5</v>
-      </c>
-      <c r="B170" s="1">
-        <v>5</v>
-      </c>
-      <c r="C170" s="1">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
-        <v>4</v>
-      </c>
-      <c r="E170" s="1">
-        <v>100</v>
-      </c>
-      <c r="F170" s="1">
         <v>40</v>
       </c>
-      <c r="G170" s="1">
-        <v>40</v>
-      </c>
-      <c r="H170" s="1">
-        <v>500</v>
-      </c>
-      <c r="I170" s="1">
-        <v>500</v>
-      </c>
-      <c r="J170" s="1">
-        <v>60</v>
-      </c>
-      <c r="K170" t="s">
-        <v>14</v>
-      </c>
-      <c r="L170" s="1">
-        <v>73</v>
-      </c>
-      <c r="M170" s="1">
-        <v>37</v>
-      </c>
-      <c r="N170" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171" s="1">
-        <v>5</v>
-      </c>
-      <c r="B171" s="1">
-        <v>5</v>
-      </c>
-      <c r="C171" s="1">
-        <v>2</v>
-      </c>
-      <c r="D171" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" s="1">
-        <v>0</v>
-      </c>
-      <c r="F171" s="1">
-        <v>0</v>
-      </c>
-      <c r="G171" s="1">
-        <v>0</v>
-      </c>
-      <c r="H171" s="1">
-        <v>0</v>
-      </c>
-      <c r="I171" s="1">
-        <v>0</v>
-      </c>
-      <c r="J171" s="1">
-        <v>0</v>
-      </c>
-      <c r="K171" t="s">
-        <v>14</v>
-      </c>
-      <c r="L171" s="1">
-        <v>74</v>
-      </c>
-      <c r="M171" s="1">
-        <v>37</v>
-      </c>
-      <c r="N171" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
-      <c r="A172" s="1">
-        <v>5</v>
-      </c>
-      <c r="B172" s="1">
-        <v>6</v>
-      </c>
-      <c r="C172" s="1">
-        <v>1</v>
-      </c>
-      <c r="D172" t="s">
-        <v>4</v>
-      </c>
-      <c r="E172" s="1">
-        <v>5</v>
-      </c>
-      <c r="F172" s="1">
-        <v>0</v>
-      </c>
-      <c r="G172" s="1">
-        <v>120</v>
-      </c>
-      <c r="H172" s="1">
-        <v>500</v>
-      </c>
-      <c r="I172" s="1">
-        <v>0</v>
-      </c>
-      <c r="J172" s="1">
-        <v>60</v>
-      </c>
-      <c r="K172" t="s">
-        <v>14</v>
-      </c>
-      <c r="L172" s="1">
-        <v>75</v>
-      </c>
-      <c r="M172" s="1">
-        <v>38</v>
-      </c>
-      <c r="N172" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
-      <c r="A173" s="1">
-        <v>5</v>
-      </c>
-      <c r="B173" s="1">
-        <v>6</v>
-      </c>
-      <c r="C173" s="1">
-        <v>2</v>
-      </c>
-      <c r="D173" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173" s="1">
-        <v>0</v>
-      </c>
-      <c r="F173" s="1">
-        <v>0</v>
-      </c>
-      <c r="G173" s="1">
-        <v>0</v>
-      </c>
-      <c r="H173" s="1">
-        <v>0</v>
-      </c>
-      <c r="I173" s="1">
-        <v>0</v>
-      </c>
-      <c r="J173" s="1">
-        <v>0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>14</v>
-      </c>
-      <c r="L173" s="1">
-        <v>76</v>
-      </c>
-      <c r="M173" s="1">
-        <v>38</v>
-      </c>
-      <c r="N173" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
-      <c r="A174" s="1">
-        <v>5</v>
-      </c>
-      <c r="B174" s="1">
-        <v>7</v>
-      </c>
-      <c r="C174" s="1">
-        <v>1</v>
-      </c>
-      <c r="D174" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="1">
-        <v>100</v>
-      </c>
-      <c r="F174" s="1">
-        <v>80</v>
-      </c>
-      <c r="G174" s="1">
-        <v>0</v>
-      </c>
-      <c r="H174" s="1">
-        <v>0</v>
-      </c>
-      <c r="I174" s="1">
-        <v>500</v>
-      </c>
-      <c r="J174" s="1">
-        <v>15</v>
-      </c>
-      <c r="K174" t="s">
-        <v>14</v>
-      </c>
-      <c r="L174" s="1">
-        <v>77</v>
-      </c>
-      <c r="M174" s="1">
-        <v>39</v>
-      </c>
-      <c r="N174" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
-      <c r="A175" s="1">
-        <v>5</v>
-      </c>
-      <c r="B175" s="1">
-        <v>7</v>
-      </c>
-      <c r="C175" s="1">
-        <v>2</v>
-      </c>
-      <c r="D175" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" s="1">
-        <v>0</v>
-      </c>
-      <c r="F175" s="1">
-        <v>0</v>
-      </c>
-      <c r="G175" s="1">
-        <v>0</v>
-      </c>
-      <c r="H175" s="1">
-        <v>0</v>
-      </c>
-      <c r="I175" s="1">
-        <v>0</v>
-      </c>
-      <c r="J175" s="1">
-        <v>0</v>
-      </c>
-      <c r="K175" t="s">
-        <v>14</v>
-      </c>
-      <c r="L175" s="1">
-        <v>78</v>
-      </c>
-      <c r="M175" s="1">
-        <v>39</v>
-      </c>
-      <c r="N175" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
-      <c r="A176" s="1">
-        <v>5</v>
-      </c>
-      <c r="B176" s="1">
-        <v>8</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1</v>
-      </c>
-      <c r="D176" t="s">
-        <v>4</v>
-      </c>
-      <c r="E176" s="1">
-        <v>50</v>
-      </c>
-      <c r="F176" s="1">
-        <v>0</v>
-      </c>
-      <c r="G176" s="1">
-        <v>40</v>
-      </c>
-      <c r="H176" s="1">
-        <v>500</v>
-      </c>
-      <c r="I176" s="1">
-        <v>0</v>
-      </c>
-      <c r="J176" s="1">
-        <v>60</v>
-      </c>
-      <c r="K176" t="s">
-        <v>14</v>
-      </c>
-      <c r="L176" s="1">
-        <v>79</v>
-      </c>
-      <c r="M176" s="1">
-        <v>40</v>
-      </c>
-      <c r="N176" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
-      <c r="A177" s="1">
-        <v>5</v>
-      </c>
-      <c r="B177" s="1">
-        <v>8</v>
-      </c>
-      <c r="C177" s="1">
-        <v>2</v>
-      </c>
-      <c r="D177" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177" s="1">
-        <v>0</v>
-      </c>
-      <c r="F177" s="1">
-        <v>0</v>
-      </c>
-      <c r="G177" s="1">
-        <v>0</v>
-      </c>
-      <c r="H177" s="1">
-        <v>0</v>
-      </c>
-      <c r="I177" s="1">
-        <v>0</v>
-      </c>
-      <c r="J177" s="1">
-        <v>0</v>
-      </c>
-      <c r="K177" t="s">
-        <v>14</v>
-      </c>
-      <c r="L177" s="1">
-        <v>80</v>
-      </c>
-      <c r="M177" s="1">
-        <v>40</v>
-      </c>
-      <c r="N177" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
-      <c r="A178" s="1">
-        <v>6</v>
-      </c>
-      <c r="B178" s="1">
-        <v>1</v>
-      </c>
-      <c r="C178" s="1">
-        <v>1</v>
-      </c>
-      <c r="D178" t="s">
-        <v>4</v>
-      </c>
-      <c r="E178" s="1">
-        <v>100</v>
-      </c>
-      <c r="F178" s="1">
-        <v>0</v>
-      </c>
-      <c r="G178" s="1">
-        <v>120</v>
-      </c>
-      <c r="H178" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I178" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J178" s="1">
-        <v>30</v>
-      </c>
-      <c r="K178" t="s">
-        <v>14</v>
-      </c>
-      <c r="L178" s="1">
-        <v>81</v>
-      </c>
-      <c r="M178" s="1">
-        <v>41</v>
-      </c>
-      <c r="N178" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
-      <c r="A179" s="1">
-        <v>6</v>
-      </c>
-      <c r="B179" s="1">
-        <v>1</v>
-      </c>
-      <c r="C179" s="1">
-        <v>2</v>
-      </c>
-      <c r="D179" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" s="1">
-        <v>0</v>
-      </c>
-      <c r="F179" s="1">
-        <v>0</v>
-      </c>
-      <c r="G179" s="1">
-        <v>0</v>
-      </c>
-      <c r="H179" s="1">
-        <v>0</v>
-      </c>
-      <c r="I179" s="1">
-        <v>0</v>
-      </c>
-      <c r="J179" s="1">
-        <v>0</v>
-      </c>
-      <c r="K179" t="s">
-        <v>14</v>
-      </c>
-      <c r="L179" s="1">
-        <v>82</v>
-      </c>
-      <c r="M179" s="1">
-        <v>41</v>
-      </c>
-      <c r="N179" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
-      <c r="A180" s="1">
-        <v>6</v>
-      </c>
-      <c r="B180" s="1">
-        <v>2</v>
-      </c>
-      <c r="C180" s="1">
-        <v>1</v>
-      </c>
-      <c r="D180" t="s">
-        <v>4</v>
-      </c>
-      <c r="E180" s="1">
-        <v>100</v>
-      </c>
-      <c r="F180" s="1">
-        <v>80</v>
-      </c>
-      <c r="G180" s="1">
-        <v>40</v>
-      </c>
-      <c r="H180" s="1">
-        <v>500</v>
-      </c>
-      <c r="I180" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J180" s="1">
-        <v>15</v>
-      </c>
-      <c r="K180" t="s">
-        <v>14</v>
-      </c>
-      <c r="L180" s="1">
-        <v>83</v>
-      </c>
-      <c r="M180" s="1">
-        <v>42</v>
-      </c>
-      <c r="N180" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
-      <c r="A181" s="1">
-        <v>6</v>
-      </c>
-      <c r="B181" s="1">
-        <v>2</v>
-      </c>
-      <c r="C181" s="1">
-        <v>2</v>
-      </c>
-      <c r="D181" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="1">
-        <v>0</v>
-      </c>
-      <c r="F181" s="1">
-        <v>0</v>
-      </c>
-      <c r="G181" s="1">
-        <v>0</v>
-      </c>
-      <c r="H181" s="1">
-        <v>0</v>
-      </c>
-      <c r="I181" s="1">
-        <v>0</v>
-      </c>
-      <c r="J181" s="1">
-        <v>0</v>
-      </c>
-      <c r="K181" t="s">
-        <v>14</v>
-      </c>
-      <c r="L181" s="1">
-        <v>84</v>
-      </c>
-      <c r="M181" s="1">
-        <v>42</v>
-      </c>
-      <c r="N181" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
-      <c r="A182" s="1">
-        <v>6</v>
-      </c>
-      <c r="B182" s="1">
-        <v>3</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1</v>
-      </c>
-      <c r="D182" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182" s="1">
-        <v>5</v>
-      </c>
-      <c r="F182" s="1">
-        <v>120</v>
-      </c>
-      <c r="G182" s="1">
-        <v>0</v>
-      </c>
-      <c r="H182" s="1">
-        <v>0</v>
-      </c>
-      <c r="I182" s="1">
-        <v>500</v>
-      </c>
-      <c r="J182" s="1">
-        <v>30</v>
-      </c>
-      <c r="K182" t="s">
-        <v>14</v>
-      </c>
-      <c r="L182" s="1">
-        <v>85</v>
-      </c>
-      <c r="M182" s="1">
-        <v>43</v>
-      </c>
-      <c r="N182" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
-      <c r="A183" s="1">
-        <v>6</v>
-      </c>
-      <c r="B183" s="1">
-        <v>3</v>
-      </c>
-      <c r="C183" s="1">
-        <v>2</v>
-      </c>
-      <c r="D183" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" s="1">
-        <v>0</v>
-      </c>
-      <c r="F183" s="1">
-        <v>0</v>
-      </c>
-      <c r="G183" s="1">
-        <v>0</v>
-      </c>
-      <c r="H183" s="1">
-        <v>0</v>
-      </c>
-      <c r="I183" s="1">
-        <v>0</v>
-      </c>
-      <c r="J183" s="1">
-        <v>0</v>
-      </c>
-      <c r="K183" t="s">
-        <v>14</v>
-      </c>
-      <c r="L183" s="1">
-        <v>86</v>
-      </c>
-      <c r="M183" s="1">
-        <v>43</v>
-      </c>
-      <c r="N183" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
-      <c r="A184" s="1">
-        <v>6</v>
-      </c>
-      <c r="B184" s="1">
-        <v>4</v>
-      </c>
-      <c r="C184" s="1">
-        <v>1</v>
-      </c>
-      <c r="D184" t="s">
-        <v>4</v>
-      </c>
-      <c r="E184" s="1">
-        <v>5</v>
-      </c>
-      <c r="F184" s="1">
-        <v>0</v>
-      </c>
-      <c r="G184" s="1">
-        <v>40</v>
-      </c>
-      <c r="H184" s="1">
-        <v>500</v>
-      </c>
-      <c r="I184" s="1">
-        <v>0</v>
-      </c>
-      <c r="J184" s="1">
-        <v>15</v>
-      </c>
-      <c r="K184" t="s">
-        <v>14</v>
-      </c>
-      <c r="L184" s="1">
-        <v>87</v>
-      </c>
-      <c r="M184" s="1">
-        <v>44</v>
-      </c>
-      <c r="N184" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
-      <c r="A185" s="1">
-        <v>6</v>
-      </c>
-      <c r="B185" s="1">
-        <v>4</v>
-      </c>
-      <c r="C185" s="1">
-        <v>2</v>
-      </c>
-      <c r="D185" t="s">
-        <v>5</v>
-      </c>
-      <c r="E185" s="1">
-        <v>0</v>
-      </c>
-      <c r="F185" s="1">
-        <v>0</v>
-      </c>
-      <c r="G185" s="1">
-        <v>0</v>
-      </c>
-      <c r="H185" s="1">
-        <v>0</v>
-      </c>
-      <c r="I185" s="1">
-        <v>0</v>
-      </c>
-      <c r="J185" s="1">
-        <v>0</v>
-      </c>
-      <c r="K185" t="s">
-        <v>14</v>
-      </c>
-      <c r="L185" s="1">
-        <v>88</v>
-      </c>
-      <c r="M185" s="1">
-        <v>44</v>
-      </c>
-      <c r="N185" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
-      <c r="A186" s="1">
-        <v>6</v>
-      </c>
-      <c r="B186" s="1">
-        <v>5</v>
-      </c>
-      <c r="C186" s="1">
-        <v>1</v>
-      </c>
-      <c r="D186" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="1">
-        <v>5</v>
-      </c>
-      <c r="F186" s="1">
-        <v>40</v>
-      </c>
-      <c r="G186" s="1">
-        <v>0</v>
-      </c>
-      <c r="H186" s="1">
-        <v>0</v>
-      </c>
-      <c r="I186" s="1">
-        <v>500</v>
-      </c>
-      <c r="J186" s="1">
-        <v>60</v>
-      </c>
-      <c r="K186" t="s">
-        <v>14</v>
-      </c>
-      <c r="L186" s="1">
-        <v>89</v>
-      </c>
-      <c r="M186" s="1">
-        <v>45</v>
-      </c>
-      <c r="N186" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
-      <c r="A187" s="1">
-        <v>6</v>
-      </c>
-      <c r="B187" s="1">
-        <v>5</v>
-      </c>
-      <c r="C187" s="1">
-        <v>2</v>
-      </c>
-      <c r="D187" t="s">
-        <v>5</v>
-      </c>
-      <c r="E187" s="1">
-        <v>0</v>
-      </c>
-      <c r="F187" s="1">
-        <v>0</v>
-      </c>
-      <c r="G187" s="1">
-        <v>0</v>
-      </c>
-      <c r="H187" s="1">
-        <v>0</v>
-      </c>
-      <c r="I187" s="1">
-        <v>0</v>
-      </c>
-      <c r="J187" s="1">
-        <v>0</v>
-      </c>
-      <c r="K187" t="s">
-        <v>14</v>
-      </c>
-      <c r="L187" s="1">
-        <v>90</v>
-      </c>
-      <c r="M187" s="1">
-        <v>45</v>
-      </c>
-      <c r="N187" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
-      <c r="A188" s="1">
-        <v>6</v>
-      </c>
-      <c r="B188" s="1">
-        <v>6</v>
-      </c>
-      <c r="C188" s="1">
-        <v>1</v>
-      </c>
-      <c r="D188" t="s">
-        <v>4</v>
-      </c>
-      <c r="E188" s="1">
-        <v>5</v>
-      </c>
-      <c r="F188" s="1">
-        <v>80</v>
-      </c>
-      <c r="G188" s="1">
-        <v>0</v>
-      </c>
-      <c r="H188" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I188" s="1">
-        <v>0</v>
-      </c>
-      <c r="J188" s="1">
-        <v>15</v>
-      </c>
-      <c r="K188" t="s">
-        <v>14</v>
-      </c>
-      <c r="L188" s="1">
-        <v>91</v>
-      </c>
-      <c r="M188" s="1">
-        <v>46</v>
-      </c>
-      <c r="N188" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
-      <c r="A189" s="1">
-        <v>6</v>
-      </c>
-      <c r="B189" s="1">
-        <v>6</v>
-      </c>
-      <c r="C189" s="1">
-        <v>2</v>
-      </c>
-      <c r="D189" t="s">
-        <v>5</v>
-      </c>
-      <c r="E189" s="1">
-        <v>0</v>
-      </c>
-      <c r="F189" s="1">
-        <v>0</v>
-      </c>
-      <c r="G189" s="1">
-        <v>0</v>
-      </c>
-      <c r="H189" s="1">
-        <v>0</v>
-      </c>
-      <c r="I189" s="1">
-        <v>0</v>
-      </c>
-      <c r="J189" s="1">
-        <v>0</v>
-      </c>
-      <c r="K189" t="s">
-        <v>14</v>
-      </c>
-      <c r="L189" s="1">
-        <v>92</v>
-      </c>
-      <c r="M189" s="1">
-        <v>46</v>
-      </c>
-      <c r="N189" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
-      <c r="A190" s="1">
-        <v>6</v>
-      </c>
-      <c r="B190" s="1">
-        <v>7</v>
-      </c>
-      <c r="C190" s="1">
-        <v>1</v>
-      </c>
-      <c r="D190" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="1">
-        <v>100</v>
-      </c>
-      <c r="F190" s="1">
-        <v>40</v>
-      </c>
-      <c r="G190" s="1">
-        <v>40</v>
-      </c>
-      <c r="H190" s="1">
-        <v>0</v>
-      </c>
-      <c r="I190" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J190" s="1">
-        <v>30</v>
-      </c>
-      <c r="K190" t="s">
-        <v>14</v>
-      </c>
-      <c r="L190" s="1">
-        <v>93</v>
-      </c>
-      <c r="M190" s="1">
-        <v>47</v>
-      </c>
-      <c r="N190" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
-      <c r="A191" s="1">
-        <v>6</v>
-      </c>
-      <c r="B191" s="1">
-        <v>7</v>
-      </c>
-      <c r="C191" s="1">
-        <v>2</v>
-      </c>
-      <c r="D191" t="s">
-        <v>5</v>
-      </c>
-      <c r="E191" s="1">
-        <v>0</v>
-      </c>
-      <c r="F191" s="1">
-        <v>0</v>
-      </c>
-      <c r="G191" s="1">
-        <v>0</v>
-      </c>
-      <c r="H191" s="1">
-        <v>0</v>
-      </c>
-      <c r="I191" s="1">
-        <v>0</v>
-      </c>
-      <c r="J191" s="1">
-        <v>0</v>
-      </c>
-      <c r="K191" t="s">
-        <v>14</v>
-      </c>
-      <c r="L191" s="1">
-        <v>94</v>
-      </c>
-      <c r="M191" s="1">
-        <v>47</v>
-      </c>
-      <c r="N191" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
-      <c r="A192" s="1">
-        <v>6</v>
-      </c>
-      <c r="B192" s="1">
-        <v>8</v>
-      </c>
-      <c r="C192" s="1">
-        <v>1</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4</v>
-      </c>
-      <c r="E192" s="1">
-        <v>50</v>
-      </c>
-      <c r="F192" s="1">
-        <v>80</v>
-      </c>
-      <c r="G192" s="1">
-        <v>0</v>
-      </c>
-      <c r="H192" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I192" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J192" s="1">
-        <v>60</v>
-      </c>
-      <c r="K192" t="s">
-        <v>14</v>
-      </c>
-      <c r="L192" s="1">
-        <v>95</v>
-      </c>
-      <c r="M192" s="1">
-        <v>48</v>
-      </c>
-      <c r="N192" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
-      <c r="A193" s="1">
-        <v>6</v>
-      </c>
-      <c r="B193" s="1">
-        <v>8</v>
-      </c>
-      <c r="C193" s="1">
-        <v>2</v>
-      </c>
-      <c r="D193" t="s">
-        <v>5</v>
-      </c>
-      <c r="E193" s="1">
-        <v>0</v>
-      </c>
-      <c r="F193" s="1">
-        <v>0</v>
-      </c>
-      <c r="G193" s="1">
-        <v>0</v>
-      </c>
-      <c r="H193" s="1">
-        <v>0</v>
-      </c>
-      <c r="I193" s="1">
-        <v>0</v>
-      </c>
-      <c r="J193" s="1">
-        <v>0</v>
-      </c>
-      <c r="K193" t="s">
-        <v>14</v>
-      </c>
-      <c r="L193" s="1">
-        <v>96</v>
-      </c>
-      <c r="M193" s="1">
-        <v>48</v>
-      </c>
-      <c r="N193" s="1">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N170">
+    <sortCondition ref="K2:K170"/>
+    <sortCondition ref="A2:A170"/>
+    <sortCondition ref="B2:B170"/>
+    <sortCondition descending="1" ref="D2:D170"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment_design/store/design_matrix.xlsx
+++ b/experiment_design/store/design_matrix.xlsx
@@ -1,21 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bparthum\Box\farmland_conservation\analyze\farmland_git\experiment_design\store\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D2E3E4-3831-4DF0-BB28-E50AE7A6E54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -79,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -102,359 +95,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N169"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -542,7 +203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -586,7 +247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -630,7 +291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -674,7 +335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -718,7 +379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -762,7 +423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -806,7 +467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -850,7 +511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -894,7 +555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -938,7 +599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -982,7 +643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1026,7 +687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1070,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1114,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1158,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1202,7 +863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1246,7 +907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1290,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1334,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -1378,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1422,7 +1083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1466,7 +1127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1510,7 +1171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1554,7 +1215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -1598,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1642,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1686,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1730,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -1774,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -1818,7 +1479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1862,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1906,7 +1567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1950,7 +1611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -1994,7 +1655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -2038,7 +1699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -2082,7 +1743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -2126,7 +1787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -2170,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -2214,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -2258,7 +1919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -2302,7 +1963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -2346,7 +2007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -2390,7 +2051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -2434,7 +2095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -2478,7 +2139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -2522,7 +2183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -2566,7 +2227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -2610,7 +2271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -2654,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -2698,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52">
       <c r="A52" s="1">
         <v>5</v>
       </c>
@@ -2742,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -2786,7 +2447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54">
       <c r="A54" s="1">
         <v>5</v>
       </c>
@@ -2830,7 +2491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55">
       <c r="A55" s="1">
         <v>5</v>
       </c>
@@ -2874,7 +2535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -2918,7 +2579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57">
       <c r="A57" s="1">
         <v>5</v>
       </c>
@@ -2962,7 +2623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58">
       <c r="A58" s="1">
         <v>5</v>
       </c>
@@ -3006,7 +2667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59">
       <c r="A59" s="1">
         <v>5</v>
       </c>
@@ -3050,7 +2711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60">
       <c r="A60" s="1">
         <v>5</v>
       </c>
@@ -3094,7 +2755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61">
       <c r="A61" s="1">
         <v>5</v>
       </c>
@@ -3138,7 +2799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62">
       <c r="A62" s="1">
         <v>6</v>
       </c>
@@ -3182,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63">
       <c r="A63" s="1">
         <v>6</v>
       </c>
@@ -3226,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64">
       <c r="A64" s="1">
         <v>6</v>
       </c>
@@ -3270,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65">
       <c r="A65" s="1">
         <v>6</v>
       </c>
@@ -3314,7 +2975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66">
       <c r="A66" s="1">
         <v>6</v>
       </c>
@@ -3358,7 +3019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67">
       <c r="A67" s="1">
         <v>6</v>
       </c>
@@ -3402,7 +3063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68">
       <c r="A68" s="1">
         <v>6</v>
       </c>
@@ -3446,7 +3107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69">
       <c r="A69" s="1">
         <v>6</v>
       </c>
@@ -3490,7 +3151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -3534,7 +3195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71">
       <c r="A71" s="1">
         <v>6</v>
       </c>
@@ -3578,7 +3239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72">
       <c r="A72" s="1">
         <v>6</v>
       </c>
@@ -3622,7 +3283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73">
       <c r="A73" s="1">
         <v>6</v>
       </c>
@@ -3666,7 +3327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -3710,7 +3371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75">
       <c r="A75" s="1">
         <v>7</v>
       </c>
@@ -3754,7 +3415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76">
       <c r="A76" s="1">
         <v>7</v>
       </c>
@@ -3798,7 +3459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77">
       <c r="A77" s="1">
         <v>7</v>
       </c>
@@ -3842,7 +3503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78">
       <c r="A78" s="1">
         <v>7</v>
       </c>
@@ -3886,7 +3547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79">
       <c r="A79" s="1">
         <v>7</v>
       </c>
@@ -3930,7 +3591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -3974,7 +3635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81">
       <c r="A81" s="1">
         <v>7</v>
       </c>
@@ -4018,7 +3679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -4062,7 +3723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83">
       <c r="A83" s="1">
         <v>7</v>
       </c>
@@ -4106,7 +3767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84">
       <c r="A84" s="1">
         <v>7</v>
       </c>
@@ -4150,7 +3811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85">
       <c r="A85" s="1">
         <v>7</v>
       </c>
@@ -4194,229 +3855,229 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86">
       <c r="A86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J86" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>14</v>
       </c>
       <c r="L86" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M86" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N86" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="1">
+        <v>16</v>
+      </c>
+      <c r="M87" s="1">
+        <v>8</v>
+      </c>
+      <c r="N87" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="1">
+        <v>76</v>
+      </c>
+      <c r="M88" s="1">
+        <v>38</v>
+      </c>
+      <c r="N88" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="1">
+        <v>38</v>
+      </c>
+      <c r="M89" s="1">
+        <v>19</v>
+      </c>
+      <c r="N89" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="1">
+        <v>44</v>
+      </c>
+      <c r="M90" s="1">
+        <v>22</v>
+      </c>
+      <c r="N90" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="1">
-        <v>1</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0</v>
-      </c>
-      <c r="K87" t="s">
-        <v>14</v>
-      </c>
-      <c r="L87" s="1">
-        <v>2</v>
-      </c>
-      <c r="M87" s="1">
-        <v>1</v>
-      </c>
-      <c r="N87" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="1">
-        <v>1</v>
-      </c>
-      <c r="B88" s="1">
-        <v>2</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="1">
-        <v>60</v>
-      </c>
-      <c r="F88" s="1">
-        <v>120</v>
-      </c>
-      <c r="G88" s="1">
-        <v>120</v>
-      </c>
-      <c r="H88" s="1">
-        <v>6</v>
-      </c>
-      <c r="I88" s="1">
-        <v>6</v>
-      </c>
-      <c r="J88" s="1">
-        <v>15</v>
-      </c>
-      <c r="K88" t="s">
-        <v>14</v>
-      </c>
-      <c r="L88" s="1">
-        <v>3</v>
-      </c>
-      <c r="M88" s="1">
-        <v>2</v>
-      </c>
-      <c r="N88" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="1">
-        <v>1</v>
-      </c>
-      <c r="B89" s="1">
-        <v>2</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0</v>
-      </c>
-      <c r="K89" t="s">
-        <v>14</v>
-      </c>
-      <c r="L89" s="1">
-        <v>4</v>
-      </c>
-      <c r="M89" s="1">
-        <v>2</v>
-      </c>
-      <c r="N89" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="1">
-        <v>1</v>
-      </c>
-      <c r="B90" s="1">
-        <v>3</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="1">
-        <v>20</v>
-      </c>
-      <c r="F90" s="1">
-        <v>40</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>12</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1">
-        <v>60</v>
-      </c>
-      <c r="K90" t="s">
-        <v>14</v>
-      </c>
-      <c r="L90" s="1">
-        <v>5</v>
-      </c>
-      <c r="M90" s="1">
-        <v>3</v>
-      </c>
-      <c r="N90" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="1">
-        <v>1</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -4449,1605 +4110,1605 @@
         <v>14</v>
       </c>
       <c r="L91" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M91" s="1">
+        <v>15</v>
+      </c>
+      <c r="N91" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="1">
+        <v>70</v>
+      </c>
+      <c r="M92" s="1">
+        <v>35</v>
+      </c>
+      <c r="N92" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="1">
+        <v>82</v>
+      </c>
+      <c r="M93" s="1">
+        <v>41</v>
+      </c>
+      <c r="N93" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
         <v>3</v>
       </c>
-      <c r="N91" s="1">
+      <c r="B94" s="1">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" s="1">
+        <v>32</v>
+      </c>
+      <c r="M94" s="1">
+        <v>16</v>
+      </c>
+      <c r="N94" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="1">
+        <v>24</v>
+      </c>
+      <c r="M95" s="1">
+        <v>12</v>
+      </c>
+      <c r="N95" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="1">
+        <v>54</v>
+      </c>
+      <c r="M96" s="1">
+        <v>27</v>
+      </c>
+      <c r="N96" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="1">
+        <v>84</v>
+      </c>
+      <c r="M97" s="1">
+        <v>42</v>
+      </c>
+      <c r="N97" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" s="1">
+        <v>46</v>
+      </c>
+      <c r="M98" s="1">
+        <v>23</v>
+      </c>
+      <c r="N98" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="1">
+        <v>50</v>
+      </c>
+      <c r="M99" s="1">
+        <v>25</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="1">
+        <v>48</v>
+      </c>
+      <c r="M100" s="1">
+        <v>24</v>
+      </c>
+      <c r="N100" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" s="1">
+        <v>58</v>
+      </c>
+      <c r="M101" s="1">
+        <v>29</v>
+      </c>
+      <c r="N101" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="1">
+        <v>26</v>
+      </c>
+      <c r="M102" s="1">
+        <v>13</v>
+      </c>
+      <c r="N102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" s="1">
+        <v>28</v>
+      </c>
+      <c r="M103" s="1">
+        <v>14</v>
+      </c>
+      <c r="N103" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="1">
+        <v>6</v>
+      </c>
+      <c r="M105" s="1">
+        <v>3</v>
+      </c>
+      <c r="N105" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="1">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1">
-        <v>4</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="1">
+    <row r="106">
+      <c r="A106" s="1">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="1">
+        <v>34</v>
+      </c>
+      <c r="M106" s="1">
+        <v>17</v>
+      </c>
+      <c r="N106" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" s="1">
+        <v>10</v>
+      </c>
+      <c r="M107" s="1">
+        <v>5</v>
+      </c>
+      <c r="N107" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="1">
+        <v>4</v>
+      </c>
+      <c r="M108" s="1">
+        <v>2</v>
+      </c>
+      <c r="N108" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>6</v>
+      </c>
+      <c r="B109" s="1">
+        <v>6</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" s="1">
+        <v>72</v>
+      </c>
+      <c r="M109" s="1">
+        <v>36</v>
+      </c>
+      <c r="N109" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="1">
+        <v>22</v>
+      </c>
+      <c r="M110" s="1">
+        <v>11</v>
+      </c>
+      <c r="N110" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>7</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" s="1">
+        <v>78</v>
+      </c>
+      <c r="M111" s="1">
+        <v>39</v>
+      </c>
+      <c r="N111" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="1">
+        <v>74</v>
+      </c>
+      <c r="M112" s="1">
+        <v>37</v>
+      </c>
+      <c r="N112" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>5</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" s="1">
+        <v>52</v>
+      </c>
+      <c r="M113" s="1">
+        <v>26</v>
+      </c>
+      <c r="N113" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="1">
+        <v>40</v>
+      </c>
+      <c r="M114" s="1">
         <v>20</v>
       </c>
-      <c r="F92" s="1">
-        <v>120</v>
-      </c>
-      <c r="G92" s="1">
+      <c r="N114" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>7</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" s="1">
+        <v>80</v>
+      </c>
+      <c r="M115" s="1">
         <v>40</v>
       </c>
-      <c r="H92" s="1">
-        <v>2</v>
-      </c>
-      <c r="I92" s="1">
+      <c r="N115" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>6</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" s="1">
+        <v>68</v>
+      </c>
+      <c r="M116" s="1">
+        <v>34</v>
+      </c>
+      <c r="N116" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>6</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" s="1">
+        <v>66</v>
+      </c>
+      <c r="M117" s="1">
+        <v>33</v>
+      </c>
+      <c r="N117" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>6</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="1">
+        <v>64</v>
+      </c>
+      <c r="M118" s="1">
+        <v>32</v>
+      </c>
+      <c r="N118" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" s="1">
+        <v>18</v>
+      </c>
+      <c r="M119" s="1">
+        <v>9</v>
+      </c>
+      <c r="N119" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" s="1">
         <v>12</v>
       </c>
-      <c r="J92" s="1">
+      <c r="M120" s="1">
+        <v>6</v>
+      </c>
+      <c r="N120" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" s="1">
+        <v>8</v>
+      </c>
+      <c r="M121" s="1">
+        <v>4</v>
+      </c>
+      <c r="N121" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="1">
+        <v>42</v>
+      </c>
+      <c r="M122" s="1">
+        <v>21</v>
+      </c>
+      <c r="N122" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" s="1">
+        <v>14</v>
+      </c>
+      <c r="M123" s="1">
+        <v>7</v>
+      </c>
+      <c r="N123" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>6</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="1">
+        <v>62</v>
+      </c>
+      <c r="M124" s="1">
+        <v>31</v>
+      </c>
+      <c r="N124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" s="1">
+        <v>20</v>
+      </c>
+      <c r="M125" s="1">
+        <v>10</v>
+      </c>
+      <c r="N125" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>5</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" s="1">
         <v>60</v>
       </c>
-      <c r="K92" t="s">
-        <v>14</v>
-      </c>
-      <c r="L92" s="1">
-        <v>7</v>
-      </c>
-      <c r="M92" s="1">
-        <v>4</v>
-      </c>
-      <c r="N92" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="1">
-        <v>1</v>
-      </c>
-      <c r="B93" s="1">
-        <v>4</v>
-      </c>
-      <c r="C93" s="1">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0</v>
-      </c>
-      <c r="J93" s="1">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>14</v>
-      </c>
-      <c r="L93" s="1">
-        <v>8</v>
-      </c>
-      <c r="M93" s="1">
-        <v>4</v>
-      </c>
-      <c r="N93" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="1">
-        <v>1</v>
-      </c>
-      <c r="B94" s="1">
-        <v>5</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="1">
-        <v>20</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
-        <v>80</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0</v>
-      </c>
-      <c r="I94" s="1">
-        <v>6</v>
-      </c>
-      <c r="J94" s="1">
-        <v>15</v>
-      </c>
-      <c r="K94" t="s">
-        <v>14</v>
-      </c>
-      <c r="L94" s="1">
-        <v>9</v>
-      </c>
-      <c r="M94" s="1">
-        <v>5</v>
-      </c>
-      <c r="N94" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="1">
-        <v>1</v>
-      </c>
-      <c r="B95" s="1">
-        <v>5</v>
-      </c>
-      <c r="C95" s="1">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>14</v>
-      </c>
-      <c r="L95" s="1">
-        <v>10</v>
-      </c>
-      <c r="M95" s="1">
-        <v>5</v>
-      </c>
-      <c r="N95" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="1">
-        <v>1</v>
-      </c>
-      <c r="B96" s="1">
-        <v>6</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="1">
-        <v>60</v>
-      </c>
-      <c r="F96" s="1">
-        <v>80</v>
-      </c>
-      <c r="G96" s="1">
-        <v>80</v>
-      </c>
-      <c r="H96" s="1">
-        <v>12</v>
-      </c>
-      <c r="I96" s="1">
-        <v>0</v>
-      </c>
-      <c r="J96" s="1">
-        <v>15</v>
-      </c>
-      <c r="K96" t="s">
-        <v>14</v>
-      </c>
-      <c r="L96" s="1">
-        <v>11</v>
-      </c>
-      <c r="M96" s="1">
-        <v>6</v>
-      </c>
-      <c r="N96" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="1">
-        <v>1</v>
-      </c>
-      <c r="B97" s="1">
-        <v>6</v>
-      </c>
-      <c r="C97" s="1">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>0</v>
-      </c>
-      <c r="K97" t="s">
-        <v>14</v>
-      </c>
-      <c r="L97" s="1">
-        <v>12</v>
-      </c>
-      <c r="M97" s="1">
-        <v>6</v>
-      </c>
-      <c r="N97" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="1">
-        <v>2</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" s="1">
-        <v>20</v>
-      </c>
-      <c r="F98" s="1">
-        <v>120</v>
-      </c>
-      <c r="G98" s="1">
-        <v>80</v>
-      </c>
-      <c r="H98" s="1">
-        <v>12</v>
-      </c>
-      <c r="I98" s="1">
-        <v>12</v>
-      </c>
-      <c r="J98" s="1">
+      <c r="M126" s="1">
         <v>30</v>
       </c>
-      <c r="K98" t="s">
-        <v>14</v>
-      </c>
-      <c r="L98" s="1">
-        <v>13</v>
-      </c>
-      <c r="M98" s="1">
-        <v>7</v>
-      </c>
-      <c r="N98" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="1">
-        <v>2</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1">
-        <v>0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>14</v>
-      </c>
-      <c r="L99" s="1">
-        <v>14</v>
-      </c>
-      <c r="M99" s="1">
-        <v>7</v>
-      </c>
-      <c r="N99" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="1">
-        <v>2</v>
-      </c>
-      <c r="B100" s="1">
-        <v>2</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="1">
-        <v>5</v>
-      </c>
-      <c r="F100" s="1">
-        <v>120</v>
-      </c>
-      <c r="G100" s="1">
-        <v>80</v>
-      </c>
-      <c r="H100" s="1">
-        <v>6</v>
-      </c>
-      <c r="I100" s="1">
-        <v>6</v>
-      </c>
-      <c r="J100" s="1">
-        <v>60</v>
-      </c>
-      <c r="K100" t="s">
-        <v>14</v>
-      </c>
-      <c r="L100" s="1">
-        <v>15</v>
-      </c>
-      <c r="M100" s="1">
-        <v>8</v>
-      </c>
-      <c r="N100" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="1">
-        <v>2</v>
-      </c>
-      <c r="B101" s="1">
-        <v>2</v>
-      </c>
-      <c r="C101" s="1">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>14</v>
-      </c>
-      <c r="L101" s="1">
-        <v>16</v>
-      </c>
-      <c r="M101" s="1">
-        <v>8</v>
-      </c>
-      <c r="N101" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="1">
-        <v>2</v>
-      </c>
-      <c r="B102" s="1">
-        <v>3</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="1">
-        <v>60</v>
-      </c>
-      <c r="F102" s="1">
-        <v>40</v>
-      </c>
-      <c r="G102" s="1">
-        <v>40</v>
-      </c>
-      <c r="H102" s="1">
-        <v>2</v>
-      </c>
-      <c r="I102" s="1">
-        <v>6</v>
-      </c>
-      <c r="J102" s="1">
-        <v>15</v>
-      </c>
-      <c r="K102" t="s">
-        <v>14</v>
-      </c>
-      <c r="L102" s="1">
-        <v>17</v>
-      </c>
-      <c r="M102" s="1">
-        <v>9</v>
-      </c>
-      <c r="N102" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103" s="1">
-        <v>2</v>
-      </c>
-      <c r="B103" s="1">
-        <v>3</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1">
-        <v>0</v>
-      </c>
-      <c r="K103" t="s">
-        <v>14</v>
-      </c>
-      <c r="L103" s="1">
-        <v>18</v>
-      </c>
-      <c r="M103" s="1">
-        <v>9</v>
-      </c>
-      <c r="N103" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104" s="1">
-        <v>2</v>
-      </c>
-      <c r="B104" s="1">
-        <v>4</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="1">
-        <v>200</v>
-      </c>
-      <c r="F104" s="1">
-        <v>120</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1">
-        <v>60</v>
-      </c>
-      <c r="K104" t="s">
-        <v>14</v>
-      </c>
-      <c r="L104" s="1">
-        <v>19</v>
-      </c>
-      <c r="M104" s="1">
-        <v>10</v>
-      </c>
-      <c r="N104" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" s="1">
-        <v>2</v>
-      </c>
-      <c r="B105" s="1">
-        <v>4</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-      <c r="I105" s="1">
-        <v>0</v>
-      </c>
-      <c r="J105" s="1">
-        <v>0</v>
-      </c>
-      <c r="K105" t="s">
-        <v>14</v>
-      </c>
-      <c r="L105" s="1">
-        <v>20</v>
-      </c>
-      <c r="M105" s="1">
-        <v>10</v>
-      </c>
-      <c r="N105" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" s="1">
-        <v>2</v>
-      </c>
-      <c r="B106" s="1">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="1">
-        <v>20</v>
-      </c>
-      <c r="F106" s="1">
-        <v>80</v>
-      </c>
-      <c r="G106" s="1">
-        <v>120</v>
-      </c>
-      <c r="H106" s="1">
-        <v>6</v>
-      </c>
-      <c r="I106" s="1">
-        <v>12</v>
-      </c>
-      <c r="J106" s="1">
-        <v>30</v>
-      </c>
-      <c r="K106" t="s">
-        <v>14</v>
-      </c>
-      <c r="L106" s="1">
-        <v>21</v>
-      </c>
-      <c r="M106" s="1">
-        <v>11</v>
-      </c>
-      <c r="N106" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" s="1">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1">
-        <v>5</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107" s="1">
-        <v>0</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
-      </c>
-      <c r="I107" s="1">
-        <v>0</v>
-      </c>
-      <c r="J107" s="1">
-        <v>0</v>
-      </c>
-      <c r="K107" t="s">
-        <v>14</v>
-      </c>
-      <c r="L107" s="1">
-        <v>22</v>
-      </c>
-      <c r="M107" s="1">
-        <v>11</v>
-      </c>
-      <c r="N107" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="1">
-        <v>2</v>
-      </c>
-      <c r="B108" s="1">
-        <v>6</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="1">
-        <v>200</v>
-      </c>
-      <c r="F108" s="1">
-        <v>120</v>
-      </c>
-      <c r="G108" s="1">
-        <v>40</v>
-      </c>
-      <c r="H108" s="1">
-        <v>12</v>
-      </c>
-      <c r="I108" s="1">
-        <v>6</v>
-      </c>
-      <c r="J108" s="1">
-        <v>60</v>
-      </c>
-      <c r="K108" t="s">
-        <v>14</v>
-      </c>
-      <c r="L108" s="1">
-        <v>23</v>
-      </c>
-      <c r="M108" s="1">
-        <v>12</v>
-      </c>
-      <c r="N108" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="1">
-        <v>2</v>
-      </c>
-      <c r="B109" s="1">
-        <v>6</v>
-      </c>
-      <c r="C109" s="1">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
-      <c r="I109" s="1">
-        <v>0</v>
-      </c>
-      <c r="J109" s="1">
-        <v>0</v>
-      </c>
-      <c r="K109" t="s">
-        <v>14</v>
-      </c>
-      <c r="L109" s="1">
-        <v>24</v>
-      </c>
-      <c r="M109" s="1">
-        <v>12</v>
-      </c>
-      <c r="N109" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="1">
-        <v>3</v>
-      </c>
-      <c r="B110" s="1">
-        <v>1</v>
-      </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="1">
-        <v>20</v>
-      </c>
-      <c r="F110" s="1">
-        <v>40</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0</v>
-      </c>
-      <c r="J110" s="1">
-        <v>30</v>
-      </c>
-      <c r="K110" t="s">
-        <v>14</v>
-      </c>
-      <c r="L110" s="1">
-        <v>25</v>
-      </c>
-      <c r="M110" s="1">
-        <v>13</v>
-      </c>
-      <c r="N110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="1">
-        <v>3</v>
-      </c>
-      <c r="B111" s="1">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1">
-        <v>0</v>
-      </c>
-      <c r="J111" s="1">
-        <v>0</v>
-      </c>
-      <c r="K111" t="s">
-        <v>14</v>
-      </c>
-      <c r="L111" s="1">
-        <v>26</v>
-      </c>
-      <c r="M111" s="1">
-        <v>13</v>
-      </c>
-      <c r="N111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="1">
-        <v>3</v>
-      </c>
-      <c r="B112" s="1">
-        <v>2</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="1">
-        <v>200</v>
-      </c>
-      <c r="F112" s="1">
-        <v>40</v>
-      </c>
-      <c r="G112" s="1">
-        <v>40</v>
-      </c>
-      <c r="H112" s="1">
-        <v>6</v>
-      </c>
-      <c r="I112" s="1">
-        <v>12</v>
-      </c>
-      <c r="J112" s="1">
-        <v>60</v>
-      </c>
-      <c r="K112" t="s">
-        <v>14</v>
-      </c>
-      <c r="L112" s="1">
-        <v>27</v>
-      </c>
-      <c r="M112" s="1">
-        <v>14</v>
-      </c>
-      <c r="N112" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="1">
-        <v>3</v>
-      </c>
-      <c r="B113" s="1">
-        <v>2</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1">
-        <v>0</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-      <c r="I113" s="1">
-        <v>0</v>
-      </c>
-      <c r="J113" s="1">
-        <v>0</v>
-      </c>
-      <c r="K113" t="s">
-        <v>14</v>
-      </c>
-      <c r="L113" s="1">
+      <c r="N126" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>5</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="1">
+        <v>56</v>
+      </c>
+      <c r="M127" s="1">
         <v>28</v>
       </c>
-      <c r="M113" s="1">
-        <v>14</v>
-      </c>
-      <c r="N113" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="1">
-        <v>3</v>
-      </c>
-      <c r="B114" s="1">
-        <v>3</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="1">
-        <v>20</v>
-      </c>
-      <c r="F114" s="1">
-        <v>40</v>
-      </c>
-      <c r="G114" s="1">
-        <v>40</v>
-      </c>
-      <c r="H114" s="1">
-        <v>6</v>
-      </c>
-      <c r="I114" s="1">
-        <v>2</v>
-      </c>
-      <c r="J114" s="1">
-        <v>30</v>
-      </c>
-      <c r="K114" t="s">
-        <v>14</v>
-      </c>
-      <c r="L114" s="1">
+      <c r="N127" s="1">
         <v>29</v>
       </c>
-      <c r="M114" s="1">
-        <v>15</v>
-      </c>
-      <c r="N114" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="1">
-        <v>3</v>
-      </c>
-      <c r="B115" s="1">
-        <v>3</v>
-      </c>
-      <c r="C115" s="1">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="1">
-        <v>0</v>
-      </c>
-      <c r="F115" s="1">
-        <v>0</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0</v>
-      </c>
-      <c r="H115" s="1">
-        <v>0</v>
-      </c>
-      <c r="I115" s="1">
-        <v>0</v>
-      </c>
-      <c r="J115" s="1">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
-        <v>14</v>
-      </c>
-      <c r="L115" s="1">
-        <v>30</v>
-      </c>
-      <c r="M115" s="1">
-        <v>15</v>
-      </c>
-      <c r="N115" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" s="1">
-        <v>3</v>
-      </c>
-      <c r="B116" s="1">
-        <v>4</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="1">
-        <v>20</v>
-      </c>
-      <c r="F116" s="1">
-        <v>0</v>
-      </c>
-      <c r="G116" s="1">
-        <v>120</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0</v>
-      </c>
-      <c r="I116" s="1">
-        <v>6</v>
-      </c>
-      <c r="J116" s="1">
-        <v>30</v>
-      </c>
-      <c r="K116" t="s">
-        <v>14</v>
-      </c>
-      <c r="L116" s="1">
-        <v>31</v>
-      </c>
-      <c r="M116" s="1">
-        <v>16</v>
-      </c>
-      <c r="N116" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="1">
-        <v>3</v>
-      </c>
-      <c r="B117" s="1">
-        <v>4</v>
-      </c>
-      <c r="C117" s="1">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0</v>
-      </c>
-      <c r="H117" s="1">
-        <v>0</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1">
-        <v>0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>14</v>
-      </c>
-      <c r="L117" s="1">
-        <v>32</v>
-      </c>
-      <c r="M117" s="1">
-        <v>16</v>
-      </c>
-      <c r="N117" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="1">
-        <v>3</v>
-      </c>
-      <c r="B118" s="1">
-        <v>5</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4</v>
-      </c>
-      <c r="E118" s="1">
-        <v>60</v>
-      </c>
-      <c r="F118" s="1">
-        <v>120</v>
-      </c>
-      <c r="G118" s="1">
-        <v>40</v>
-      </c>
-      <c r="H118" s="1">
-        <v>12</v>
-      </c>
-      <c r="I118" s="1">
-        <v>12</v>
-      </c>
-      <c r="J118" s="1">
-        <v>15</v>
-      </c>
-      <c r="K118" t="s">
-        <v>14</v>
-      </c>
-      <c r="L118" s="1">
-        <v>33</v>
-      </c>
-      <c r="M118" s="1">
-        <v>17</v>
-      </c>
-      <c r="N118" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="1">
-        <v>3</v>
-      </c>
-      <c r="B119" s="1">
-        <v>5</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0</v>
-      </c>
-      <c r="F119" s="1">
-        <v>0</v>
-      </c>
-      <c r="G119" s="1">
-        <v>0</v>
-      </c>
-      <c r="H119" s="1">
-        <v>0</v>
-      </c>
-      <c r="I119" s="1">
-        <v>0</v>
-      </c>
-      <c r="J119" s="1">
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>14</v>
-      </c>
-      <c r="L119" s="1">
-        <v>34</v>
-      </c>
-      <c r="M119" s="1">
-        <v>17</v>
-      </c>
-      <c r="N119" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120" s="1">
-        <v>3</v>
-      </c>
-      <c r="B120" s="1">
-        <v>6</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" s="1">
-        <v>20</v>
-      </c>
-      <c r="F120" s="1">
-        <v>120</v>
-      </c>
-      <c r="G120" s="1">
-        <v>40</v>
-      </c>
-      <c r="H120" s="1">
-        <v>0</v>
-      </c>
-      <c r="I120" s="1">
-        <v>0</v>
-      </c>
-      <c r="J120" s="1">
-        <v>15</v>
-      </c>
-      <c r="K120" t="s">
-        <v>14</v>
-      </c>
-      <c r="L120" s="1">
-        <v>35</v>
-      </c>
-      <c r="M120" s="1">
-        <v>18</v>
-      </c>
-      <c r="N120" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121" s="1">
-        <v>3</v>
-      </c>
-      <c r="B121" s="1">
-        <v>6</v>
-      </c>
-      <c r="C121" s="1">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-      <c r="F121" s="1">
-        <v>0</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0</v>
-      </c>
-      <c r="J121" s="1">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>14</v>
-      </c>
-      <c r="L121" s="1">
-        <v>36</v>
-      </c>
-      <c r="M121" s="1">
-        <v>18</v>
-      </c>
-      <c r="N121" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122" s="1">
-        <v>4</v>
-      </c>
-      <c r="B122" s="1">
-        <v>1</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="1">
-        <v>20</v>
-      </c>
-      <c r="F122" s="1">
-        <v>80</v>
-      </c>
-      <c r="G122" s="1">
-        <v>80</v>
-      </c>
-      <c r="H122" s="1">
-        <v>2</v>
-      </c>
-      <c r="I122" s="1">
-        <v>2</v>
-      </c>
-      <c r="J122" s="1">
-        <v>30</v>
-      </c>
-      <c r="K122" t="s">
-        <v>14</v>
-      </c>
-      <c r="L122" s="1">
-        <v>37</v>
-      </c>
-      <c r="M122" s="1">
-        <v>19</v>
-      </c>
-      <c r="N122" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="1">
-        <v>4</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1">
-        <v>2</v>
-      </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-      <c r="F123" s="1">
-        <v>0</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0</v>
-      </c>
-      <c r="H123" s="1">
-        <v>0</v>
-      </c>
-      <c r="I123" s="1">
-        <v>0</v>
-      </c>
-      <c r="J123" s="1">
-        <v>0</v>
-      </c>
-      <c r="K123" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" s="1">
-        <v>38</v>
-      </c>
-      <c r="M123" s="1">
-        <v>19</v>
-      </c>
-      <c r="N123" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" s="1">
-        <v>4</v>
-      </c>
-      <c r="B124" s="1">
-        <v>2</v>
-      </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="1">
-        <v>20</v>
-      </c>
-      <c r="F124" s="1">
-        <v>120</v>
-      </c>
-      <c r="G124" s="1">
-        <v>40</v>
-      </c>
-      <c r="H124" s="1">
-        <v>2</v>
-      </c>
-      <c r="I124" s="1">
-        <v>0</v>
-      </c>
-      <c r="J124" s="1">
-        <v>30</v>
-      </c>
-      <c r="K124" t="s">
-        <v>14</v>
-      </c>
-      <c r="L124" s="1">
-        <v>39</v>
-      </c>
-      <c r="M124" s="1">
-        <v>20</v>
-      </c>
-      <c r="N124" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125" s="1">
-        <v>4</v>
-      </c>
-      <c r="B125" s="1">
-        <v>2</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2</v>
-      </c>
-      <c r="D125" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0</v>
-      </c>
-      <c r="J125" s="1">
-        <v>0</v>
-      </c>
-      <c r="K125" t="s">
-        <v>14</v>
-      </c>
-      <c r="L125" s="1">
-        <v>40</v>
-      </c>
-      <c r="M125" s="1">
-        <v>20</v>
-      </c>
-      <c r="N125" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" s="1">
-        <v>4</v>
-      </c>
-      <c r="B126" s="1">
-        <v>3</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="1">
-        <v>200</v>
-      </c>
-      <c r="F126" s="1">
-        <v>120</v>
-      </c>
-      <c r="G126" s="1">
-        <v>120</v>
-      </c>
-      <c r="H126" s="1">
-        <v>6</v>
-      </c>
-      <c r="I126" s="1">
-        <v>2</v>
-      </c>
-      <c r="J126" s="1">
-        <v>60</v>
-      </c>
-      <c r="K126" t="s">
-        <v>14</v>
-      </c>
-      <c r="L126" s="1">
-        <v>41</v>
-      </c>
-      <c r="M126" s="1">
-        <v>21</v>
-      </c>
-      <c r="N126" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" s="1">
-        <v>4</v>
-      </c>
-      <c r="B127" s="1">
-        <v>3</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1">
-        <v>0</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0</v>
-      </c>
-      <c r="H127" s="1">
-        <v>0</v>
-      </c>
-      <c r="I127" s="1">
-        <v>0</v>
-      </c>
-      <c r="J127" s="1">
-        <v>0</v>
-      </c>
-      <c r="K127" t="s">
-        <v>14</v>
-      </c>
-      <c r="L127" s="1">
-        <v>42</v>
-      </c>
-      <c r="M127" s="1">
-        <v>21</v>
-      </c>
-      <c r="N127" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+    </row>
+    <row r="128">
       <c r="A128" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B128" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -6059,83 +5720,83 @@
         <v>200</v>
       </c>
       <c r="F128" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G128" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H128" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I128" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J128" s="1">
+        <v>15</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" s="1">
+        <v>63</v>
+      </c>
+      <c r="M128" s="1">
+        <v>32</v>
+      </c>
+      <c r="N128" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="1">
         <v>60</v>
       </c>
-      <c r="K128" t="s">
-        <v>14</v>
-      </c>
-      <c r="L128" s="1">
-        <v>43</v>
-      </c>
-      <c r="M128" s="1">
-        <v>22</v>
-      </c>
-      <c r="N128" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="1">
-        <v>4</v>
-      </c>
-      <c r="B129" s="1">
-        <v>4</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
       <c r="F129" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G129" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H129" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K129" t="s">
         <v>14</v>
       </c>
       <c r="L129" s="1">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M129" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="N129" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -6144,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="1">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F130" s="1">
         <v>80</v>
@@ -6159,71 +5820,71 @@
         <v>0</v>
       </c>
       <c r="J130" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K130" t="s">
         <v>14</v>
       </c>
       <c r="L130" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M130" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N130" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B131" s="1">
         <v>5</v>
       </c>
       <c r="C131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E131" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F131" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G131" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H131" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I131" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K131" t="s">
         <v>14</v>
       </c>
       <c r="L131" s="1">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="M131" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N131" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B132" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -6238,49 +5899,49 @@
         <v>80</v>
       </c>
       <c r="G132" s="1">
+        <v>120</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>12</v>
+      </c>
+      <c r="J132" s="1">
+        <v>15</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="1">
+        <v>75</v>
+      </c>
+      <c r="M132" s="1">
+        <v>38</v>
+      </c>
+      <c r="N132" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>5</v>
+      </c>
+      <c r="B133" s="1">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1">
+        <v>60</v>
+      </c>
+      <c r="F133" s="1">
         <v>40</v>
       </c>
-      <c r="H132" s="1">
-        <v>0</v>
-      </c>
-      <c r="I132" s="1">
-        <v>6</v>
-      </c>
-      <c r="J132" s="1">
-        <v>30</v>
-      </c>
-      <c r="K132" t="s">
-        <v>14</v>
-      </c>
-      <c r="L132" s="1">
-        <v>47</v>
-      </c>
-      <c r="M132" s="1">
-        <v>24</v>
-      </c>
-      <c r="N132" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" s="1">
-        <v>4</v>
-      </c>
-      <c r="B133" s="1">
-        <v>6</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" s="1">
-        <v>0</v>
-      </c>
-      <c r="F133" s="1">
-        <v>0</v>
-      </c>
       <c r="G133" s="1">
         <v>0</v>
       </c>
@@ -6291,27 +5952,27 @@
         <v>0</v>
       </c>
       <c r="J133" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K133" t="s">
         <v>14</v>
       </c>
       <c r="L133" s="1">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M133" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N133" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B134" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -6323,7 +5984,7 @@
         <v>20</v>
       </c>
       <c r="F134" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G134" s="1">
         <v>40</v>
@@ -6335,68 +5996,68 @@
         <v>0</v>
       </c>
       <c r="J134" s="1">
+        <v>15</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" s="1">
+        <v>35</v>
+      </c>
+      <c r="M134" s="1">
+        <v>18</v>
+      </c>
+      <c r="N134" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>3</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="1">
         <v>60</v>
       </c>
-      <c r="K134" t="s">
-        <v>14</v>
-      </c>
-      <c r="L134" s="1">
-        <v>49</v>
-      </c>
-      <c r="M134" s="1">
-        <v>25</v>
-      </c>
-      <c r="N134" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135" s="1">
-        <v>5</v>
-      </c>
-      <c r="B135" s="1">
-        <v>1</v>
-      </c>
-      <c r="C135" s="1">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0</v>
-      </c>
       <c r="F135" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G135" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H135" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I135" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K135" t="s">
         <v>14</v>
       </c>
       <c r="L135" s="1">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M135" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N135" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B136" s="1">
         <v>2</v>
@@ -6408,86 +6069,86 @@
         <v>4</v>
       </c>
       <c r="E136" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F136" s="1">
+        <v>120</v>
+      </c>
+      <c r="G136" s="1">
+        <v>120</v>
+      </c>
+      <c r="H136" s="1">
+        <v>6</v>
+      </c>
+      <c r="I136" s="1">
+        <v>6</v>
+      </c>
+      <c r="J136" s="1">
+        <v>15</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" s="1">
+        <v>3</v>
+      </c>
+      <c r="M136" s="1">
+        <v>2</v>
+      </c>
+      <c r="N136" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>7</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="1">
+        <v>60</v>
+      </c>
+      <c r="F137" s="1">
+        <v>120</v>
+      </c>
+      <c r="G137" s="1">
+        <v>80</v>
+      </c>
+      <c r="H137" s="1">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1">
+        <v>2</v>
+      </c>
+      <c r="J137" s="1">
+        <v>15</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" s="1">
+        <v>79</v>
+      </c>
+      <c r="M137" s="1">
         <v>40</v>
       </c>
-      <c r="G136" s="1">
-        <v>80</v>
-      </c>
-      <c r="H136" s="1">
-        <v>0</v>
-      </c>
-      <c r="I136" s="1">
-        <v>0</v>
-      </c>
-      <c r="J136" s="1">
-        <v>30</v>
-      </c>
-      <c r="K136" t="s">
-        <v>14</v>
-      </c>
-      <c r="L136" s="1">
-        <v>51</v>
-      </c>
-      <c r="M136" s="1">
-        <v>26</v>
-      </c>
-      <c r="N136" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" s="1">
-        <v>5</v>
-      </c>
-      <c r="B137" s="1">
-        <v>2</v>
-      </c>
-      <c r="C137" s="1">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="1">
-        <v>0</v>
-      </c>
-      <c r="F137" s="1">
-        <v>0</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0</v>
-      </c>
-      <c r="H137" s="1">
-        <v>0</v>
-      </c>
-      <c r="I137" s="1">
-        <v>0</v>
-      </c>
-      <c r="J137" s="1">
-        <v>0</v>
-      </c>
-      <c r="K137" t="s">
-        <v>14</v>
-      </c>
-      <c r="L137" s="1">
-        <v>52</v>
-      </c>
-      <c r="M137" s="1">
-        <v>26</v>
-      </c>
       <c r="N137" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B138" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -6499,54 +6160,54 @@
         <v>200</v>
       </c>
       <c r="F138" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G138" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H138" s="1">
         <v>2</v>
       </c>
       <c r="I138" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" s="1">
+        <v>15</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="1">
+        <v>73</v>
+      </c>
+      <c r="M138" s="1">
+        <v>37</v>
+      </c>
+      <c r="N138" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1">
+        <v>6</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="1">
         <v>60</v>
       </c>
-      <c r="K138" t="s">
-        <v>14</v>
-      </c>
-      <c r="L138" s="1">
-        <v>53</v>
-      </c>
-      <c r="M138" s="1">
-        <v>27</v>
-      </c>
-      <c r="N138" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139" s="1">
-        <v>5</v>
-      </c>
-      <c r="B139" s="1">
-        <v>3</v>
-      </c>
-      <c r="C139" s="1">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="1">
-        <v>0</v>
-      </c>
       <c r="F139" s="1">
         <v>0</v>
       </c>
       <c r="G139" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H139" s="1">
         <v>0</v>
@@ -6555,27 +6216,27 @@
         <v>0</v>
       </c>
       <c r="J139" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K139" t="s">
         <v>14</v>
       </c>
       <c r="L139" s="1">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M139" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N139" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -6587,16 +6248,16 @@
         <v>20</v>
       </c>
       <c r="F140" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G140" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H140" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I140" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J140" s="1">
         <v>15</v>
@@ -6605,51 +6266,51 @@
         <v>14</v>
       </c>
       <c r="L140" s="1">
+        <v>9</v>
+      </c>
+      <c r="M140" s="1">
+        <v>5</v>
+      </c>
+      <c r="N140" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>5</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="1">
+        <v>20</v>
+      </c>
+      <c r="F141" s="1">
+        <v>40</v>
+      </c>
+      <c r="G141" s="1">
+        <v>120</v>
+      </c>
+      <c r="H141" s="1">
+        <v>12</v>
+      </c>
+      <c r="I141" s="1">
+        <v>2</v>
+      </c>
+      <c r="J141" s="1">
+        <v>15</v>
+      </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
+      <c r="L141" s="1">
         <v>55</v>
-      </c>
-      <c r="M140" s="1">
-        <v>28</v>
-      </c>
-      <c r="N140" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="A141" s="1">
-        <v>5</v>
-      </c>
-      <c r="B141" s="1">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-      <c r="F141" s="1">
-        <v>0</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0</v>
-      </c>
-      <c r="H141" s="1">
-        <v>0</v>
-      </c>
-      <c r="I141" s="1">
-        <v>0</v>
-      </c>
-      <c r="J141" s="1">
-        <v>0</v>
-      </c>
-      <c r="K141" t="s">
-        <v>14</v>
-      </c>
-      <c r="L141" s="1">
-        <v>56</v>
       </c>
       <c r="M141" s="1">
         <v>28</v>
@@ -6658,12 +6319,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142">
       <c r="A142" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B142" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -6672,86 +6333,86 @@
         <v>4</v>
       </c>
       <c r="E142" s="1">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F142" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G142" s="1">
         <v>0</v>
       </c>
       <c r="H142" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
       </c>
       <c r="J142" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K142" t="s">
         <v>14</v>
       </c>
       <c r="L142" s="1">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M142" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N142" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E143" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F143" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G143" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H143" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I143" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J143" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K143" t="s">
         <v>14</v>
       </c>
       <c r="L143" s="1">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M143" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="N143" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B144" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -6760,19 +6421,19 @@
         <v>4</v>
       </c>
       <c r="E144" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F144" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G144" s="1">
         <v>120</v>
       </c>
       <c r="H144" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I144" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J144" s="1">
         <v>30</v>
@@ -6781,65 +6442,65 @@
         <v>14</v>
       </c>
       <c r="L144" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M144" s="1">
+        <v>31</v>
+      </c>
+      <c r="N144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="1">
+        <v>20</v>
+      </c>
+      <c r="F145" s="1">
+        <v>80</v>
+      </c>
+      <c r="G145" s="1">
+        <v>80</v>
+      </c>
+      <c r="H145" s="1">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1">
+        <v>2</v>
+      </c>
+      <c r="J145" s="1">
         <v>30</v>
       </c>
-      <c r="N144" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" s="1">
-        <v>5</v>
-      </c>
-      <c r="B145" s="1">
-        <v>6</v>
-      </c>
-      <c r="C145" s="1">
-        <v>2</v>
-      </c>
-      <c r="D145" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="1">
-        <v>0</v>
-      </c>
-      <c r="F145" s="1">
-        <v>0</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0</v>
-      </c>
-      <c r="H145" s="1">
-        <v>0</v>
-      </c>
-      <c r="I145" s="1">
-        <v>0</v>
-      </c>
-      <c r="J145" s="1">
-        <v>0</v>
-      </c>
       <c r="K145" t="s">
         <v>14</v>
       </c>
       <c r="L145" s="1">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M145" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N145" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B146" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
@@ -6848,19 +6509,19 @@
         <v>4</v>
       </c>
       <c r="E146" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F146" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G146" s="1">
         <v>120</v>
       </c>
       <c r="H146" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I146" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J146" s="1">
         <v>30</v>
@@ -6869,65 +6530,65 @@
         <v>14</v>
       </c>
       <c r="L146" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M146" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N146" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B147" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E147" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F147" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G147" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H147" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I147" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J147" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K147" t="s">
         <v>14</v>
       </c>
       <c r="L147" s="1">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M147" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="N147" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B148" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -6936,86 +6597,86 @@
         <v>4</v>
       </c>
       <c r="E148" s="1">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F148" s="1">
+        <v>120</v>
+      </c>
+      <c r="G148" s="1">
         <v>80</v>
       </c>
-      <c r="G148" s="1">
+      <c r="H148" s="1">
+        <v>6</v>
+      </c>
+      <c r="I148" s="1">
+        <v>6</v>
+      </c>
+      <c r="J148" s="1">
+        <v>30</v>
+      </c>
+      <c r="K148" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" s="1">
+        <v>77</v>
+      </c>
+      <c r="M148" s="1">
+        <v>39</v>
+      </c>
+      <c r="N148" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1">
+        <v>20</v>
+      </c>
+      <c r="F149" s="1">
         <v>40</v>
       </c>
-      <c r="H148" s="1">
-        <v>6</v>
-      </c>
-      <c r="I148" s="1">
-        <v>2</v>
-      </c>
-      <c r="J148" s="1">
+      <c r="G149" s="1">
+        <v>40</v>
+      </c>
+      <c r="H149" s="1">
+        <v>6</v>
+      </c>
+      <c r="I149" s="1">
+        <v>2</v>
+      </c>
+      <c r="J149" s="1">
+        <v>30</v>
+      </c>
+      <c r="K149" t="s">
+        <v>14</v>
+      </c>
+      <c r="L149" s="1">
+        <v>29</v>
+      </c>
+      <c r="M149" s="1">
         <v>15</v>
       </c>
-      <c r="K148" t="s">
-        <v>14</v>
-      </c>
-      <c r="L148" s="1">
-        <v>63</v>
-      </c>
-      <c r="M148" s="1">
-        <v>32</v>
-      </c>
-      <c r="N148" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="A149" s="1">
-        <v>6</v>
-      </c>
-      <c r="B149" s="1">
-        <v>2</v>
-      </c>
-      <c r="C149" s="1">
-        <v>2</v>
-      </c>
-      <c r="D149" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
-      <c r="F149" s="1">
-        <v>0</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0</v>
-      </c>
-      <c r="H149" s="1">
-        <v>0</v>
-      </c>
-      <c r="I149" s="1">
-        <v>0</v>
-      </c>
-      <c r="J149" s="1">
-        <v>0</v>
-      </c>
-      <c r="K149" t="s">
-        <v>14</v>
-      </c>
-      <c r="L149" s="1">
-        <v>64</v>
-      </c>
-      <c r="M149" s="1">
-        <v>32</v>
-      </c>
       <c r="N149" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B150" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -7024,16 +6685,16 @@
         <v>4</v>
       </c>
       <c r="E150" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F150" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G150" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H150" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -7045,63 +6706,63 @@
         <v>14</v>
       </c>
       <c r="L150" s="1">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M150" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N150" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B151" s="1">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="1">
+        <v>20</v>
+      </c>
+      <c r="F151" s="1">
+        <v>80</v>
+      </c>
+      <c r="G151" s="1">
+        <v>40</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>6</v>
+      </c>
+      <c r="J151" s="1">
+        <v>30</v>
+      </c>
+      <c r="K151" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" s="1">
+        <v>47</v>
+      </c>
+      <c r="M151" s="1">
+        <v>24</v>
+      </c>
+      <c r="N151" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
         <v>3</v>
       </c>
-      <c r="C151" s="1">
-        <v>2</v>
-      </c>
-      <c r="D151" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="1">
-        <v>0</v>
-      </c>
-      <c r="F151" s="1">
-        <v>0</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0</v>
-      </c>
-      <c r="H151" s="1">
-        <v>0</v>
-      </c>
-      <c r="I151" s="1">
-        <v>0</v>
-      </c>
-      <c r="J151" s="1">
-        <v>0</v>
-      </c>
-      <c r="K151" t="s">
-        <v>14</v>
-      </c>
-      <c r="L151" s="1">
-        <v>66</v>
-      </c>
-      <c r="M151" s="1">
-        <v>33</v>
-      </c>
-      <c r="N151" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152" s="1">
-        <v>6</v>
-      </c>
       <c r="B152" s="1">
         <v>4</v>
       </c>
@@ -7112,86 +6773,86 @@
         <v>4</v>
       </c>
       <c r="E152" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F152" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G152" s="1">
         <v>120</v>
       </c>
       <c r="H152" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
         <v>6</v>
       </c>
       <c r="J152" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K152" t="s">
         <v>14</v>
       </c>
       <c r="L152" s="1">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M152" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N152" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B153" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E153" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F153" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G153" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H153" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J153" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K153" t="s">
         <v>14</v>
       </c>
       <c r="L153" s="1">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="M153" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N153" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B154" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -7200,7 +6861,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F154" s="1">
         <v>40</v>
@@ -7209,165 +6870,165 @@
         <v>80</v>
       </c>
       <c r="H154" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>30</v>
+      </c>
+      <c r="K154" t="s">
+        <v>14</v>
+      </c>
+      <c r="L154" s="1">
+        <v>51</v>
+      </c>
+      <c r="M154" s="1">
+        <v>26</v>
+      </c>
+      <c r="N154" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>3</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="1">
+        <v>20</v>
+      </c>
+      <c r="F155" s="1">
+        <v>40</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>30</v>
+      </c>
+      <c r="K155" t="s">
+        <v>14</v>
+      </c>
+      <c r="L155" s="1">
+        <v>25</v>
+      </c>
+      <c r="M155" s="1">
+        <v>13</v>
+      </c>
+      <c r="N155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="1">
+        <v>20</v>
+      </c>
+      <c r="F156" s="1">
+        <v>40</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
         <v>12</v>
       </c>
-      <c r="J154" s="1">
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>60</v>
+      </c>
+      <c r="K156" t="s">
+        <v>14</v>
+      </c>
+      <c r="L156" s="1">
+        <v>5</v>
+      </c>
+      <c r="M156" s="1">
+        <v>3</v>
+      </c>
+      <c r="N156" s="1">
         <v>15</v>
       </c>
-      <c r="K154" t="s">
-        <v>14</v>
-      </c>
-      <c r="L154" s="1">
-        <v>69</v>
-      </c>
-      <c r="M154" s="1">
-        <v>35</v>
-      </c>
-      <c r="N154" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155" s="1">
-        <v>6</v>
-      </c>
-      <c r="B155" s="1">
-        <v>5</v>
-      </c>
-      <c r="C155" s="1">
-        <v>2</v>
-      </c>
-      <c r="D155" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="1">
-        <v>0</v>
-      </c>
-      <c r="F155" s="1">
-        <v>0</v>
-      </c>
-      <c r="G155" s="1">
-        <v>0</v>
-      </c>
-      <c r="H155" s="1">
-        <v>0</v>
-      </c>
-      <c r="I155" s="1">
-        <v>0</v>
-      </c>
-      <c r="J155" s="1">
-        <v>0</v>
-      </c>
-      <c r="K155" t="s">
-        <v>14</v>
-      </c>
-      <c r="L155" s="1">
-        <v>70</v>
-      </c>
-      <c r="M155" s="1">
-        <v>35</v>
-      </c>
-      <c r="N155" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="1">
-        <v>6</v>
-      </c>
-      <c r="B156" s="1">
-        <v>6</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1</v>
-      </c>
-      <c r="D156" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="1">
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="1">
+        <v>200</v>
+      </c>
+      <c r="F157" s="1">
+        <v>120</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
         <v>60</v>
       </c>
-      <c r="F156" s="1">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
-        <v>120</v>
-      </c>
-      <c r="H156" s="1">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1">
-        <v>15</v>
-      </c>
-      <c r="K156" t="s">
-        <v>14</v>
-      </c>
-      <c r="L156" s="1">
-        <v>71</v>
-      </c>
-      <c r="M156" s="1">
-        <v>36</v>
-      </c>
-      <c r="N156" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157" s="1">
-        <v>6</v>
-      </c>
-      <c r="B157" s="1">
-        <v>6</v>
-      </c>
-      <c r="C157" s="1">
-        <v>2</v>
-      </c>
-      <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-      <c r="F157" s="1">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1">
-        <v>0</v>
-      </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-      <c r="I157" s="1">
-        <v>0</v>
-      </c>
-      <c r="J157" s="1">
-        <v>0</v>
-      </c>
       <c r="K157" t="s">
         <v>14</v>
       </c>
       <c r="L157" s="1">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M157" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="N157" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -7382,51 +7043,51 @@
         <v>120</v>
       </c>
       <c r="G158" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H158" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I158" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
       </c>
       <c r="L158" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="M158" s="1">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N158" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B159" s="1">
         <v>1</v>
       </c>
       <c r="C159" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F159" s="1">
         <v>0</v>
       </c>
       <c r="G159" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H159" s="1">
         <v>0</v>
@@ -7435,24 +7096,24 @@
         <v>0</v>
       </c>
       <c r="J159" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K159" t="s">
         <v>14</v>
       </c>
       <c r="L159" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="M159" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N159" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1">
         <v>2</v>
@@ -7464,86 +7125,86 @@
         <v>4</v>
       </c>
       <c r="E160" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F160" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G160" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H160" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I160" s="1">
         <v>12</v>
       </c>
       <c r="J160" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K160" t="s">
         <v>14</v>
       </c>
       <c r="L160" s="1">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="M160" s="1">
+        <v>14</v>
+      </c>
+      <c r="N160" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1">
+        <v>6</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="1">
+        <v>200</v>
+      </c>
+      <c r="F161" s="1">
+        <v>120</v>
+      </c>
+      <c r="G161" s="1">
+        <v>40</v>
+      </c>
+      <c r="H161" s="1">
+        <v>12</v>
+      </c>
+      <c r="I161" s="1">
+        <v>6</v>
+      </c>
+      <c r="J161" s="1">
+        <v>60</v>
+      </c>
+      <c r="K161" t="s">
+        <v>14</v>
+      </c>
+      <c r="L161" s="1">
+        <v>23</v>
+      </c>
+      <c r="M161" s="1">
+        <v>12</v>
+      </c>
+      <c r="N161" s="1">
         <v>38</v>
       </c>
-      <c r="N160" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161" s="1">
-        <v>7</v>
-      </c>
-      <c r="B161" s="1">
-        <v>2</v>
-      </c>
-      <c r="C161" s="1">
-        <v>2</v>
-      </c>
-      <c r="D161" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" s="1">
-        <v>0</v>
-      </c>
-      <c r="F161" s="1">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1">
-        <v>0</v>
-      </c>
-      <c r="H161" s="1">
-        <v>0</v>
-      </c>
-      <c r="I161" s="1">
-        <v>0</v>
-      </c>
-      <c r="J161" s="1">
-        <v>0</v>
-      </c>
-      <c r="K161" t="s">
-        <v>14</v>
-      </c>
-      <c r="L161" s="1">
-        <v>76</v>
-      </c>
-      <c r="M161" s="1">
-        <v>38</v>
-      </c>
-      <c r="N161" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+    </row>
+    <row r="162">
       <c r="A162" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B162" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
@@ -7552,174 +7213,174 @@
         <v>4</v>
       </c>
       <c r="E162" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F162" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G162" s="1">
         <v>80</v>
       </c>
       <c r="H162" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I162" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J162" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
       </c>
       <c r="L162" s="1">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M162" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N162" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="A163" s="1">
         <v>7</v>
       </c>
       <c r="B163" s="1">
+        <v>6</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="1">
+        <v>20</v>
+      </c>
+      <c r="F163" s="1">
+        <v>80</v>
+      </c>
+      <c r="G163" s="1">
+        <v>40</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>2</v>
+      </c>
+      <c r="J163" s="1">
+        <v>60</v>
+      </c>
+      <c r="K163" t="s">
+        <v>14</v>
+      </c>
+      <c r="L163" s="1">
+        <v>83</v>
+      </c>
+      <c r="M163" s="1">
+        <v>42</v>
+      </c>
+      <c r="N163" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="1">
+        <v>200</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>120</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>12</v>
+      </c>
+      <c r="J164" s="1">
+        <v>60</v>
+      </c>
+      <c r="K164" t="s">
+        <v>14</v>
+      </c>
+      <c r="L164" s="1">
+        <v>43</v>
+      </c>
+      <c r="M164" s="1">
+        <v>22</v>
+      </c>
+      <c r="N164" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>5</v>
+      </c>
+      <c r="B165" s="1">
         <v>3</v>
       </c>
-      <c r="C163" s="1">
-        <v>2</v>
-      </c>
-      <c r="D163" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="1">
-        <v>0</v>
-      </c>
-      <c r="F163" s="1">
-        <v>0</v>
-      </c>
-      <c r="G163" s="1">
-        <v>0</v>
-      </c>
-      <c r="H163" s="1">
-        <v>0</v>
-      </c>
-      <c r="I163" s="1">
-        <v>0</v>
-      </c>
-      <c r="J163" s="1">
-        <v>0</v>
-      </c>
-      <c r="K163" t="s">
-        <v>14</v>
-      </c>
-      <c r="L163" s="1">
-        <v>78</v>
-      </c>
-      <c r="M163" s="1">
-        <v>39</v>
-      </c>
-      <c r="N163" s="1">
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="1">
+        <v>200</v>
+      </c>
+      <c r="F165" s="1">
+        <v>40</v>
+      </c>
+      <c r="G165" s="1">
+        <v>80</v>
+      </c>
+      <c r="H165" s="1">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1">
+        <v>2</v>
+      </c>
+      <c r="J165" s="1">
+        <v>60</v>
+      </c>
+      <c r="K165" t="s">
+        <v>14</v>
+      </c>
+      <c r="L165" s="1">
+        <v>53</v>
+      </c>
+      <c r="M165" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:14">
-      <c r="A164" s="1">
-        <v>7</v>
-      </c>
-      <c r="B164" s="1">
-        <v>4</v>
-      </c>
-      <c r="C164" s="1">
-        <v>1</v>
-      </c>
-      <c r="D164" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="1">
-        <v>60</v>
-      </c>
-      <c r="F164" s="1">
-        <v>120</v>
-      </c>
-      <c r="G164" s="1">
-        <v>80</v>
-      </c>
-      <c r="H164" s="1">
-        <v>2</v>
-      </c>
-      <c r="I164" s="1">
-        <v>2</v>
-      </c>
-      <c r="J164" s="1">
-        <v>15</v>
-      </c>
-      <c r="K164" t="s">
-        <v>14</v>
-      </c>
-      <c r="L164" s="1">
-        <v>79</v>
-      </c>
-      <c r="M164" s="1">
-        <v>40</v>
-      </c>
-      <c r="N164" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165" s="1">
-        <v>7</v>
-      </c>
-      <c r="B165" s="1">
-        <v>4</v>
-      </c>
-      <c r="C165" s="1">
-        <v>2</v>
-      </c>
-      <c r="D165" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1">
-        <v>0</v>
-      </c>
-      <c r="H165" s="1">
-        <v>0</v>
-      </c>
-      <c r="I165" s="1">
-        <v>0</v>
-      </c>
-      <c r="J165" s="1">
-        <v>0</v>
-      </c>
-      <c r="K165" t="s">
-        <v>14</v>
-      </c>
-      <c r="L165" s="1">
-        <v>80</v>
-      </c>
-      <c r="M165" s="1">
-        <v>40</v>
-      </c>
       <c r="N165" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="A166" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
@@ -7731,16 +7392,16 @@
         <v>20</v>
       </c>
       <c r="F166" s="1">
+        <v>120</v>
+      </c>
+      <c r="G166" s="1">
         <v>40</v>
       </c>
-      <c r="G166" s="1">
-        <v>120</v>
-      </c>
       <c r="H166" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J166" s="1">
         <v>60</v>
@@ -7749,65 +7410,65 @@
         <v>14</v>
       </c>
       <c r="L166" s="1">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="M166" s="1">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="N166" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B167" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E167" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F167" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G167" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H167" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I167" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J167" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K167" t="s">
         <v>14</v>
       </c>
       <c r="L167" s="1">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="M167" s="1">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="N167" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" s="1">
         <v>7</v>
       </c>
       <c r="B168" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
@@ -7819,16 +7480,16 @@
         <v>20</v>
       </c>
       <c r="F168" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G168" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H168" s="1">
         <v>0</v>
       </c>
       <c r="I168" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" s="1">
         <v>60</v>
@@ -7837,66 +7498,59 @@
         <v>14</v>
       </c>
       <c r="L168" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M168" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N168" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F169" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G169" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H169" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J169" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K169" t="s">
         <v>14</v>
       </c>
       <c r="L169" s="1">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="M169" s="1">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N169" s="1">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N170">
-    <sortCondition ref="K2:K170"/>
-    <sortCondition ref="A2:A170"/>
-    <sortCondition ref="B2:B170"/>
-    <sortCondition descending="1" ref="D2:D170"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment_design/store/design_matrix.xlsx
+++ b/experiment_design/store/design_matrix.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="221">
   <si>
     <t>block</t>
   </si>
@@ -405,244 +405,256 @@
     <t>access</t>
   </si>
   <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Tables and Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>No Access</t>
-  </si>
-  <si>
-    <t>Walking Trails</t>
-  </si>
-  <si>
-    <t>No Access</t>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
   </si>
   <si>
     <t>distance</t>
@@ -651,10 +663,10 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>miles</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>near</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>alt_id</t>
@@ -744,19 +756,19 @@
         <v>129</v>
       </c>
       <c r="K1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
@@ -773,28 +785,28 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>130</v>
       </c>
       <c r="K2" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -803,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -841,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
@@ -850,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -867,28 +879,28 @@
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="1">
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M4" s="1">
         <v>3</v>
@@ -897,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -929,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M5" s="1">
         <v>4</v>
@@ -944,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -961,28 +973,28 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F6" s="1">
         <v>40</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K6" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
@@ -991,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1023,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M7" s="1">
         <v>6</v>
@@ -1038,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1055,28 +1067,28 @@
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F8" s="1">
         <v>120</v>
       </c>
       <c r="G8" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M8" s="1">
         <v>7</v>
@@ -1085,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1117,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M9" s="1">
         <v>8</v>
@@ -1132,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1152,25 +1164,25 @@
         <v>50</v>
       </c>
       <c r="F10" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K10" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M10" s="1">
         <v>9</v>
@@ -1179,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="O10" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1211,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M11" s="1">
         <v>10</v>
@@ -1226,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="O11" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -1246,7 +1258,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
         <v>40</v>
@@ -1255,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K12" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M12" s="1">
         <v>11</v>
@@ -1305,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M13" s="1">
         <v>12</v>
@@ -1337,28 +1349,28 @@
         <v>16</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
         <v>120</v>
       </c>
       <c r="G14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K14" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M14" s="1">
         <v>13</v>
@@ -1367,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="O14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1399,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M15" s="1">
         <v>14</v>
@@ -1414,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="O15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1431,28 +1443,28 @@
         <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K16" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M16" s="1">
         <v>15</v>
@@ -1461,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1493,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M17" s="1">
         <v>16</v>
@@ -1508,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="O17" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1525,28 +1537,28 @@
         <v>20</v>
       </c>
       <c r="E18" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G18" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K18" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M18" s="1">
         <v>17</v>
@@ -1555,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="O18" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1587,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M19" s="1">
         <v>18</v>
@@ -1602,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="O19" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1619,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <v>120</v>
@@ -1631,16 +1643,16 @@
         <v>12</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M20" s="1">
         <v>19</v>
@@ -1649,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1681,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M21" s="1">
         <v>20</v>
@@ -1696,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="O21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1713,28 +1725,28 @@
         <v>24</v>
       </c>
       <c r="E22" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K22" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M22" s="1">
         <v>21</v>
@@ -1743,7 +1755,7 @@
         <v>11</v>
       </c>
       <c r="O22" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1781,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M23" s="1">
         <v>22</v>
@@ -1790,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="O23" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1807,28 +1819,28 @@
         <v>26</v>
       </c>
       <c r="E24" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K24" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M24" s="1">
         <v>23</v>
@@ -1837,7 +1849,7 @@
         <v>12</v>
       </c>
       <c r="O24" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1869,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M25" s="1">
         <v>24</v>
@@ -1884,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="O25" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -1901,28 +1913,28 @@
         <v>28</v>
       </c>
       <c r="E26" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I26" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K26" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M26" s="1">
         <v>25</v>
@@ -1931,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="O26" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1963,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M27" s="1">
         <v>26</v>
@@ -1978,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="O27" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1995,28 +2007,28 @@
         <v>30</v>
       </c>
       <c r="E28" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F28" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G28" s="1">
         <v>40</v>
       </c>
       <c r="H28" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I28" s="1">
         <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K28" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M28" s="1">
         <v>27</v>
@@ -2025,7 +2037,7 @@
         <v>14</v>
       </c>
       <c r="O28" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -2057,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M29" s="1">
         <v>28</v>
@@ -2072,7 +2084,7 @@
         <v>14</v>
       </c>
       <c r="O29" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -2089,28 +2101,28 @@
         <v>32</v>
       </c>
       <c r="E30" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H30" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I30" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K30" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M30" s="1">
         <v>29</v>
@@ -2119,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="O30" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2151,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M31" s="1">
         <v>30</v>
@@ -2166,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="O31" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2183,28 +2195,28 @@
         <v>34</v>
       </c>
       <c r="E32" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F32" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
         <v>6</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K32" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M32" s="1">
         <v>31</v>
@@ -2213,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="O32" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -2251,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M33" s="1">
         <v>32</v>
@@ -2260,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="O33" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -2277,19 +2289,19 @@
         <v>36</v>
       </c>
       <c r="E34" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F34" s="1">
         <v>40</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H34" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
         <v>151</v>
@@ -2298,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M34" s="1">
         <v>33</v>
@@ -2307,7 +2319,7 @@
         <v>17</v>
       </c>
       <c r="O34" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -2345,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M35" s="1">
         <v>34</v>
@@ -2354,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="O35" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -2371,28 +2383,28 @@
         <v>38</v>
       </c>
       <c r="E36" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1">
         <v>40</v>
       </c>
       <c r="H36" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I36" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>152</v>
       </c>
       <c r="K36" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M36" s="1">
         <v>35</v>
@@ -2401,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="O36" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -2439,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M37" s="1">
         <v>36</v>
@@ -2448,7 +2460,7 @@
         <v>18</v>
       </c>
       <c r="O37" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -2465,28 +2477,28 @@
         <v>40</v>
       </c>
       <c r="E38" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>80</v>
       </c>
       <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
         <v>12</v>
       </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K38" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M38" s="1">
         <v>37</v>
@@ -2527,13 +2539,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M39" s="1">
         <v>38</v>
@@ -2559,28 +2571,28 @@
         <v>42</v>
       </c>
       <c r="E40" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K40" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M40" s="1">
         <v>39</v>
@@ -2589,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="O40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2627,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M41" s="1">
         <v>40</v>
@@ -2636,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="O41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2653,28 +2665,28 @@
         <v>44</v>
       </c>
       <c r="E42" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F42" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>12</v>
       </c>
       <c r="I42" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K42" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M42" s="1">
         <v>41</v>
@@ -2683,7 +2695,7 @@
         <v>21</v>
       </c>
       <c r="O42" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2715,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M43" s="1">
         <v>42</v>
@@ -2730,7 +2742,7 @@
         <v>21</v>
       </c>
       <c r="O43" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2747,28 +2759,28 @@
         <v>46</v>
       </c>
       <c r="E44" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F44" s="1">
+        <v>80</v>
+      </c>
+      <c r="G44" s="1">
         <v>120</v>
       </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
       <c r="H44" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K44" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M44" s="1">
         <v>43</v>
@@ -2777,7 +2789,7 @@
         <v>22</v>
       </c>
       <c r="O44" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2809,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M45" s="1">
         <v>44</v>
@@ -2824,7 +2836,7 @@
         <v>22</v>
       </c>
       <c r="O45" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -2841,28 +2853,28 @@
         <v>48</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G46" s="1">
         <v>120</v>
       </c>
       <c r="H46" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K46" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L46" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M46" s="1">
         <v>45</v>
@@ -2871,7 +2883,7 @@
         <v>23</v>
       </c>
       <c r="O46" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -2903,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M47" s="1">
         <v>46</v>
@@ -2918,7 +2930,7 @@
         <v>23</v>
       </c>
       <c r="O47" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -2935,10 +2947,10 @@
         <v>50</v>
       </c>
       <c r="E48" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>120</v>
@@ -2947,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K48" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M48" s="1">
         <v>47</v>
@@ -2965,7 +2977,7 @@
         <v>24</v>
       </c>
       <c r="O48" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -2997,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M49" s="1">
         <v>48</v>
@@ -3012,7 +3024,7 @@
         <v>24</v>
       </c>
       <c r="O49" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -3029,28 +3041,28 @@
         <v>52</v>
       </c>
       <c r="E50" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1">
         <v>80</v>
       </c>
       <c r="G50" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H50" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I50" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K50" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L50" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M50" s="1">
         <v>49</v>
@@ -3059,7 +3071,7 @@
         <v>25</v>
       </c>
       <c r="O50" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -3091,13 +3103,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M51" s="1">
         <v>50</v>
@@ -3106,7 +3118,7 @@
         <v>25</v>
       </c>
       <c r="O51" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -3123,28 +3135,28 @@
         <v>54</v>
       </c>
       <c r="E52" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F52" s="1">
+        <v>40</v>
+      </c>
+      <c r="G52" s="1">
         <v>120</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K52" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M52" s="1">
         <v>51</v>
@@ -3153,7 +3165,7 @@
         <v>26</v>
       </c>
       <c r="O52" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -3185,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M53" s="1">
         <v>52</v>
@@ -3200,7 +3212,7 @@
         <v>26</v>
       </c>
       <c r="O53" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -3217,28 +3229,28 @@
         <v>56</v>
       </c>
       <c r="E54" s="1">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G54" s="1">
         <v>120</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" s="1">
         <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K54" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M54" s="1">
         <v>53</v>
@@ -3247,7 +3259,7 @@
         <v>27</v>
       </c>
       <c r="O54" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -3279,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M55" s="1">
         <v>54</v>
@@ -3294,7 +3306,7 @@
         <v>27</v>
       </c>
       <c r="O55" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -3311,28 +3323,28 @@
         <v>58</v>
       </c>
       <c r="E56" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F56" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
         <v>12</v>
       </c>
-      <c r="I56" s="1">
-        <v>6</v>
-      </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K56" s="1">
         <v>10</v>
       </c>
       <c r="L56" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M56" s="1">
         <v>55</v>
@@ -3341,7 +3353,7 @@
         <v>28</v>
       </c>
       <c r="O56" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -3373,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M57" s="1">
         <v>56</v>
@@ -3388,7 +3400,7 @@
         <v>28</v>
       </c>
       <c r="O57" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3405,28 +3417,28 @@
         <v>60</v>
       </c>
       <c r="E58" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F58" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G58" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K58" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L58" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M58" s="1">
         <v>57</v>
@@ -3435,7 +3447,7 @@
         <v>29</v>
       </c>
       <c r="O58" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -3467,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M59" s="1">
         <v>58</v>
@@ -3482,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="O59" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -3502,25 +3514,25 @@
         <v>20</v>
       </c>
       <c r="F60" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G60" s="1">
         <v>80</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I60" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K60" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M60" s="1">
         <v>59</v>
@@ -3529,7 +3541,7 @@
         <v>30</v>
       </c>
       <c r="O60" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -3561,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M61" s="1">
         <v>60</v>
@@ -3576,7 +3588,7 @@
         <v>30</v>
       </c>
       <c r="O61" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -3593,28 +3605,28 @@
         <v>64</v>
       </c>
       <c r="E62" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F62" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K62" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M62" s="1">
         <v>1</v>
@@ -3623,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3655,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M63" s="1">
         <v>2</v>
@@ -3670,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="O63" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -3687,28 +3699,28 @@
         <v>66</v>
       </c>
       <c r="E64" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F64" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K64" s="1">
         <v>15</v>
       </c>
       <c r="L64" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M64" s="1">
         <v>3</v>
@@ -3717,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="O64" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -3755,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M65" s="1">
         <v>4</v>
@@ -3764,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="O65" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -3781,28 +3793,28 @@
         <v>68</v>
       </c>
       <c r="E66" s="1">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F66" s="1">
         <v>40</v>
       </c>
       <c r="G66" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>174</v>
       </c>
       <c r="K66" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M66" s="1">
         <v>5</v>
@@ -3811,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="O66" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -3849,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M67" s="1">
         <v>6</v>
@@ -3858,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="O67" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -3875,28 +3887,28 @@
         <v>70</v>
       </c>
       <c r="E68" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F68" s="1">
         <v>120</v>
       </c>
       <c r="G68" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H68" s="1">
         <v>2</v>
       </c>
       <c r="I68" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K68" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L68" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M68" s="1">
         <v>7</v>
@@ -3905,7 +3917,7 @@
         <v>4</v>
       </c>
       <c r="O68" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -3937,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K69" s="1">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M69" s="1">
         <v>8</v>
@@ -3952,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="O69" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -3972,25 +3984,25 @@
         <v>50</v>
       </c>
       <c r="F70" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G70" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K70" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L70" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M70" s="1">
         <v>9</v>
@@ -3999,7 +4011,7 @@
         <v>5</v>
       </c>
       <c r="O70" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -4031,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M71" s="1">
         <v>10</v>
@@ -4046,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="O71" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
@@ -4066,7 +4078,7 @@
         <v>100</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G72" s="1">
         <v>40</v>
@@ -4075,16 +4087,16 @@
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K72" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M72" s="1">
         <v>11</v>
@@ -4125,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M73" s="1">
         <v>12</v>
@@ -4157,28 +4169,28 @@
         <v>76</v>
       </c>
       <c r="E74" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F74" s="1">
         <v>120</v>
       </c>
       <c r="G74" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M74" s="1">
         <v>13</v>
@@ -4187,7 +4199,7 @@
         <v>7</v>
       </c>
       <c r="O74" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -4219,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M75" s="1">
         <v>14</v>
@@ -4234,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="O75" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -4251,28 +4263,28 @@
         <v>78</v>
       </c>
       <c r="E76" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G76" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" s="1">
         <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L76" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M76" s="1">
         <v>15</v>
@@ -4281,7 +4293,7 @@
         <v>8</v>
       </c>
       <c r="O76" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -4319,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M77" s="1">
         <v>16</v>
@@ -4328,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="O77" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -4345,19 +4357,19 @@
         <v>80</v>
       </c>
       <c r="E78" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F78" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G78" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H78" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>182</v>
@@ -4366,7 +4378,7 @@
         <v>30</v>
       </c>
       <c r="L78" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M78" s="1">
         <v>17</v>
@@ -4375,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="O78" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4413,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M79" s="1">
         <v>18</v>
@@ -4422,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="O79" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -4439,7 +4451,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F80" s="1">
         <v>120</v>
@@ -4451,16 +4463,16 @@
         <v>12</v>
       </c>
       <c r="I80" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J80" t="s">
         <v>183</v>
       </c>
       <c r="K80" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L80" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M80" s="1">
         <v>19</v>
@@ -4469,7 +4481,7 @@
         <v>10</v>
       </c>
       <c r="O80" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -4507,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M81" s="1">
         <v>20</v>
@@ -4516,7 +4528,7 @@
         <v>10</v>
       </c>
       <c r="O81" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -4533,28 +4545,28 @@
         <v>84</v>
       </c>
       <c r="E82" s="1">
+        <v>50</v>
+      </c>
+      <c r="F82" s="1">
+        <v>40</v>
+      </c>
+      <c r="G82" s="1">
+        <v>80</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>12</v>
+      </c>
+      <c r="J82" t="s">
+        <v>184</v>
+      </c>
+      <c r="K82" s="1">
         <v>20</v>
       </c>
-      <c r="F82" s="1">
-        <v>120</v>
-      </c>
-      <c r="G82" s="1">
-        <v>40</v>
-      </c>
-      <c r="H82" s="1">
-        <v>2</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>183</v>
-      </c>
-      <c r="K82" s="1">
-        <v>60</v>
-      </c>
       <c r="L82" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M82" s="1">
         <v>21</v>
@@ -4563,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="O82" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -4595,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K83" s="1">
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M83" s="1">
         <v>22</v>
@@ -4610,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="O83" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -4627,28 +4639,28 @@
         <v>86</v>
       </c>
       <c r="E84" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F84" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G84" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K84" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L84" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M84" s="1">
         <v>23</v>
@@ -4657,7 +4669,7 @@
         <v>12</v>
       </c>
       <c r="O84" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
@@ -4695,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M85" s="1">
         <v>24</v>
@@ -4704,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="O85" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
@@ -4721,28 +4733,28 @@
         <v>88</v>
       </c>
       <c r="E86" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F86" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G86" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H86" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I86" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J86" t="s">
         <v>186</v>
       </c>
       <c r="K86" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L86" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M86" s="1">
         <v>25</v>
@@ -4751,7 +4763,7 @@
         <v>13</v>
       </c>
       <c r="O86" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -4789,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M87" s="1">
         <v>26</v>
@@ -4798,7 +4810,7 @@
         <v>13</v>
       </c>
       <c r="O87" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -4815,16 +4827,16 @@
         <v>90</v>
       </c>
       <c r="E88" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F88" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G88" s="1">
         <v>40</v>
       </c>
       <c r="H88" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I88" s="1">
         <v>12</v>
@@ -4833,10 +4845,10 @@
         <v>188</v>
       </c>
       <c r="K88" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L88" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M88" s="1">
         <v>27</v>
@@ -4845,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="O88" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4883,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M89" s="1">
         <v>28</v>
@@ -4892,7 +4904,7 @@
         <v>14</v>
       </c>
       <c r="O89" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4909,28 +4921,28 @@
         <v>92</v>
       </c>
       <c r="E90" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F90" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G90" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H90" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I90" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>190</v>
       </c>
       <c r="K90" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L90" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M90" s="1">
         <v>29</v>
@@ -4939,7 +4951,7 @@
         <v>15</v>
       </c>
       <c r="O90" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -4977,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M91" s="1">
         <v>30</v>
@@ -4986,7 +4998,7 @@
         <v>15</v>
       </c>
       <c r="O91" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -5003,28 +5015,28 @@
         <v>94</v>
       </c>
       <c r="E92" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F92" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1">
         <v>6</v>
       </c>
-      <c r="I92" s="1">
-        <v>0</v>
-      </c>
       <c r="J92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K92" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L92" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M92" s="1">
         <v>31</v>
@@ -5033,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="O92" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
@@ -5065,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K93" s="1">
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M93" s="1">
         <v>32</v>
@@ -5080,7 +5092,7 @@
         <v>16</v>
       </c>
       <c r="O93" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -5097,28 +5109,28 @@
         <v>96</v>
       </c>
       <c r="E94" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F94" s="1">
         <v>40</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H94" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J94" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K94" s="1">
         <v>15</v>
       </c>
       <c r="L94" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M94" s="1">
         <v>33</v>
@@ -5127,7 +5139,7 @@
         <v>17</v>
       </c>
       <c r="O94" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -5159,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K95" s="1">
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M95" s="1">
         <v>34</v>
@@ -5174,7 +5186,7 @@
         <v>17</v>
       </c>
       <c r="O95" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -5191,28 +5203,28 @@
         <v>98</v>
       </c>
       <c r="E96" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F96" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G96" s="1">
         <v>40</v>
       </c>
       <c r="H96" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I96" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K96" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L96" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M96" s="1">
         <v>35</v>
@@ -5221,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="O96" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -5253,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K97" s="1">
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M97" s="1">
         <v>36</v>
@@ -5268,7 +5280,7 @@
         <v>18</v>
       </c>
       <c r="O97" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -5285,28 +5297,28 @@
         <v>100</v>
       </c>
       <c r="E98" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F98" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G98" s="1">
         <v>80</v>
       </c>
       <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
         <v>12</v>
       </c>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K98" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L98" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M98" s="1">
         <v>37</v>
@@ -5353,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M99" s="1">
         <v>38</v>
@@ -5379,28 +5391,28 @@
         <v>102</v>
       </c>
       <c r="E100" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F100" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H100" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I100" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K100" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L100" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M100" s="1">
         <v>39</v>
@@ -5409,7 +5421,7 @@
         <v>20</v>
       </c>
       <c r="O100" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5441,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K101" s="1">
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M101" s="1">
         <v>40</v>
@@ -5456,7 +5468,7 @@
         <v>20</v>
       </c>
       <c r="O101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -5473,28 +5485,28 @@
         <v>104</v>
       </c>
       <c r="E102" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F102" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G102" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1">
         <v>12</v>
       </c>
       <c r="I102" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K102" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L102" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M102" s="1">
         <v>41</v>
@@ -5503,7 +5515,7 @@
         <v>21</v>
       </c>
       <c r="O102" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -5535,13 +5547,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K103" s="1">
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M103" s="1">
         <v>42</v>
@@ -5550,7 +5562,7 @@
         <v>21</v>
       </c>
       <c r="O103" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -5567,28 +5579,28 @@
         <v>106</v>
       </c>
       <c r="E104" s="1">
+        <v>100</v>
+      </c>
+      <c r="F104" s="1">
+        <v>80</v>
+      </c>
+      <c r="G104" s="1">
+        <v>120</v>
+      </c>
+      <c r="H104" s="1">
+        <v>6</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>200</v>
+      </c>
+      <c r="K104" s="1">
         <v>20</v>
       </c>
-      <c r="F104" s="1">
-        <v>120</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>12</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>196</v>
-      </c>
-      <c r="K104" s="1">
-        <v>15</v>
-      </c>
       <c r="L104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M104" s="1">
         <v>43</v>
@@ -5597,7 +5609,7 @@
         <v>22</v>
       </c>
       <c r="O104" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -5629,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K105" s="1">
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M105" s="1">
         <v>44</v>
@@ -5644,7 +5656,7 @@
         <v>22</v>
       </c>
       <c r="O105" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -5661,28 +5673,28 @@
         <v>108</v>
       </c>
       <c r="E106" s="1">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="F106" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G106" s="1">
         <v>120</v>
       </c>
       <c r="H106" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I106" s="1">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K106" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L106" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M106" s="1">
         <v>45</v>
@@ -5691,7 +5703,7 @@
         <v>23</v>
       </c>
       <c r="O106" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
@@ -5723,13 +5735,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K107" s="1">
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M107" s="1">
         <v>46</v>
@@ -5738,7 +5750,7 @@
         <v>23</v>
       </c>
       <c r="O107" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -5755,10 +5767,10 @@
         <v>110</v>
       </c>
       <c r="E108" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F108" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G108" s="1">
         <v>120</v>
@@ -5767,16 +5779,16 @@
         <v>0</v>
       </c>
       <c r="I108" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J108" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K108" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L108" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M108" s="1">
         <v>47</v>
@@ -5785,7 +5797,7 @@
         <v>24</v>
       </c>
       <c r="O108" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
@@ -5817,13 +5829,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K109" s="1">
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M109" s="1">
         <v>48</v>
@@ -5832,7 +5844,7 @@
         <v>24</v>
       </c>
       <c r="O109" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -5849,28 +5861,28 @@
         <v>112</v>
       </c>
       <c r="E110" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F110" s="1">
         <v>80</v>
       </c>
       <c r="G110" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H110" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I110" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K110" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L110" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M110" s="1">
         <v>49</v>
@@ -5879,7 +5891,7 @@
         <v>25</v>
       </c>
       <c r="O110" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -5911,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K111" s="1">
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M111" s="1">
         <v>50</v>
@@ -5926,7 +5938,7 @@
         <v>25</v>
       </c>
       <c r="O111" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -5943,28 +5955,28 @@
         <v>114</v>
       </c>
       <c r="E112" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F112" s="1">
+        <v>40</v>
+      </c>
+      <c r="G112" s="1">
         <v>120</v>
       </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
       <c r="H112" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K112" s="1">
         <v>30</v>
       </c>
       <c r="L112" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M112" s="1">
         <v>51</v>
@@ -5973,7 +5985,7 @@
         <v>26</v>
       </c>
       <c r="O112" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -6005,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K113" s="1">
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M113" s="1">
         <v>52</v>
@@ -6020,7 +6032,7 @@
         <v>26</v>
       </c>
       <c r="O113" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -6037,28 +6049,28 @@
         <v>116</v>
       </c>
       <c r="E114" s="1">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F114" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G114" s="1">
         <v>120</v>
       </c>
       <c r="H114" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" s="1">
         <v>12</v>
       </c>
       <c r="J114" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K114" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L114" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M114" s="1">
         <v>53</v>
@@ -6067,7 +6079,7 @@
         <v>27</v>
       </c>
       <c r="O114" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -6099,13 +6111,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K115" s="1">
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M115" s="1">
         <v>54</v>
@@ -6114,7 +6126,7 @@
         <v>27</v>
       </c>
       <c r="O115" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -6131,28 +6143,28 @@
         <v>118</v>
       </c>
       <c r="E116" s="1">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F116" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
         <v>12</v>
       </c>
-      <c r="I116" s="1">
-        <v>6</v>
-      </c>
       <c r="J116" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K116" s="1">
         <v>15</v>
       </c>
       <c r="L116" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M116" s="1">
         <v>55</v>
@@ -6161,7 +6173,7 @@
         <v>28</v>
       </c>
       <c r="O116" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -6193,13 +6205,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K117" s="1">
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M117" s="1">
         <v>56</v>
@@ -6208,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="O117" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
@@ -6225,28 +6237,28 @@
         <v>120</v>
       </c>
       <c r="E118" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F118" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G118" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H118" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K118" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L118" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M118" s="1">
         <v>57</v>
@@ -6255,7 +6267,7 @@
         <v>29</v>
       </c>
       <c r="O118" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
@@ -6287,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K119" s="1">
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M119" s="1">
         <v>58</v>
@@ -6302,7 +6314,7 @@
         <v>29</v>
       </c>
       <c r="O119" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
@@ -6322,25 +6334,25 @@
         <v>20</v>
       </c>
       <c r="F120" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G120" s="1">
         <v>80</v>
       </c>
       <c r="H120" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I120" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K120" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L120" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M120" s="1">
         <v>59</v>
@@ -6349,7 +6361,7 @@
         <v>30</v>
       </c>
       <c r="O120" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
@@ -6381,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K121" s="1">
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M121" s="1">
         <v>60</v>
@@ -6396,7 +6408,7 @@
         <v>30</v>
       </c>
       <c r="O121" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
